--- a/Q&A.xlsx
+++ b/Q&A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="501">
   <si>
     <t>1. Общие архитектурные вопросы</t>
   </si>
@@ -1652,14 +1652,180 @@
     <t>В свойствах сеанса на сервере 1С:Предприятие 8</t>
   </si>
   <si>
-    <t>Наверное это, так как первые два точно нельзя.</t>
+    <t>4. Интерактивное администрирование прикладных решений</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>Список информационных баз содержит ссылки на …</t>
+  </si>
+  <si>
+    <t>Зарегистрированные информационные базы и может корректироваться вручную или программно</t>
+  </si>
+  <si>
+    <t>Существующие информационные базы и может корректироваться программно</t>
+  </si>
+  <si>
+    <t>Существующие информационные базы и может корректироваться вручную или программно</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>В каком режиме работы клиентского приложения интерактивно доступен список пользователей?</t>
+  </si>
+  <si>
+    <t>В Конфигураторе и 1С:Предприятие</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>Каким образом определяется, что учетная запись пользователя создается для целей администрирования прикладного решения?</t>
+  </si>
+  <si>
+    <t>Необходимо включить флажок "Администратор" в настройках учетной записи пользователя</t>
+  </si>
+  <si>
+    <t>Необходимо выбрать предопределенную роль с названием "Администратор"</t>
+  </si>
+  <si>
+    <t>Необходимо назначить для учетной записи роль из Конфигурации, для которой установлены права "Администрирование" и "Администрирование данных"</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>В каком из файлов могут храниться учетные записи пользователей?</t>
+  </si>
+  <si>
+    <t>1cv8.cf</t>
+  </si>
+  <si>
+    <t>1cv8.cfu</t>
+  </si>
+  <si>
+    <t>1cv8.cfe</t>
+  </si>
+  <si>
+    <t>1cv8.dt</t>
+  </si>
+  <si>
+    <t>Это файл выгрузки ИБ, а как правило ИБ выгружается вместе с пользователями</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>Какой вид аутентификации обязателен для учетной записи администратора прикладного решения?</t>
+  </si>
+  <si>
+    <t>Аутентификация 1С:Предприятия</t>
+  </si>
+  <si>
+    <t>Аутентификация операционной системы</t>
+  </si>
+  <si>
+    <t>Аутентификация OpenID</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>Почему может отсутствовать отображение ролей из Конфигурации в настройках учетной записи (закладка "Прочие")?</t>
+  </si>
+  <si>
+    <t>Это глюк платформы</t>
+  </si>
+  <si>
+    <t>Для роли не установл. настройка "Использовать в учетных записях"</t>
+  </si>
+  <si>
+    <t>Конфигурация не сохранена</t>
+  </si>
+  <si>
+    <t>Конфигурация базы данных не обновлена</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>Как реализовать в прикладном решении контроль модифицированности внешних обработок, используемых пользователем?</t>
+  </si>
+  <si>
+    <t>В свойствах конфигурации включить флажок "Контроль внешних обработок"</t>
+  </si>
+  <si>
+    <t>Создать роль с правом "Контроль внешних обработок" и выбрать ее для нужных пользователей</t>
+  </si>
+  <si>
+    <t>Включить в настройках учетной записи флажок "Защита от опасных действий"</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>В прикладном решении создан пользователь с именем: П_34567890123456789012345678901234567890123456789012345678901234_1</t>
+  </si>
+  <si>
+    <t>Что будет если создать еще пользователя с именем
+П_34567890123456789012345678901234567890123456789012345678901234_2 ?</t>
+  </si>
+  <si>
+    <t>Система выдаст сообщение, что пользователь с таким именем уже существует, и отменит запись информации в базу</t>
+  </si>
+  <si>
+    <t>Система позволит создать учетную запись</t>
+  </si>
+  <si>
+    <t>Система добавит в конец имени уникальный индекс и запишет учетную запись</t>
+  </si>
+  <si>
+    <t>Уникальность поддерживается по первым 64 симв.</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>В каких случаях не поддерживается вариант аутентификации операционной системы?</t>
+  </si>
+  <si>
+    <t>Если клиентское приложение работает на ОС Linux или MacOS</t>
+  </si>
+  <si>
+    <t>Рук-во администратора 6.2.2</t>
+  </si>
+  <si>
+    <t>Если не включено разрешение использование аутентификации ОС в свойствах конфигурации</t>
+  </si>
+  <si>
+    <t>Если используется веб-клиент</t>
+  </si>
+  <si>
+    <t>Всегда может использоваться</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t>В каких случаях не используется аутентификация OpenID?</t>
+  </si>
+  <si>
+    <t>Если не включено разрешение использование аутентификации OpenID в свойствах конфигурации</t>
+  </si>
+  <si>
+    <t>Если используется толстый клиент</t>
+  </si>
+  <si>
+    <t>Наверное это, так как первые два точно нельзя. Но свойствах сеанса тоже только имя компьютера :-(</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1774,6 +1940,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1802,7 +1977,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1852,16 +2027,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1870,28 +2042,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1900,7 +2054,31 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2213,7 +2391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:U516"/>
+  <dimension ref="A3:U575"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A501" workbookViewId="0">
       <selection activeCell="J516" sqref="J516:U516"/>
@@ -2227,7 +2405,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:21" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2255,7 +2433,7 @@
       <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="16"/>
@@ -2327,21 +2505,21 @@
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
@@ -2428,7 +2606,7 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
-      <c r="L14" s="17" t="s">
+      <c r="L14" s="18" t="s">
         <v>18</v>
       </c>
       <c r="M14" s="15"/>
@@ -2469,21 +2647,21 @@
       <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
@@ -2513,7 +2691,7 @@
       <c r="D19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F19" s="15"/>
@@ -2537,7 +2715,7 @@
       <c r="D20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F20" s="15"/>
@@ -2585,21 +2763,21 @@
       <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
@@ -2696,21 +2874,21 @@
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D29" s="3" t="s">
@@ -2725,44 +2903,44 @@
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
-      <c r="L29" s="17" t="s">
+      <c r="L29" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="17" t="s">
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
@@ -2792,21 +2970,21 @@
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D34" s="3" t="s">
@@ -2821,18 +2999,18 @@
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
-      <c r="L34" s="17" t="s">
+      <c r="L34" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D35" s="1" t="s">
@@ -2886,21 +3064,21 @@
       <c r="B38" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D39" s="1" t="s">
@@ -2931,22 +3109,22 @@
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
-      <c r="H41" s="17" t="s">
+      <c r="H41" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="17"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D42" s="1" t="s">
@@ -2962,21 +3140,21 @@
       <c r="B44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D45" s="1" t="s">
@@ -2997,32 +3175,32 @@
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
-      <c r="H46" s="17" t="s">
+      <c r="H46" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="17"/>
-      <c r="T46" s="17"/>
-      <c r="U46" s="17"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="18"/>
+      <c r="U46" s="18"/>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D47" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="27" t="s">
+      <c r="E47" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D48" s="1" t="s">
@@ -3038,26 +3216,26 @@
       <c r="B50" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="21"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="20"/>
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D51" s="1" t="s">
@@ -3103,26 +3281,26 @@
       <c r="B56" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
-      <c r="T56" s="21"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="20"/>
+      <c r="T56" s="20"/>
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D57" s="3" t="s">
@@ -3168,26 +3346,26 @@
       <c r="B62" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="18"/>
-      <c r="O62" s="18"/>
-      <c r="P62" s="18"/>
-      <c r="Q62" s="18"/>
-      <c r="R62" s="18"/>
-      <c r="S62" s="18"/>
-      <c r="T62" s="18"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="19"/>
+      <c r="S62" s="19"/>
+      <c r="T62" s="19"/>
     </row>
     <row r="63" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D63" s="3" t="s">
@@ -3201,19 +3379,19 @@
       <c r="H63" s="16"/>
       <c r="I63" s="16"/>
       <c r="J63" s="16"/>
-      <c r="K63" s="17" t="s">
+      <c r="K63" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
-      <c r="R63" s="17"/>
-      <c r="S63" s="17"/>
-      <c r="T63" s="17"/>
-      <c r="U63" s="17"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="18"/>
+      <c r="T63" s="18"/>
+      <c r="U63" s="18"/>
     </row>
     <row r="64" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D64" s="1" t="s">
@@ -3239,27 +3417,27 @@
       <c r="B67" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="18"/>
-      <c r="O67" s="18"/>
-      <c r="P67" s="18"/>
-      <c r="Q67" s="18"/>
-      <c r="R67" s="18"/>
-      <c r="S67" s="18"/>
-      <c r="T67" s="18"/>
-      <c r="U67" s="18"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="19"/>
+      <c r="T67" s="19"/>
+      <c r="U67" s="19"/>
     </row>
     <row r="68" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D68" s="1" t="s">
@@ -3361,27 +3539,27 @@
       <c r="B73" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="18"/>
-      <c r="P73" s="18"/>
-      <c r="Q73" s="18"/>
-      <c r="R73" s="18"/>
-      <c r="S73" s="18"/>
-      <c r="T73" s="18"/>
-      <c r="U73" s="18"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="19"/>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="19"/>
+      <c r="S73" s="19"/>
+      <c r="T73" s="19"/>
+      <c r="U73" s="19"/>
     </row>
     <row r="74" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D74" s="1" t="s">
@@ -3451,27 +3629,27 @@
       <c r="B79" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C79" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18"/>
-      <c r="O79" s="18"/>
-      <c r="P79" s="18"/>
-      <c r="Q79" s="18"/>
-      <c r="R79" s="18"/>
-      <c r="S79" s="18"/>
-      <c r="T79" s="18"/>
-      <c r="U79" s="18"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="19"/>
+      <c r="M79" s="19"/>
+      <c r="N79" s="19"/>
+      <c r="O79" s="19"/>
+      <c r="P79" s="19"/>
+      <c r="Q79" s="19"/>
+      <c r="R79" s="19"/>
+      <c r="S79" s="19"/>
+      <c r="T79" s="19"/>
+      <c r="U79" s="19"/>
     </row>
     <row r="80" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D80" s="3" t="s">
@@ -3541,27 +3719,27 @@
       <c r="B85" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="18"/>
-      <c r="L85" s="18"/>
-      <c r="M85" s="18"/>
-      <c r="N85" s="18"/>
-      <c r="O85" s="18"/>
-      <c r="P85" s="18"/>
-      <c r="Q85" s="18"/>
-      <c r="R85" s="18"/>
-      <c r="S85" s="18"/>
-      <c r="T85" s="18"/>
-      <c r="U85" s="18"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="19"/>
+      <c r="P85" s="19"/>
+      <c r="Q85" s="19"/>
+      <c r="R85" s="19"/>
+      <c r="S85" s="19"/>
+      <c r="T85" s="19"/>
+      <c r="U85" s="19"/>
     </row>
     <row r="86" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D86" s="1" t="s">
@@ -3618,44 +3796,44 @@
       <c r="D89" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E89" s="30" t="s">
+      <c r="E89" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="F89" s="30"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="30"/>
-      <c r="I89" s="30"/>
-      <c r="J89" s="30"/>
-      <c r="K89" s="30"/>
-      <c r="L89" s="30"/>
-      <c r="M89" s="30"/>
-      <c r="N89" s="30"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="28"/>
+      <c r="K89" s="28"/>
+      <c r="L89" s="28"/>
+      <c r="M89" s="28"/>
+      <c r="N89" s="28"/>
     </row>
     <row r="91" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C91" s="18" t="s">
+      <c r="C91" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="18"/>
-      <c r="I91" s="18"/>
-      <c r="J91" s="18"/>
-      <c r="K91" s="18"/>
-      <c r="L91" s="18"/>
-      <c r="M91" s="18"/>
-      <c r="N91" s="18"/>
-      <c r="O91" s="18"/>
-      <c r="P91" s="18"/>
-      <c r="Q91" s="18"/>
-      <c r="R91" s="18"/>
-      <c r="S91" s="18"/>
-      <c r="T91" s="18"/>
-      <c r="U91" s="18"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="19"/>
+      <c r="K91" s="19"/>
+      <c r="L91" s="19"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="19"/>
+      <c r="O91" s="19"/>
+      <c r="P91" s="19"/>
+      <c r="Q91" s="19"/>
+      <c r="R91" s="19"/>
+      <c r="S91" s="19"/>
+      <c r="T91" s="19"/>
+      <c r="U91" s="19"/>
     </row>
     <row r="92" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D92" s="1" t="s">
@@ -3697,27 +3875,27 @@
       <c r="B96" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C96" s="18" t="s">
+      <c r="C96" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="18"/>
-      <c r="I96" s="18"/>
-      <c r="J96" s="18"/>
-      <c r="K96" s="18"/>
-      <c r="L96" s="18"/>
-      <c r="M96" s="18"/>
-      <c r="N96" s="18"/>
-      <c r="O96" s="18"/>
-      <c r="P96" s="18"/>
-      <c r="Q96" s="18"/>
-      <c r="R96" s="18"/>
-      <c r="S96" s="18"/>
-      <c r="T96" s="18"/>
-      <c r="U96" s="18"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="19"/>
+      <c r="K96" s="19"/>
+      <c r="L96" s="19"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="19"/>
+      <c r="O96" s="19"/>
+      <c r="P96" s="19"/>
+      <c r="Q96" s="19"/>
+      <c r="R96" s="19"/>
+      <c r="S96" s="19"/>
+      <c r="T96" s="19"/>
+      <c r="U96" s="19"/>
     </row>
     <row r="97" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D97" s="1" t="s">
@@ -3759,27 +3937,27 @@
       <c r="B101" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C101" s="18" t="s">
+      <c r="C101" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="18"/>
-      <c r="I101" s="18"/>
-      <c r="J101" s="18"/>
-      <c r="K101" s="18"/>
-      <c r="L101" s="18"/>
-      <c r="M101" s="18"/>
-      <c r="N101" s="18"/>
-      <c r="O101" s="18"/>
-      <c r="P101" s="18"/>
-      <c r="Q101" s="18"/>
-      <c r="R101" s="18"/>
-      <c r="S101" s="18"/>
-      <c r="T101" s="18"/>
-      <c r="U101" s="18"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="19"/>
+      <c r="K101" s="19"/>
+      <c r="L101" s="19"/>
+      <c r="M101" s="19"/>
+      <c r="N101" s="19"/>
+      <c r="O101" s="19"/>
+      <c r="P101" s="19"/>
+      <c r="Q101" s="19"/>
+      <c r="R101" s="19"/>
+      <c r="S101" s="19"/>
+      <c r="T101" s="19"/>
+      <c r="U101" s="19"/>
     </row>
     <row r="102" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D102" s="3" t="s">
@@ -3843,27 +4021,27 @@
       <c r="B106" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C106" s="18" t="s">
+      <c r="C106" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="18"/>
-      <c r="I106" s="18"/>
-      <c r="J106" s="18"/>
-      <c r="K106" s="18"/>
-      <c r="L106" s="18"/>
-      <c r="M106" s="18"/>
-      <c r="N106" s="18"/>
-      <c r="O106" s="18"/>
-      <c r="P106" s="18"/>
-      <c r="Q106" s="18"/>
-      <c r="R106" s="18"/>
-      <c r="S106" s="18"/>
-      <c r="T106" s="18"/>
-      <c r="U106" s="18"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="19"/>
+      <c r="K106" s="19"/>
+      <c r="L106" s="19"/>
+      <c r="M106" s="19"/>
+      <c r="N106" s="19"/>
+      <c r="O106" s="19"/>
+      <c r="P106" s="19"/>
+      <c r="Q106" s="19"/>
+      <c r="R106" s="19"/>
+      <c r="S106" s="19"/>
+      <c r="T106" s="19"/>
+      <c r="U106" s="19"/>
     </row>
     <row r="107" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D107" s="1" t="s">
@@ -3892,18 +4070,18 @@
       <c r="I108" s="16"/>
       <c r="J108" s="16"/>
       <c r="K108" s="16"/>
-      <c r="L108" s="17" t="s">
+      <c r="L108" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
-      <c r="R108" s="17"/>
-      <c r="S108" s="17"/>
-      <c r="T108" s="17"/>
-      <c r="U108" s="17"/>
+      <c r="M108" s="18"/>
+      <c r="N108" s="18"/>
+      <c r="O108" s="18"/>
+      <c r="P108" s="18"/>
+      <c r="Q108" s="18"/>
+      <c r="R108" s="18"/>
+      <c r="S108" s="18"/>
+      <c r="T108" s="18"/>
+      <c r="U108" s="18"/>
     </row>
     <row r="109" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D109" s="1" t="s">
@@ -3923,27 +4101,27 @@
       <c r="B111" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C111" s="18" t="s">
+      <c r="C111" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D111" s="18"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="18"/>
-      <c r="I111" s="18"/>
-      <c r="J111" s="18"/>
-      <c r="K111" s="18"/>
-      <c r="L111" s="18"/>
-      <c r="M111" s="18"/>
-      <c r="N111" s="18"/>
-      <c r="O111" s="18"/>
-      <c r="P111" s="18"/>
-      <c r="Q111" s="18"/>
-      <c r="R111" s="18"/>
-      <c r="S111" s="18"/>
-      <c r="T111" s="18"/>
-      <c r="U111" s="18"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="19"/>
+      <c r="H111" s="19"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="19"/>
+      <c r="K111" s="19"/>
+      <c r="L111" s="19"/>
+      <c r="M111" s="19"/>
+      <c r="N111" s="19"/>
+      <c r="O111" s="19"/>
+      <c r="P111" s="19"/>
+      <c r="Q111" s="19"/>
+      <c r="R111" s="19"/>
+      <c r="S111" s="19"/>
+      <c r="T111" s="19"/>
+      <c r="U111" s="19"/>
     </row>
     <row r="112" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D112" s="3" t="s">
@@ -3973,7 +4151,7 @@
       <c r="D113" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E113" s="19" t="s">
+      <c r="E113" s="17" t="s">
         <v>100</v>
       </c>
       <c r="F113" s="15"/>
@@ -4021,27 +4199,27 @@
       <c r="B116" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C116" s="18" t="s">
+      <c r="C116" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="18"/>
-      <c r="I116" s="18"/>
-      <c r="J116" s="18"/>
-      <c r="K116" s="18"/>
-      <c r="L116" s="18"/>
-      <c r="M116" s="18"/>
-      <c r="N116" s="18"/>
-      <c r="O116" s="18"/>
-      <c r="P116" s="18"/>
-      <c r="Q116" s="18"/>
-      <c r="R116" s="18"/>
-      <c r="S116" s="18"/>
-      <c r="T116" s="18"/>
-      <c r="U116" s="18"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="19"/>
+      <c r="H116" s="19"/>
+      <c r="I116" s="19"/>
+      <c r="J116" s="19"/>
+      <c r="K116" s="19"/>
+      <c r="L116" s="19"/>
+      <c r="M116" s="19"/>
+      <c r="N116" s="19"/>
+      <c r="O116" s="19"/>
+      <c r="P116" s="19"/>
+      <c r="Q116" s="19"/>
+      <c r="R116" s="19"/>
+      <c r="S116" s="19"/>
+      <c r="T116" s="19"/>
+      <c r="U116" s="19"/>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D117" s="1" t="s">
@@ -4084,21 +4262,21 @@
       <c r="I119" s="16"/>
       <c r="J119" s="16"/>
       <c r="K119" s="16"/>
-      <c r="L119" s="17" t="s">
+      <c r="L119" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
-      <c r="R119" s="17"/>
-      <c r="S119" s="17"/>
-      <c r="T119" s="17"/>
-      <c r="U119" s="17"/>
-    </row>
-    <row r="122" spans="1:21" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="28" t="s">
+      <c r="M119" s="18"/>
+      <c r="N119" s="18"/>
+      <c r="O119" s="18"/>
+      <c r="P119" s="18"/>
+      <c r="Q119" s="18"/>
+      <c r="R119" s="18"/>
+      <c r="S119" s="18"/>
+      <c r="T119" s="18"/>
+      <c r="U119" s="18"/>
+    </row>
+    <row r="122" spans="1:21" s="23" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="23" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4106,27 +4284,27 @@
       <c r="B124" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C124" s="21" t="s">
+      <c r="C124" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="18"/>
-      <c r="H124" s="18"/>
-      <c r="I124" s="18"/>
-      <c r="J124" s="18"/>
-      <c r="K124" s="18"/>
-      <c r="L124" s="18"/>
-      <c r="M124" s="18"/>
-      <c r="N124" s="18"/>
-      <c r="O124" s="18"/>
-      <c r="P124" s="18"/>
-      <c r="Q124" s="18"/>
-      <c r="R124" s="18"/>
-      <c r="S124" s="18"/>
-      <c r="T124" s="18"/>
-      <c r="U124" s="18"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="19"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="19"/>
+      <c r="I124" s="19"/>
+      <c r="J124" s="19"/>
+      <c r="K124" s="19"/>
+      <c r="L124" s="19"/>
+      <c r="M124" s="19"/>
+      <c r="N124" s="19"/>
+      <c r="O124" s="19"/>
+      <c r="P124" s="19"/>
+      <c r="Q124" s="19"/>
+      <c r="R124" s="19"/>
+      <c r="S124" s="19"/>
+      <c r="T124" s="19"/>
+      <c r="U124" s="19"/>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D125" s="1" t="s">
@@ -4216,27 +4394,27 @@
       <c r="B132" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C132" s="18" t="s">
+      <c r="C132" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="18"/>
-      <c r="G132" s="18"/>
-      <c r="H132" s="18"/>
-      <c r="I132" s="18"/>
-      <c r="J132" s="18"/>
-      <c r="K132" s="18"/>
-      <c r="L132" s="18"/>
-      <c r="M132" s="18"/>
-      <c r="N132" s="18"/>
-      <c r="O132" s="18"/>
-      <c r="P132" s="18"/>
-      <c r="Q132" s="18"/>
-      <c r="R132" s="18"/>
-      <c r="S132" s="18"/>
-      <c r="T132" s="18"/>
-      <c r="U132" s="18"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="19"/>
+      <c r="I132" s="19"/>
+      <c r="J132" s="19"/>
+      <c r="K132" s="19"/>
+      <c r="L132" s="19"/>
+      <c r="M132" s="19"/>
+      <c r="N132" s="19"/>
+      <c r="O132" s="19"/>
+      <c r="P132" s="19"/>
+      <c r="Q132" s="19"/>
+      <c r="R132" s="19"/>
+      <c r="S132" s="19"/>
+      <c r="T132" s="19"/>
+      <c r="U132" s="19"/>
     </row>
     <row r="133" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D133" s="1" t="s">
@@ -4321,44 +4499,44 @@
       <c r="I138" s="16"/>
       <c r="J138" s="16"/>
       <c r="K138" s="16"/>
-      <c r="L138" s="26" t="s">
+      <c r="L138" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="M138" s="17"/>
-      <c r="N138" s="17"/>
-      <c r="O138" s="17"/>
-      <c r="P138" s="17"/>
-      <c r="Q138" s="17"/>
-      <c r="R138" s="17"/>
-      <c r="S138" s="17"/>
-      <c r="T138" s="17"/>
-      <c r="U138" s="17"/>
+      <c r="M138" s="18"/>
+      <c r="N138" s="18"/>
+      <c r="O138" s="18"/>
+      <c r="P138" s="18"/>
+      <c r="Q138" s="18"/>
+      <c r="R138" s="18"/>
+      <c r="S138" s="18"/>
+      <c r="T138" s="18"/>
+      <c r="U138" s="18"/>
     </row>
     <row r="140" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B140" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C140" s="18" t="s">
+      <c r="C140" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="18"/>
-      <c r="G140" s="18"/>
-      <c r="H140" s="18"/>
-      <c r="I140" s="18"/>
-      <c r="J140" s="18"/>
-      <c r="K140" s="18"/>
-      <c r="L140" s="18"/>
-      <c r="M140" s="18"/>
-      <c r="N140" s="18"/>
-      <c r="O140" s="18"/>
-      <c r="P140" s="18"/>
-      <c r="Q140" s="18"/>
-      <c r="R140" s="18"/>
-      <c r="S140" s="18"/>
-      <c r="T140" s="18"/>
-      <c r="U140" s="18"/>
+      <c r="D140" s="19"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="19"/>
+      <c r="G140" s="19"/>
+      <c r="H140" s="19"/>
+      <c r="I140" s="19"/>
+      <c r="J140" s="19"/>
+      <c r="K140" s="19"/>
+      <c r="L140" s="19"/>
+      <c r="M140" s="19"/>
+      <c r="N140" s="19"/>
+      <c r="O140" s="19"/>
+      <c r="P140" s="19"/>
+      <c r="Q140" s="19"/>
+      <c r="R140" s="19"/>
+      <c r="S140" s="19"/>
+      <c r="T140" s="19"/>
+      <c r="U140" s="19"/>
     </row>
     <row r="141" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D141" s="1" t="s">
@@ -4434,27 +4612,27 @@
       <c r="B147" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C147" s="18" t="s">
+      <c r="C147" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="D147" s="18"/>
-      <c r="E147" s="18"/>
-      <c r="F147" s="18"/>
-      <c r="G147" s="18"/>
-      <c r="H147" s="18"/>
-      <c r="I147" s="18"/>
-      <c r="J147" s="18"/>
-      <c r="K147" s="18"/>
-      <c r="L147" s="18"/>
-      <c r="M147" s="18"/>
-      <c r="N147" s="18"/>
-      <c r="O147" s="18"/>
-      <c r="P147" s="18"/>
-      <c r="Q147" s="18"/>
-      <c r="R147" s="18"/>
-      <c r="S147" s="18"/>
-      <c r="T147" s="18"/>
-      <c r="U147" s="18"/>
+      <c r="D147" s="19"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="19"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="19"/>
+      <c r="K147" s="19"/>
+      <c r="L147" s="19"/>
+      <c r="M147" s="19"/>
+      <c r="N147" s="19"/>
+      <c r="O147" s="19"/>
+      <c r="P147" s="19"/>
+      <c r="Q147" s="19"/>
+      <c r="R147" s="19"/>
+      <c r="S147" s="19"/>
+      <c r="T147" s="19"/>
+      <c r="U147" s="19"/>
     </row>
     <row r="148" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D148" s="1" t="s">
@@ -4488,27 +4666,27 @@
       <c r="B151" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C151" s="18" t="s">
+      <c r="C151" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D151" s="18"/>
-      <c r="E151" s="18"/>
-      <c r="F151" s="18"/>
-      <c r="G151" s="18"/>
-      <c r="H151" s="18"/>
-      <c r="I151" s="18"/>
-      <c r="J151" s="18"/>
-      <c r="K151" s="18"/>
-      <c r="L151" s="18"/>
-      <c r="M151" s="18"/>
-      <c r="N151" s="18"/>
-      <c r="O151" s="18"/>
-      <c r="P151" s="18"/>
-      <c r="Q151" s="18"/>
-      <c r="R151" s="18"/>
-      <c r="S151" s="18"/>
-      <c r="T151" s="18"/>
-      <c r="U151" s="18"/>
+      <c r="D151" s="19"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="19"/>
+      <c r="G151" s="19"/>
+      <c r="H151" s="19"/>
+      <c r="I151" s="19"/>
+      <c r="J151" s="19"/>
+      <c r="K151" s="19"/>
+      <c r="L151" s="19"/>
+      <c r="M151" s="19"/>
+      <c r="N151" s="19"/>
+      <c r="O151" s="19"/>
+      <c r="P151" s="19"/>
+      <c r="Q151" s="19"/>
+      <c r="R151" s="19"/>
+      <c r="S151" s="19"/>
+      <c r="T151" s="19"/>
+      <c r="U151" s="19"/>
     </row>
     <row r="152" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D152" s="3" t="s">
@@ -4598,27 +4776,27 @@
       <c r="B159" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C159" s="18" t="s">
+      <c r="C159" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D159" s="18"/>
-      <c r="E159" s="18"/>
-      <c r="F159" s="18"/>
-      <c r="G159" s="18"/>
-      <c r="H159" s="18"/>
-      <c r="I159" s="18"/>
-      <c r="J159" s="18"/>
-      <c r="K159" s="18"/>
-      <c r="L159" s="18"/>
-      <c r="M159" s="18"/>
-      <c r="N159" s="18"/>
-      <c r="O159" s="18"/>
-      <c r="P159" s="18"/>
-      <c r="Q159" s="18"/>
-      <c r="R159" s="18"/>
-      <c r="S159" s="18"/>
-      <c r="T159" s="18"/>
-      <c r="U159" s="18"/>
+      <c r="D159" s="19"/>
+      <c r="E159" s="19"/>
+      <c r="F159" s="19"/>
+      <c r="G159" s="19"/>
+      <c r="H159" s="19"/>
+      <c r="I159" s="19"/>
+      <c r="J159" s="19"/>
+      <c r="K159" s="19"/>
+      <c r="L159" s="19"/>
+      <c r="M159" s="19"/>
+      <c r="N159" s="19"/>
+      <c r="O159" s="19"/>
+      <c r="P159" s="19"/>
+      <c r="Q159" s="19"/>
+      <c r="R159" s="19"/>
+      <c r="S159" s="19"/>
+      <c r="T159" s="19"/>
+      <c r="U159" s="19"/>
     </row>
     <row r="160" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D160" s="3" t="s">
@@ -4694,27 +4872,27 @@
       <c r="B166" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C166" s="18" t="s">
+      <c r="C166" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="D166" s="18"/>
-      <c r="E166" s="18"/>
-      <c r="F166" s="18"/>
-      <c r="G166" s="18"/>
-      <c r="H166" s="18"/>
-      <c r="I166" s="18"/>
-      <c r="J166" s="18"/>
-      <c r="K166" s="18"/>
-      <c r="L166" s="18"/>
-      <c r="M166" s="18"/>
-      <c r="N166" s="18"/>
-      <c r="O166" s="18"/>
-      <c r="P166" s="18"/>
-      <c r="Q166" s="18"/>
-      <c r="R166" s="18"/>
-      <c r="S166" s="18"/>
-      <c r="T166" s="18"/>
-      <c r="U166" s="18"/>
+      <c r="D166" s="19"/>
+      <c r="E166" s="19"/>
+      <c r="F166" s="19"/>
+      <c r="G166" s="19"/>
+      <c r="H166" s="19"/>
+      <c r="I166" s="19"/>
+      <c r="J166" s="19"/>
+      <c r="K166" s="19"/>
+      <c r="L166" s="19"/>
+      <c r="M166" s="19"/>
+      <c r="N166" s="19"/>
+      <c r="O166" s="19"/>
+      <c r="P166" s="19"/>
+      <c r="Q166" s="19"/>
+      <c r="R166" s="19"/>
+      <c r="S166" s="19"/>
+      <c r="T166" s="19"/>
+      <c r="U166" s="19"/>
     </row>
     <row r="167" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D167" s="1" t="s">
@@ -4743,7 +4921,7 @@
       <c r="I168" s="15"/>
       <c r="J168" s="15"/>
       <c r="K168" s="15"/>
-      <c r="L168" s="17" t="s">
+      <c r="L168" s="18" t="s">
         <v>153</v>
       </c>
       <c r="M168" s="15"/>
@@ -4774,77 +4952,77 @@
       <c r="B171" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C171" s="18" t="s">
+      <c r="C171" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="D171" s="18"/>
-      <c r="E171" s="18"/>
-      <c r="F171" s="18"/>
-      <c r="G171" s="18"/>
-      <c r="H171" s="18"/>
-      <c r="I171" s="18"/>
-      <c r="J171" s="18"/>
-      <c r="K171" s="18"/>
-      <c r="L171" s="18"/>
-      <c r="M171" s="18"/>
-      <c r="N171" s="18"/>
-      <c r="O171" s="18"/>
-      <c r="P171" s="18"/>
-      <c r="Q171" s="18"/>
-      <c r="R171" s="18"/>
-      <c r="S171" s="18"/>
-      <c r="T171" s="18"/>
-      <c r="U171" s="18"/>
+      <c r="D171" s="19"/>
+      <c r="E171" s="19"/>
+      <c r="F171" s="19"/>
+      <c r="G171" s="19"/>
+      <c r="H171" s="19"/>
+      <c r="I171" s="19"/>
+      <c r="J171" s="19"/>
+      <c r="K171" s="19"/>
+      <c r="L171" s="19"/>
+      <c r="M171" s="19"/>
+      <c r="N171" s="19"/>
+      <c r="O171" s="19"/>
+      <c r="P171" s="19"/>
+      <c r="Q171" s="19"/>
+      <c r="R171" s="19"/>
+      <c r="S171" s="19"/>
+      <c r="T171" s="19"/>
+      <c r="U171" s="19"/>
     </row>
     <row r="172" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D172" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E172" s="19" t="s">
+      <c r="E172" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="F172" s="19"/>
-      <c r="G172" s="19"/>
-      <c r="H172" s="19"/>
-      <c r="I172" s="19"/>
-      <c r="J172" s="19"/>
-      <c r="K172" s="19"/>
-      <c r="L172" s="19"/>
-      <c r="M172" s="19"/>
-      <c r="N172" s="19"/>
-      <c r="O172" s="19"/>
-      <c r="P172" s="19"/>
-      <c r="Q172" s="19"/>
-      <c r="R172" s="19"/>
-      <c r="S172" s="19"/>
-      <c r="T172" s="19"/>
-      <c r="U172" s="19"/>
+      <c r="F172" s="17"/>
+      <c r="G172" s="17"/>
+      <c r="H172" s="17"/>
+      <c r="I172" s="17"/>
+      <c r="J172" s="17"/>
+      <c r="K172" s="17"/>
+      <c r="L172" s="17"/>
+      <c r="M172" s="17"/>
+      <c r="N172" s="17"/>
+      <c r="O172" s="17"/>
+      <c r="P172" s="17"/>
+      <c r="Q172" s="17"/>
+      <c r="R172" s="17"/>
+      <c r="S172" s="17"/>
+      <c r="T172" s="17"/>
+      <c r="U172" s="17"/>
     </row>
     <row r="173" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D173" s="15"/>
-      <c r="E173" s="19"/>
-      <c r="F173" s="19"/>
-      <c r="G173" s="19"/>
-      <c r="H173" s="19"/>
-      <c r="I173" s="19"/>
-      <c r="J173" s="19"/>
-      <c r="K173" s="19"/>
-      <c r="L173" s="19"/>
-      <c r="M173" s="19"/>
-      <c r="N173" s="19"/>
-      <c r="O173" s="19"/>
-      <c r="P173" s="19"/>
-      <c r="Q173" s="19"/>
-      <c r="R173" s="19"/>
-      <c r="S173" s="19"/>
-      <c r="T173" s="19"/>
-      <c r="U173" s="19"/>
+      <c r="E173" s="17"/>
+      <c r="F173" s="17"/>
+      <c r="G173" s="17"/>
+      <c r="H173" s="17"/>
+      <c r="I173" s="17"/>
+      <c r="J173" s="17"/>
+      <c r="K173" s="17"/>
+      <c r="L173" s="17"/>
+      <c r="M173" s="17"/>
+      <c r="N173" s="17"/>
+      <c r="O173" s="17"/>
+      <c r="P173" s="17"/>
+      <c r="Q173" s="17"/>
+      <c r="R173" s="17"/>
+      <c r="S173" s="17"/>
+      <c r="T173" s="17"/>
+      <c r="U173" s="17"/>
     </row>
     <row r="174" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D174" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E174" s="19" t="s">
+      <c r="E174" s="17" t="s">
         <v>152</v>
       </c>
       <c r="F174" s="15"/>
@@ -4888,7 +5066,7 @@
       <c r="D176" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E176" s="22" t="s">
+      <c r="E176" s="21" t="s">
         <v>155</v>
       </c>
       <c r="F176" s="16"/>
@@ -4932,71 +5110,71 @@
       <c r="D178" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E178" s="19" t="s">
+      <c r="E178" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="F178" s="19"/>
-      <c r="G178" s="19"/>
-      <c r="H178" s="19"/>
-      <c r="I178" s="19"/>
-      <c r="J178" s="19"/>
-      <c r="K178" s="19"/>
-      <c r="L178" s="19"/>
-      <c r="M178" s="19"/>
-      <c r="N178" s="19"/>
-      <c r="O178" s="19"/>
-      <c r="P178" s="19"/>
-      <c r="Q178" s="19"/>
-      <c r="R178" s="19"/>
-      <c r="S178" s="19"/>
-      <c r="T178" s="19"/>
-      <c r="U178" s="19"/>
+      <c r="F178" s="17"/>
+      <c r="G178" s="17"/>
+      <c r="H178" s="17"/>
+      <c r="I178" s="17"/>
+      <c r="J178" s="17"/>
+      <c r="K178" s="17"/>
+      <c r="L178" s="17"/>
+      <c r="M178" s="17"/>
+      <c r="N178" s="17"/>
+      <c r="O178" s="17"/>
+      <c r="P178" s="17"/>
+      <c r="Q178" s="17"/>
+      <c r="R178" s="17"/>
+      <c r="S178" s="17"/>
+      <c r="T178" s="17"/>
+      <c r="U178" s="17"/>
     </row>
     <row r="179" spans="2:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D179" s="15"/>
-      <c r="E179" s="19"/>
-      <c r="F179" s="19"/>
-      <c r="G179" s="19"/>
-      <c r="H179" s="19"/>
-      <c r="I179" s="19"/>
-      <c r="J179" s="19"/>
-      <c r="K179" s="19"/>
-      <c r="L179" s="19"/>
-      <c r="M179" s="19"/>
-      <c r="N179" s="19"/>
-      <c r="O179" s="19"/>
-      <c r="P179" s="19"/>
-      <c r="Q179" s="19"/>
-      <c r="R179" s="19"/>
-      <c r="S179" s="19"/>
-      <c r="T179" s="19"/>
-      <c r="U179" s="19"/>
+      <c r="E179" s="17"/>
+      <c r="F179" s="17"/>
+      <c r="G179" s="17"/>
+      <c r="H179" s="17"/>
+      <c r="I179" s="17"/>
+      <c r="J179" s="17"/>
+      <c r="K179" s="17"/>
+      <c r="L179" s="17"/>
+      <c r="M179" s="17"/>
+      <c r="N179" s="17"/>
+      <c r="O179" s="17"/>
+      <c r="P179" s="17"/>
+      <c r="Q179" s="17"/>
+      <c r="R179" s="17"/>
+      <c r="S179" s="17"/>
+      <c r="T179" s="17"/>
+      <c r="U179" s="17"/>
     </row>
     <row r="181" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B181" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C181" s="18" t="s">
+      <c r="C181" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="D181" s="18"/>
-      <c r="E181" s="18"/>
-      <c r="F181" s="18"/>
-      <c r="G181" s="18"/>
-      <c r="H181" s="18"/>
-      <c r="I181" s="18"/>
-      <c r="J181" s="18"/>
-      <c r="K181" s="18"/>
-      <c r="L181" s="18"/>
-      <c r="M181" s="18"/>
-      <c r="N181" s="18"/>
-      <c r="O181" s="18"/>
-      <c r="P181" s="18"/>
-      <c r="Q181" s="18"/>
-      <c r="R181" s="18"/>
-      <c r="S181" s="18"/>
-      <c r="T181" s="18"/>
-      <c r="U181" s="18"/>
+      <c r="D181" s="19"/>
+      <c r="E181" s="19"/>
+      <c r="F181" s="19"/>
+      <c r="G181" s="19"/>
+      <c r="H181" s="19"/>
+      <c r="I181" s="19"/>
+      <c r="J181" s="19"/>
+      <c r="K181" s="19"/>
+      <c r="L181" s="19"/>
+      <c r="M181" s="19"/>
+      <c r="N181" s="19"/>
+      <c r="O181" s="19"/>
+      <c r="P181" s="19"/>
+      <c r="Q181" s="19"/>
+      <c r="R181" s="19"/>
+      <c r="S181" s="19"/>
+      <c r="T181" s="19"/>
+      <c r="U181" s="19"/>
     </row>
     <row r="182" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D182" s="1" t="s">
@@ -5019,21 +5197,21 @@
       <c r="F183" s="16"/>
       <c r="G183" s="16"/>
       <c r="H183" s="16"/>
-      <c r="I183" s="26" t="s">
+      <c r="I183" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="J183" s="17"/>
-      <c r="K183" s="17"/>
-      <c r="L183" s="17"/>
-      <c r="M183" s="17"/>
-      <c r="N183" s="17"/>
-      <c r="O183" s="17"/>
-      <c r="P183" s="17"/>
-      <c r="Q183" s="17"/>
-      <c r="R183" s="17"/>
-      <c r="S183" s="17"/>
-      <c r="T183" s="17"/>
-      <c r="U183" s="17"/>
+      <c r="J183" s="18"/>
+      <c r="K183" s="18"/>
+      <c r="L183" s="18"/>
+      <c r="M183" s="18"/>
+      <c r="N183" s="18"/>
+      <c r="O183" s="18"/>
+      <c r="P183" s="18"/>
+      <c r="Q183" s="18"/>
+      <c r="R183" s="18"/>
+      <c r="S183" s="18"/>
+      <c r="T183" s="18"/>
+      <c r="U183" s="18"/>
     </row>
     <row r="184" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D184" s="1" t="s">
@@ -5050,27 +5228,27 @@
       <c r="B186" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C186" s="21" t="s">
+      <c r="C186" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="D186" s="18"/>
-      <c r="E186" s="18"/>
-      <c r="F186" s="18"/>
-      <c r="G186" s="18"/>
-      <c r="H186" s="18"/>
-      <c r="I186" s="18"/>
-      <c r="J186" s="18"/>
-      <c r="K186" s="18"/>
-      <c r="L186" s="18"/>
-      <c r="M186" s="18"/>
-      <c r="N186" s="18"/>
-      <c r="O186" s="18"/>
-      <c r="P186" s="18"/>
-      <c r="Q186" s="18"/>
-      <c r="R186" s="18"/>
-      <c r="S186" s="18"/>
-      <c r="T186" s="18"/>
-      <c r="U186" s="18"/>
+      <c r="D186" s="19"/>
+      <c r="E186" s="19"/>
+      <c r="F186" s="19"/>
+      <c r="G186" s="19"/>
+      <c r="H186" s="19"/>
+      <c r="I186" s="19"/>
+      <c r="J186" s="19"/>
+      <c r="K186" s="19"/>
+      <c r="L186" s="19"/>
+      <c r="M186" s="19"/>
+      <c r="N186" s="19"/>
+      <c r="O186" s="19"/>
+      <c r="P186" s="19"/>
+      <c r="Q186" s="19"/>
+      <c r="R186" s="19"/>
+      <c r="S186" s="19"/>
+      <c r="T186" s="19"/>
+      <c r="U186" s="19"/>
     </row>
     <row r="187" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D187" s="1" t="s">
@@ -5126,27 +5304,27 @@
       <c r="B193" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C193" s="18" t="s">
+      <c r="C193" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="D193" s="18"/>
-      <c r="E193" s="18"/>
-      <c r="F193" s="18"/>
-      <c r="G193" s="18"/>
-      <c r="H193" s="18"/>
-      <c r="I193" s="18"/>
-      <c r="J193" s="18"/>
-      <c r="K193" s="18"/>
-      <c r="L193" s="18"/>
-      <c r="M193" s="18"/>
-      <c r="N193" s="18"/>
-      <c r="O193" s="18"/>
-      <c r="P193" s="18"/>
-      <c r="Q193" s="18"/>
-      <c r="R193" s="18"/>
-      <c r="S193" s="18"/>
-      <c r="T193" s="18"/>
-      <c r="U193" s="18"/>
+      <c r="D193" s="19"/>
+      <c r="E193" s="19"/>
+      <c r="F193" s="19"/>
+      <c r="G193" s="19"/>
+      <c r="H193" s="19"/>
+      <c r="I193" s="19"/>
+      <c r="J193" s="19"/>
+      <c r="K193" s="19"/>
+      <c r="L193" s="19"/>
+      <c r="M193" s="19"/>
+      <c r="N193" s="19"/>
+      <c r="O193" s="19"/>
+      <c r="P193" s="19"/>
+      <c r="Q193" s="19"/>
+      <c r="R193" s="19"/>
+      <c r="S193" s="19"/>
+      <c r="T193" s="19"/>
+      <c r="U193" s="19"/>
     </row>
     <row r="194" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D194" s="1" t="s">
@@ -5184,27 +5362,27 @@
       <c r="B199" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C199" s="18" t="s">
+      <c r="C199" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="D199" s="18"/>
-      <c r="E199" s="18"/>
-      <c r="F199" s="18"/>
-      <c r="G199" s="18"/>
-      <c r="H199" s="18"/>
-      <c r="I199" s="18"/>
-      <c r="J199" s="18"/>
-      <c r="K199" s="18"/>
-      <c r="L199" s="18"/>
-      <c r="M199" s="18"/>
-      <c r="N199" s="18"/>
-      <c r="O199" s="18"/>
-      <c r="P199" s="18"/>
-      <c r="Q199" s="18"/>
-      <c r="R199" s="18"/>
-      <c r="S199" s="18"/>
-      <c r="T199" s="18"/>
-      <c r="U199" s="18"/>
+      <c r="D199" s="19"/>
+      <c r="E199" s="19"/>
+      <c r="F199" s="19"/>
+      <c r="G199" s="19"/>
+      <c r="H199" s="19"/>
+      <c r="I199" s="19"/>
+      <c r="J199" s="19"/>
+      <c r="K199" s="19"/>
+      <c r="L199" s="19"/>
+      <c r="M199" s="19"/>
+      <c r="N199" s="19"/>
+      <c r="O199" s="19"/>
+      <c r="P199" s="19"/>
+      <c r="Q199" s="19"/>
+      <c r="R199" s="19"/>
+      <c r="S199" s="19"/>
+      <c r="T199" s="19"/>
+      <c r="U199" s="19"/>
     </row>
     <row r="200" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D200" s="3" t="s">
@@ -5243,27 +5421,27 @@
       <c r="B204" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C204" s="18" t="s">
+      <c r="C204" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D204" s="18"/>
-      <c r="E204" s="18"/>
-      <c r="F204" s="18"/>
-      <c r="G204" s="18"/>
-      <c r="H204" s="18"/>
-      <c r="I204" s="18"/>
-      <c r="J204" s="18"/>
-      <c r="K204" s="18"/>
-      <c r="L204" s="18"/>
-      <c r="M204" s="18"/>
-      <c r="N204" s="18"/>
-      <c r="O204" s="18"/>
-      <c r="P204" s="18"/>
-      <c r="Q204" s="18"/>
-      <c r="R204" s="18"/>
-      <c r="S204" s="18"/>
-      <c r="T204" s="18"/>
-      <c r="U204" s="18"/>
+      <c r="D204" s="19"/>
+      <c r="E204" s="19"/>
+      <c r="F204" s="19"/>
+      <c r="G204" s="19"/>
+      <c r="H204" s="19"/>
+      <c r="I204" s="19"/>
+      <c r="J204" s="19"/>
+      <c r="K204" s="19"/>
+      <c r="L204" s="19"/>
+      <c r="M204" s="19"/>
+      <c r="N204" s="19"/>
+      <c r="O204" s="19"/>
+      <c r="P204" s="19"/>
+      <c r="Q204" s="19"/>
+      <c r="R204" s="19"/>
+      <c r="S204" s="19"/>
+      <c r="T204" s="19"/>
+      <c r="U204" s="19"/>
     </row>
     <row r="205" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D205" s="1" t="s">
@@ -5296,27 +5474,27 @@
       <c r="B209" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C209" s="18" t="s">
+      <c r="C209" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="D209" s="18"/>
-      <c r="E209" s="18"/>
-      <c r="F209" s="18"/>
-      <c r="G209" s="18"/>
-      <c r="H209" s="18"/>
-      <c r="I209" s="18"/>
-      <c r="J209" s="18"/>
-      <c r="K209" s="18"/>
-      <c r="L209" s="18"/>
-      <c r="M209" s="18"/>
-      <c r="N209" s="18"/>
-      <c r="O209" s="18"/>
-      <c r="P209" s="18"/>
-      <c r="Q209" s="18"/>
-      <c r="R209" s="18"/>
-      <c r="S209" s="18"/>
-      <c r="T209" s="18"/>
-      <c r="U209" s="18"/>
+      <c r="D209" s="19"/>
+      <c r="E209" s="19"/>
+      <c r="F209" s="19"/>
+      <c r="G209" s="19"/>
+      <c r="H209" s="19"/>
+      <c r="I209" s="19"/>
+      <c r="J209" s="19"/>
+      <c r="K209" s="19"/>
+      <c r="L209" s="19"/>
+      <c r="M209" s="19"/>
+      <c r="N209" s="19"/>
+      <c r="O209" s="19"/>
+      <c r="P209" s="19"/>
+      <c r="Q209" s="19"/>
+      <c r="R209" s="19"/>
+      <c r="S209" s="19"/>
+      <c r="T209" s="19"/>
+      <c r="U209" s="19"/>
     </row>
     <row r="210" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D210" s="1" t="s">
@@ -5338,27 +5516,27 @@
       <c r="B213" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C213" s="18" t="s">
+      <c r="C213" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="D213" s="18"/>
-      <c r="E213" s="18"/>
-      <c r="F213" s="18"/>
-      <c r="G213" s="18"/>
-      <c r="H213" s="18"/>
-      <c r="I213" s="18"/>
-      <c r="J213" s="18"/>
-      <c r="K213" s="18"/>
-      <c r="L213" s="18"/>
-      <c r="M213" s="18"/>
-      <c r="N213" s="18"/>
-      <c r="O213" s="18"/>
-      <c r="P213" s="18"/>
-      <c r="Q213" s="18"/>
-      <c r="R213" s="18"/>
-      <c r="S213" s="18"/>
-      <c r="T213" s="18"/>
-      <c r="U213" s="18"/>
+      <c r="D213" s="19"/>
+      <c r="E213" s="19"/>
+      <c r="F213" s="19"/>
+      <c r="G213" s="19"/>
+      <c r="H213" s="19"/>
+      <c r="I213" s="19"/>
+      <c r="J213" s="19"/>
+      <c r="K213" s="19"/>
+      <c r="L213" s="19"/>
+      <c r="M213" s="19"/>
+      <c r="N213" s="19"/>
+      <c r="O213" s="19"/>
+      <c r="P213" s="19"/>
+      <c r="Q213" s="19"/>
+      <c r="R213" s="19"/>
+      <c r="S213" s="19"/>
+      <c r="T213" s="19"/>
+      <c r="U213" s="19"/>
     </row>
     <row r="214" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D214" s="3" t="s">
@@ -5367,24 +5545,24 @@
       <c r="E214" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F214" s="17" t="s">
+      <c r="F214" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="G214" s="17"/>
-      <c r="H214" s="17"/>
-      <c r="I214" s="17"/>
-      <c r="J214" s="17"/>
-      <c r="K214" s="17"/>
-      <c r="L214" s="17"/>
-      <c r="M214" s="17"/>
-      <c r="N214" s="17"/>
-      <c r="O214" s="17"/>
-      <c r="P214" s="17"/>
-      <c r="Q214" s="17"/>
-      <c r="R214" s="17"/>
-      <c r="S214" s="17"/>
-      <c r="T214" s="17"/>
-      <c r="U214" s="17"/>
+      <c r="G214" s="18"/>
+      <c r="H214" s="18"/>
+      <c r="I214" s="18"/>
+      <c r="J214" s="18"/>
+      <c r="K214" s="18"/>
+      <c r="L214" s="18"/>
+      <c r="M214" s="18"/>
+      <c r="N214" s="18"/>
+      <c r="O214" s="18"/>
+      <c r="P214" s="18"/>
+      <c r="Q214" s="18"/>
+      <c r="R214" s="18"/>
+      <c r="S214" s="18"/>
+      <c r="T214" s="18"/>
+      <c r="U214" s="18"/>
     </row>
     <row r="215" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D215" s="1" t="s">
@@ -5398,27 +5576,27 @@
       <c r="B217" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C217" s="18" t="s">
+      <c r="C217" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="D217" s="18"/>
-      <c r="E217" s="18"/>
-      <c r="F217" s="18"/>
-      <c r="G217" s="18"/>
-      <c r="H217" s="18"/>
-      <c r="I217" s="18"/>
-      <c r="J217" s="18"/>
-      <c r="K217" s="18"/>
-      <c r="L217" s="18"/>
-      <c r="M217" s="18"/>
-      <c r="N217" s="18"/>
-      <c r="O217" s="18"/>
-      <c r="P217" s="18"/>
-      <c r="Q217" s="18"/>
-      <c r="R217" s="18"/>
-      <c r="S217" s="18"/>
-      <c r="T217" s="18"/>
-      <c r="U217" s="18"/>
+      <c r="D217" s="19"/>
+      <c r="E217" s="19"/>
+      <c r="F217" s="19"/>
+      <c r="G217" s="19"/>
+      <c r="H217" s="19"/>
+      <c r="I217" s="19"/>
+      <c r="J217" s="19"/>
+      <c r="K217" s="19"/>
+      <c r="L217" s="19"/>
+      <c r="M217" s="19"/>
+      <c r="N217" s="19"/>
+      <c r="O217" s="19"/>
+      <c r="P217" s="19"/>
+      <c r="Q217" s="19"/>
+      <c r="R217" s="19"/>
+      <c r="S217" s="19"/>
+      <c r="T217" s="19"/>
+      <c r="U217" s="19"/>
     </row>
     <row r="218" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D218" s="1" t="s">
@@ -5443,20 +5621,20 @@
       <c r="G219" s="15"/>
       <c r="H219" s="15"/>
       <c r="I219" s="15"/>
-      <c r="J219" s="17" t="s">
+      <c r="J219" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="K219" s="17"/>
-      <c r="L219" s="17"/>
-      <c r="M219" s="17"/>
-      <c r="N219" s="17"/>
-      <c r="O219" s="17"/>
-      <c r="P219" s="17"/>
-      <c r="Q219" s="17"/>
-      <c r="R219" s="17"/>
-      <c r="S219" s="17"/>
-      <c r="T219" s="17"/>
-      <c r="U219" s="17"/>
+      <c r="K219" s="18"/>
+      <c r="L219" s="18"/>
+      <c r="M219" s="18"/>
+      <c r="N219" s="18"/>
+      <c r="O219" s="18"/>
+      <c r="P219" s="18"/>
+      <c r="Q219" s="18"/>
+      <c r="R219" s="18"/>
+      <c r="S219" s="18"/>
+      <c r="T219" s="18"/>
+      <c r="U219" s="18"/>
     </row>
     <row r="220" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D220" s="1" t="s">
@@ -5486,27 +5664,27 @@
       <c r="B223" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C223" s="18" t="s">
+      <c r="C223" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D223" s="18"/>
-      <c r="E223" s="18"/>
-      <c r="F223" s="18"/>
-      <c r="G223" s="18"/>
-      <c r="H223" s="18"/>
-      <c r="I223" s="18"/>
-      <c r="J223" s="18"/>
-      <c r="K223" s="18"/>
-      <c r="L223" s="18"/>
-      <c r="M223" s="18"/>
-      <c r="N223" s="18"/>
-      <c r="O223" s="18"/>
-      <c r="P223" s="18"/>
-      <c r="Q223" s="18"/>
-      <c r="R223" s="18"/>
-      <c r="S223" s="18"/>
-      <c r="T223" s="18"/>
-      <c r="U223" s="18"/>
+      <c r="D223" s="19"/>
+      <c r="E223" s="19"/>
+      <c r="F223" s="19"/>
+      <c r="G223" s="19"/>
+      <c r="H223" s="19"/>
+      <c r="I223" s="19"/>
+      <c r="J223" s="19"/>
+      <c r="K223" s="19"/>
+      <c r="L223" s="19"/>
+      <c r="M223" s="19"/>
+      <c r="N223" s="19"/>
+      <c r="O223" s="19"/>
+      <c r="P223" s="19"/>
+      <c r="Q223" s="19"/>
+      <c r="R223" s="19"/>
+      <c r="S223" s="19"/>
+      <c r="T223" s="19"/>
+      <c r="U223" s="19"/>
     </row>
     <row r="224" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D224" s="1" t="s">
@@ -5555,46 +5733,46 @@
       <c r="G227" s="15"/>
       <c r="H227" s="15"/>
       <c r="I227" s="15"/>
-      <c r="J227" s="17" t="s">
+      <c r="J227" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="K227" s="17"/>
-      <c r="L227" s="17"/>
-      <c r="M227" s="17"/>
-      <c r="N227" s="17"/>
-      <c r="O227" s="17"/>
-      <c r="P227" s="17"/>
-      <c r="Q227" s="17"/>
-      <c r="R227" s="17"/>
-      <c r="S227" s="17"/>
-      <c r="T227" s="17"/>
-      <c r="U227" s="17"/>
+      <c r="K227" s="18"/>
+      <c r="L227" s="18"/>
+      <c r="M227" s="18"/>
+      <c r="N227" s="18"/>
+      <c r="O227" s="18"/>
+      <c r="P227" s="18"/>
+      <c r="Q227" s="18"/>
+      <c r="R227" s="18"/>
+      <c r="S227" s="18"/>
+      <c r="T227" s="18"/>
+      <c r="U227" s="18"/>
     </row>
     <row r="229" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B229" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C229" s="18" t="s">
+      <c r="C229" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="D229" s="18"/>
-      <c r="E229" s="18"/>
-      <c r="F229" s="18"/>
-      <c r="G229" s="18"/>
-      <c r="H229" s="18"/>
-      <c r="I229" s="18"/>
-      <c r="J229" s="18"/>
-      <c r="K229" s="18"/>
-      <c r="L229" s="18"/>
-      <c r="M229" s="18"/>
-      <c r="N229" s="18"/>
-      <c r="O229" s="18"/>
-      <c r="P229" s="18"/>
-      <c r="Q229" s="18"/>
-      <c r="R229" s="18"/>
-      <c r="S229" s="18"/>
-      <c r="T229" s="18"/>
-      <c r="U229" s="18"/>
+      <c r="D229" s="19"/>
+      <c r="E229" s="19"/>
+      <c r="F229" s="19"/>
+      <c r="G229" s="19"/>
+      <c r="H229" s="19"/>
+      <c r="I229" s="19"/>
+      <c r="J229" s="19"/>
+      <c r="K229" s="19"/>
+      <c r="L229" s="19"/>
+      <c r="M229" s="19"/>
+      <c r="N229" s="19"/>
+      <c r="O229" s="19"/>
+      <c r="P229" s="19"/>
+      <c r="Q229" s="19"/>
+      <c r="R229" s="19"/>
+      <c r="S229" s="19"/>
+      <c r="T229" s="19"/>
+      <c r="U229" s="19"/>
     </row>
     <row r="230" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D230" s="1" t="s">
@@ -5643,107 +5821,107 @@
       <c r="B234" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C234" s="21" t="s">
+      <c r="C234" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="D234" s="18"/>
-      <c r="E234" s="18"/>
-      <c r="F234" s="18"/>
-      <c r="G234" s="18"/>
-      <c r="H234" s="18"/>
-      <c r="I234" s="18"/>
-      <c r="J234" s="18"/>
-      <c r="K234" s="18"/>
-      <c r="L234" s="18"/>
-      <c r="M234" s="18"/>
-      <c r="N234" s="18"/>
-      <c r="O234" s="18"/>
-      <c r="P234" s="18"/>
-      <c r="Q234" s="18"/>
-      <c r="R234" s="18"/>
-      <c r="S234" s="18"/>
-      <c r="T234" s="18"/>
-      <c r="U234" s="18"/>
+      <c r="D234" s="19"/>
+      <c r="E234" s="19"/>
+      <c r="F234" s="19"/>
+      <c r="G234" s="19"/>
+      <c r="H234" s="19"/>
+      <c r="I234" s="19"/>
+      <c r="J234" s="19"/>
+      <c r="K234" s="19"/>
+      <c r="L234" s="19"/>
+      <c r="M234" s="19"/>
+      <c r="N234" s="19"/>
+      <c r="O234" s="19"/>
+      <c r="P234" s="19"/>
+      <c r="Q234" s="19"/>
+      <c r="R234" s="19"/>
+      <c r="S234" s="19"/>
+      <c r="T234" s="19"/>
+      <c r="U234" s="19"/>
     </row>
     <row r="235" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D235" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E235" s="24" t="s">
+      <c r="E235" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="F235" s="24"/>
-      <c r="G235" s="24"/>
-      <c r="H235" s="24"/>
-      <c r="I235" s="24"/>
-      <c r="J235" s="24"/>
-      <c r="K235" s="24"/>
+      <c r="F235" s="31"/>
+      <c r="G235" s="31"/>
+      <c r="H235" s="31"/>
+      <c r="I235" s="31"/>
+      <c r="J235" s="31"/>
+      <c r="K235" s="31"/>
     </row>
     <row r="236" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D236" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E236" s="25" t="s">
+      <c r="E236" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="F236" s="25"/>
-      <c r="G236" s="25"/>
-      <c r="H236" s="25"/>
-      <c r="I236" s="25"/>
-      <c r="J236" s="25"/>
-      <c r="K236" s="25"/>
-      <c r="L236" s="17" t="s">
+      <c r="F236" s="32"/>
+      <c r="G236" s="32"/>
+      <c r="H236" s="32"/>
+      <c r="I236" s="32"/>
+      <c r="J236" s="32"/>
+      <c r="K236" s="32"/>
+      <c r="L236" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="M236" s="17"/>
-      <c r="N236" s="17"/>
-      <c r="O236" s="17"/>
-      <c r="P236" s="17"/>
-      <c r="Q236" s="17"/>
-      <c r="R236" s="17"/>
-      <c r="S236" s="17"/>
-      <c r="T236" s="17"/>
-      <c r="U236" s="17"/>
+      <c r="M236" s="18"/>
+      <c r="N236" s="18"/>
+      <c r="O236" s="18"/>
+      <c r="P236" s="18"/>
+      <c r="Q236" s="18"/>
+      <c r="R236" s="18"/>
+      <c r="S236" s="18"/>
+      <c r="T236" s="18"/>
+      <c r="U236" s="18"/>
     </row>
     <row r="237" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D237" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E237" s="24" t="s">
+      <c r="E237" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="F237" s="24"/>
-      <c r="G237" s="24"/>
-      <c r="H237" s="24"/>
-      <c r="I237" s="24"/>
-      <c r="J237" s="24"/>
-      <c r="K237" s="24"/>
+      <c r="F237" s="31"/>
+      <c r="G237" s="31"/>
+      <c r="H237" s="31"/>
+      <c r="I237" s="31"/>
+      <c r="J237" s="31"/>
+      <c r="K237" s="31"/>
     </row>
     <row r="239" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B239" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C239" s="18" t="s">
+      <c r="C239" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="D239" s="18"/>
-      <c r="E239" s="18"/>
-      <c r="F239" s="18"/>
-      <c r="G239" s="18"/>
-      <c r="H239" s="18"/>
-      <c r="I239" s="18"/>
-      <c r="J239" s="18"/>
-      <c r="K239" s="18"/>
-      <c r="L239" s="18"/>
-      <c r="M239" s="18"/>
-      <c r="N239" s="18"/>
-      <c r="O239" s="18"/>
-      <c r="P239" s="18"/>
-      <c r="Q239" s="18"/>
-      <c r="R239" s="18"/>
-      <c r="S239" s="18"/>
-      <c r="T239" s="18"/>
-      <c r="U239" s="18"/>
+      <c r="D239" s="19"/>
+      <c r="E239" s="19"/>
+      <c r="F239" s="19"/>
+      <c r="G239" s="19"/>
+      <c r="H239" s="19"/>
+      <c r="I239" s="19"/>
+      <c r="J239" s="19"/>
+      <c r="K239" s="19"/>
+      <c r="L239" s="19"/>
+      <c r="M239" s="19"/>
+      <c r="N239" s="19"/>
+      <c r="O239" s="19"/>
+      <c r="P239" s="19"/>
+      <c r="Q239" s="19"/>
+      <c r="R239" s="19"/>
+      <c r="S239" s="19"/>
+      <c r="T239" s="19"/>
+      <c r="U239" s="19"/>
     </row>
     <row r="240" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D240" s="1" t="s">
@@ -5786,44 +5964,44 @@
       <c r="I242" s="16"/>
       <c r="J242" s="16"/>
       <c r="K242" s="16"/>
-      <c r="L242" s="17" t="s">
+      <c r="L242" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="M242" s="17"/>
-      <c r="N242" s="17"/>
-      <c r="O242" s="17"/>
-      <c r="P242" s="17"/>
-      <c r="Q242" s="17"/>
-      <c r="R242" s="17"/>
-      <c r="S242" s="17"/>
-      <c r="T242" s="17"/>
-      <c r="U242" s="17"/>
+      <c r="M242" s="18"/>
+      <c r="N242" s="18"/>
+      <c r="O242" s="18"/>
+      <c r="P242" s="18"/>
+      <c r="Q242" s="18"/>
+      <c r="R242" s="18"/>
+      <c r="S242" s="18"/>
+      <c r="T242" s="18"/>
+      <c r="U242" s="18"/>
     </row>
     <row r="244" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B244" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C244" s="18" t="s">
+      <c r="C244" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="D244" s="18"/>
-      <c r="E244" s="18"/>
-      <c r="F244" s="18"/>
-      <c r="G244" s="18"/>
-      <c r="H244" s="18"/>
-      <c r="I244" s="18"/>
-      <c r="J244" s="18"/>
-      <c r="K244" s="18"/>
-      <c r="L244" s="18"/>
-      <c r="M244" s="18"/>
-      <c r="N244" s="18"/>
-      <c r="O244" s="18"/>
-      <c r="P244" s="18"/>
-      <c r="Q244" s="18"/>
-      <c r="R244" s="18"/>
-      <c r="S244" s="18"/>
-      <c r="T244" s="18"/>
-      <c r="U244" s="18"/>
+      <c r="D244" s="19"/>
+      <c r="E244" s="19"/>
+      <c r="F244" s="19"/>
+      <c r="G244" s="19"/>
+      <c r="H244" s="19"/>
+      <c r="I244" s="19"/>
+      <c r="J244" s="19"/>
+      <c r="K244" s="19"/>
+      <c r="L244" s="19"/>
+      <c r="M244" s="19"/>
+      <c r="N244" s="19"/>
+      <c r="O244" s="19"/>
+      <c r="P244" s="19"/>
+      <c r="Q244" s="19"/>
+      <c r="R244" s="19"/>
+      <c r="S244" s="19"/>
+      <c r="T244" s="19"/>
+      <c r="U244" s="19"/>
     </row>
     <row r="245" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D245" s="3" t="s">
@@ -5865,27 +6043,27 @@
       <c r="B249" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C249" s="21" t="s">
+      <c r="C249" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D249" s="18"/>
-      <c r="E249" s="18"/>
-      <c r="F249" s="18"/>
-      <c r="G249" s="18"/>
-      <c r="H249" s="18"/>
-      <c r="I249" s="18"/>
-      <c r="J249" s="18"/>
-      <c r="K249" s="18"/>
-      <c r="L249" s="18"/>
-      <c r="M249" s="18"/>
-      <c r="N249" s="18"/>
-      <c r="O249" s="18"/>
-      <c r="P249" s="18"/>
-      <c r="Q249" s="18"/>
-      <c r="R249" s="18"/>
-      <c r="S249" s="18"/>
-      <c r="T249" s="18"/>
-      <c r="U249" s="18"/>
+      <c r="D249" s="19"/>
+      <c r="E249" s="19"/>
+      <c r="F249" s="19"/>
+      <c r="G249" s="19"/>
+      <c r="H249" s="19"/>
+      <c r="I249" s="19"/>
+      <c r="J249" s="19"/>
+      <c r="K249" s="19"/>
+      <c r="L249" s="19"/>
+      <c r="M249" s="19"/>
+      <c r="N249" s="19"/>
+      <c r="O249" s="19"/>
+      <c r="P249" s="19"/>
+      <c r="Q249" s="19"/>
+      <c r="R249" s="19"/>
+      <c r="S249" s="19"/>
+      <c r="T249" s="19"/>
+      <c r="U249" s="19"/>
     </row>
     <row r="250" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D250" s="1" t="s">
@@ -5927,27 +6105,27 @@
       <c r="B254" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C254" s="18" t="s">
+      <c r="C254" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="D254" s="18"/>
-      <c r="E254" s="18"/>
-      <c r="F254" s="18"/>
-      <c r="G254" s="18"/>
-      <c r="H254" s="18"/>
-      <c r="I254" s="18"/>
-      <c r="J254" s="18"/>
-      <c r="K254" s="18"/>
-      <c r="L254" s="18"/>
-      <c r="M254" s="18"/>
-      <c r="N254" s="18"/>
-      <c r="O254" s="18"/>
-      <c r="P254" s="18"/>
-      <c r="Q254" s="18"/>
-      <c r="R254" s="18"/>
-      <c r="S254" s="18"/>
-      <c r="T254" s="18"/>
-      <c r="U254" s="18"/>
+      <c r="D254" s="19"/>
+      <c r="E254" s="19"/>
+      <c r="F254" s="19"/>
+      <c r="G254" s="19"/>
+      <c r="H254" s="19"/>
+      <c r="I254" s="19"/>
+      <c r="J254" s="19"/>
+      <c r="K254" s="19"/>
+      <c r="L254" s="19"/>
+      <c r="M254" s="19"/>
+      <c r="N254" s="19"/>
+      <c r="O254" s="19"/>
+      <c r="P254" s="19"/>
+      <c r="Q254" s="19"/>
+      <c r="R254" s="19"/>
+      <c r="S254" s="19"/>
+      <c r="T254" s="19"/>
+      <c r="U254" s="19"/>
     </row>
     <row r="255" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D255" s="1" t="s">
@@ -6049,27 +6227,27 @@
       <c r="B260" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C260" s="18" t="s">
+      <c r="C260" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="D260" s="18"/>
-      <c r="E260" s="18"/>
-      <c r="F260" s="18"/>
-      <c r="G260" s="18"/>
-      <c r="H260" s="18"/>
-      <c r="I260" s="18"/>
-      <c r="J260" s="18"/>
-      <c r="K260" s="18"/>
-      <c r="L260" s="18"/>
-      <c r="M260" s="18"/>
-      <c r="N260" s="18"/>
-      <c r="O260" s="18"/>
-      <c r="P260" s="18"/>
-      <c r="Q260" s="18"/>
-      <c r="R260" s="18"/>
-      <c r="S260" s="18"/>
-      <c r="T260" s="18"/>
-      <c r="U260" s="18"/>
+      <c r="D260" s="19"/>
+      <c r="E260" s="19"/>
+      <c r="F260" s="19"/>
+      <c r="G260" s="19"/>
+      <c r="H260" s="19"/>
+      <c r="I260" s="19"/>
+      <c r="J260" s="19"/>
+      <c r="K260" s="19"/>
+      <c r="L260" s="19"/>
+      <c r="M260" s="19"/>
+      <c r="N260" s="19"/>
+      <c r="O260" s="19"/>
+      <c r="P260" s="19"/>
+      <c r="Q260" s="19"/>
+      <c r="R260" s="19"/>
+      <c r="S260" s="19"/>
+      <c r="T260" s="19"/>
+      <c r="U260" s="19"/>
     </row>
     <row r="261" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D261" s="1" t="s">
@@ -6099,45 +6277,45 @@
       <c r="D262" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E262" s="22" t="s">
+      <c r="E262" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="F262" s="22"/>
-      <c r="G262" s="22"/>
-      <c r="H262" s="22"/>
-      <c r="I262" s="22"/>
-      <c r="J262" s="22"/>
-      <c r="K262" s="22"/>
-      <c r="L262" s="22"/>
-      <c r="M262" s="22"/>
-      <c r="N262" s="22"/>
-      <c r="O262" s="22"/>
-      <c r="P262" s="22"/>
-      <c r="Q262" s="22"/>
-      <c r="R262" s="22"/>
-      <c r="S262" s="22"/>
-      <c r="T262" s="22"/>
-      <c r="U262" s="22"/>
+      <c r="F262" s="21"/>
+      <c r="G262" s="21"/>
+      <c r="H262" s="21"/>
+      <c r="I262" s="21"/>
+      <c r="J262" s="21"/>
+      <c r="K262" s="21"/>
+      <c r="L262" s="21"/>
+      <c r="M262" s="21"/>
+      <c r="N262" s="21"/>
+      <c r="O262" s="21"/>
+      <c r="P262" s="21"/>
+      <c r="Q262" s="21"/>
+      <c r="R262" s="21"/>
+      <c r="S262" s="21"/>
+      <c r="T262" s="21"/>
+      <c r="U262" s="21"/>
     </row>
     <row r="263" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D263" s="3"/>
-      <c r="E263" s="22"/>
-      <c r="F263" s="22"/>
-      <c r="G263" s="22"/>
-      <c r="H263" s="22"/>
-      <c r="I263" s="22"/>
-      <c r="J263" s="22"/>
-      <c r="K263" s="22"/>
-      <c r="L263" s="22"/>
-      <c r="M263" s="22"/>
-      <c r="N263" s="22"/>
-      <c r="O263" s="22"/>
-      <c r="P263" s="22"/>
-      <c r="Q263" s="22"/>
-      <c r="R263" s="22"/>
-      <c r="S263" s="22"/>
-      <c r="T263" s="22"/>
-      <c r="U263" s="22"/>
+      <c r="E263" s="21"/>
+      <c r="F263" s="21"/>
+      <c r="G263" s="21"/>
+      <c r="H263" s="21"/>
+      <c r="I263" s="21"/>
+      <c r="J263" s="21"/>
+      <c r="K263" s="21"/>
+      <c r="L263" s="21"/>
+      <c r="M263" s="21"/>
+      <c r="N263" s="21"/>
+      <c r="O263" s="21"/>
+      <c r="P263" s="21"/>
+      <c r="Q263" s="21"/>
+      <c r="R263" s="21"/>
+      <c r="S263" s="21"/>
+      <c r="T263" s="21"/>
+      <c r="U263" s="21"/>
     </row>
     <row r="264" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D264" s="1" t="s">
@@ -6186,27 +6364,27 @@
       <c r="B266" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C266" s="18" t="s">
+      <c r="C266" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="D266" s="18"/>
-      <c r="E266" s="18"/>
-      <c r="F266" s="18"/>
-      <c r="G266" s="18"/>
-      <c r="H266" s="18"/>
-      <c r="I266" s="18"/>
-      <c r="J266" s="18"/>
-      <c r="K266" s="18"/>
-      <c r="L266" s="18"/>
-      <c r="M266" s="18"/>
-      <c r="N266" s="18"/>
-      <c r="O266" s="18"/>
-      <c r="P266" s="18"/>
-      <c r="Q266" s="18"/>
-      <c r="R266" s="18"/>
-      <c r="S266" s="18"/>
-      <c r="T266" s="18"/>
-      <c r="U266" s="18"/>
+      <c r="D266" s="19"/>
+      <c r="E266" s="19"/>
+      <c r="F266" s="19"/>
+      <c r="G266" s="19"/>
+      <c r="H266" s="19"/>
+      <c r="I266" s="19"/>
+      <c r="J266" s="19"/>
+      <c r="K266" s="19"/>
+      <c r="L266" s="19"/>
+      <c r="M266" s="19"/>
+      <c r="N266" s="19"/>
+      <c r="O266" s="19"/>
+      <c r="P266" s="19"/>
+      <c r="Q266" s="19"/>
+      <c r="R266" s="19"/>
+      <c r="S266" s="19"/>
+      <c r="T266" s="19"/>
+      <c r="U266" s="19"/>
     </row>
     <row r="267" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D267" s="1" t="s">
@@ -6249,48 +6427,48 @@
       <c r="B271" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C271" s="21" t="s">
+      <c r="C271" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="D271" s="18"/>
-      <c r="E271" s="18"/>
-      <c r="F271" s="18"/>
-      <c r="G271" s="18"/>
-      <c r="H271" s="18"/>
-      <c r="I271" s="18"/>
-      <c r="J271" s="18"/>
-      <c r="K271" s="18"/>
-      <c r="L271" s="18"/>
-      <c r="M271" s="18"/>
-      <c r="N271" s="18"/>
-      <c r="O271" s="18"/>
-      <c r="P271" s="18"/>
-      <c r="Q271" s="18"/>
-      <c r="R271" s="18"/>
-      <c r="S271" s="18"/>
-      <c r="T271" s="18"/>
-      <c r="U271" s="18"/>
+      <c r="D271" s="19"/>
+      <c r="E271" s="19"/>
+      <c r="F271" s="19"/>
+      <c r="G271" s="19"/>
+      <c r="H271" s="19"/>
+      <c r="I271" s="19"/>
+      <c r="J271" s="19"/>
+      <c r="K271" s="19"/>
+      <c r="L271" s="19"/>
+      <c r="M271" s="19"/>
+      <c r="N271" s="19"/>
+      <c r="O271" s="19"/>
+      <c r="P271" s="19"/>
+      <c r="Q271" s="19"/>
+      <c r="R271" s="19"/>
+      <c r="S271" s="19"/>
+      <c r="T271" s="19"/>
+      <c r="U271" s="19"/>
     </row>
     <row r="272" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C272" s="18"/>
-      <c r="D272" s="18"/>
-      <c r="E272" s="18"/>
-      <c r="F272" s="18"/>
-      <c r="G272" s="18"/>
-      <c r="H272" s="18"/>
-      <c r="I272" s="18"/>
-      <c r="J272" s="18"/>
-      <c r="K272" s="18"/>
-      <c r="L272" s="18"/>
-      <c r="M272" s="18"/>
-      <c r="N272" s="18"/>
-      <c r="O272" s="18"/>
-      <c r="P272" s="18"/>
-      <c r="Q272" s="18"/>
-      <c r="R272" s="18"/>
-      <c r="S272" s="18"/>
-      <c r="T272" s="18"/>
-      <c r="U272" s="18"/>
+      <c r="C272" s="19"/>
+      <c r="D272" s="19"/>
+      <c r="E272" s="19"/>
+      <c r="F272" s="19"/>
+      <c r="G272" s="19"/>
+      <c r="H272" s="19"/>
+      <c r="I272" s="19"/>
+      <c r="J272" s="19"/>
+      <c r="K272" s="19"/>
+      <c r="L272" s="19"/>
+      <c r="M272" s="19"/>
+      <c r="N272" s="19"/>
+      <c r="O272" s="19"/>
+      <c r="P272" s="19"/>
+      <c r="Q272" s="19"/>
+      <c r="R272" s="19"/>
+      <c r="S272" s="19"/>
+      <c r="T272" s="19"/>
+      <c r="U272" s="19"/>
     </row>
     <row r="273" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D273" s="1" t="s">
@@ -6331,50 +6509,50 @@
       <c r="E277" s="8">
         <v>14</v>
       </c>
-      <c r="F277" s="17" t="s">
+      <c r="F277" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="G277" s="17"/>
-      <c r="H277" s="17"/>
-      <c r="I277" s="17"/>
-      <c r="J277" s="17"/>
-      <c r="K277" s="17"/>
-      <c r="L277" s="17"/>
-      <c r="M277" s="17"/>
-      <c r="N277" s="17"/>
-      <c r="O277" s="17"/>
-      <c r="P277" s="17"/>
-      <c r="Q277" s="17"/>
-      <c r="R277" s="17"/>
-      <c r="S277" s="17"/>
-      <c r="T277" s="17"/>
-      <c r="U277" s="17"/>
+      <c r="G277" s="18"/>
+      <c r="H277" s="18"/>
+      <c r="I277" s="18"/>
+      <c r="J277" s="18"/>
+      <c r="K277" s="18"/>
+      <c r="L277" s="18"/>
+      <c r="M277" s="18"/>
+      <c r="N277" s="18"/>
+      <c r="O277" s="18"/>
+      <c r="P277" s="18"/>
+      <c r="Q277" s="18"/>
+      <c r="R277" s="18"/>
+      <c r="S277" s="18"/>
+      <c r="T277" s="18"/>
+      <c r="U277" s="18"/>
     </row>
     <row r="279" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B279" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C279" s="21" t="s">
+      <c r="C279" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="D279" s="18"/>
-      <c r="E279" s="18"/>
-      <c r="F279" s="18"/>
-      <c r="G279" s="18"/>
-      <c r="H279" s="18"/>
-      <c r="I279" s="18"/>
-      <c r="J279" s="18"/>
-      <c r="K279" s="18"/>
-      <c r="L279" s="18"/>
-      <c r="M279" s="18"/>
-      <c r="N279" s="18"/>
-      <c r="O279" s="18"/>
-      <c r="P279" s="18"/>
-      <c r="Q279" s="18"/>
-      <c r="R279" s="18"/>
-      <c r="S279" s="18"/>
-      <c r="T279" s="18"/>
-      <c r="U279" s="18"/>
+      <c r="D279" s="19"/>
+      <c r="E279" s="19"/>
+      <c r="F279" s="19"/>
+      <c r="G279" s="19"/>
+      <c r="H279" s="19"/>
+      <c r="I279" s="19"/>
+      <c r="J279" s="19"/>
+      <c r="K279" s="19"/>
+      <c r="L279" s="19"/>
+      <c r="M279" s="19"/>
+      <c r="N279" s="19"/>
+      <c r="O279" s="19"/>
+      <c r="P279" s="19"/>
+      <c r="Q279" s="19"/>
+      <c r="R279" s="19"/>
+      <c r="S279" s="19"/>
+      <c r="T279" s="19"/>
+      <c r="U279" s="19"/>
     </row>
     <row r="280" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D280" s="1" t="s">
@@ -6414,17 +6592,17 @@
       <c r="J281" s="16"/>
       <c r="K281" s="16"/>
       <c r="L281" s="16"/>
-      <c r="M281" s="17" t="s">
+      <c r="M281" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="N281" s="17"/>
-      <c r="O281" s="17"/>
-      <c r="P281" s="17"/>
-      <c r="Q281" s="17"/>
-      <c r="R281" s="17"/>
-      <c r="S281" s="17"/>
-      <c r="T281" s="17"/>
-      <c r="U281" s="17"/>
+      <c r="N281" s="18"/>
+      <c r="O281" s="18"/>
+      <c r="P281" s="18"/>
+      <c r="Q281" s="18"/>
+      <c r="R281" s="18"/>
+      <c r="S281" s="18"/>
+      <c r="T281" s="18"/>
+      <c r="U281" s="18"/>
     </row>
     <row r="282" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D282" s="1" t="s">
@@ -6454,54 +6632,54 @@
       <c r="B284" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C284" s="21" t="s">
+      <c r="C284" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="D284" s="21"/>
-      <c r="E284" s="21"/>
-      <c r="F284" s="21"/>
-      <c r="G284" s="21"/>
-      <c r="H284" s="21"/>
-      <c r="I284" s="21"/>
-      <c r="J284" s="21"/>
-      <c r="K284" s="21"/>
-      <c r="L284" s="21"/>
-      <c r="M284" s="21"/>
-      <c r="N284" s="21"/>
-      <c r="O284" s="21"/>
-      <c r="P284" s="21"/>
-      <c r="Q284" s="21"/>
-      <c r="R284" s="21"/>
-      <c r="S284" s="21"/>
-      <c r="T284" s="21"/>
-      <c r="U284" s="21"/>
+      <c r="D284" s="20"/>
+      <c r="E284" s="20"/>
+      <c r="F284" s="20"/>
+      <c r="G284" s="20"/>
+      <c r="H284" s="20"/>
+      <c r="I284" s="20"/>
+      <c r="J284" s="20"/>
+      <c r="K284" s="20"/>
+      <c r="L284" s="20"/>
+      <c r="M284" s="20"/>
+      <c r="N284" s="20"/>
+      <c r="O284" s="20"/>
+      <c r="P284" s="20"/>
+      <c r="Q284" s="20"/>
+      <c r="R284" s="20"/>
+      <c r="S284" s="20"/>
+      <c r="T284" s="20"/>
+      <c r="U284" s="20"/>
     </row>
     <row r="285" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C285" s="21"/>
-      <c r="D285" s="21"/>
-      <c r="E285" s="21"/>
-      <c r="F285" s="21"/>
-      <c r="G285" s="21"/>
-      <c r="H285" s="21"/>
-      <c r="I285" s="21"/>
-      <c r="J285" s="21"/>
-      <c r="K285" s="21"/>
-      <c r="L285" s="21"/>
-      <c r="M285" s="21"/>
-      <c r="N285" s="21"/>
-      <c r="O285" s="21"/>
-      <c r="P285" s="21"/>
-      <c r="Q285" s="21"/>
-      <c r="R285" s="21"/>
-      <c r="S285" s="21"/>
-      <c r="T285" s="21"/>
-      <c r="U285" s="21"/>
+      <c r="C285" s="20"/>
+      <c r="D285" s="20"/>
+      <c r="E285" s="20"/>
+      <c r="F285" s="20"/>
+      <c r="G285" s="20"/>
+      <c r="H285" s="20"/>
+      <c r="I285" s="20"/>
+      <c r="J285" s="20"/>
+      <c r="K285" s="20"/>
+      <c r="L285" s="20"/>
+      <c r="M285" s="20"/>
+      <c r="N285" s="20"/>
+      <c r="O285" s="20"/>
+      <c r="P285" s="20"/>
+      <c r="Q285" s="20"/>
+      <c r="R285" s="20"/>
+      <c r="S285" s="20"/>
+      <c r="T285" s="20"/>
+      <c r="U285" s="20"/>
     </row>
     <row r="286" spans="2:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D286" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E286" s="22" t="s">
+      <c r="E286" s="21" t="s">
         <v>236</v>
       </c>
       <c r="F286" s="16"/>
@@ -6523,31 +6701,31 @@
     </row>
     <row r="287" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D287" s="16"/>
-      <c r="E287" s="23" t="s">
+      <c r="E287" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="F287" s="23"/>
-      <c r="G287" s="23"/>
-      <c r="H287" s="23"/>
-      <c r="I287" s="23"/>
-      <c r="J287" s="23"/>
-      <c r="K287" s="23"/>
-      <c r="L287" s="23"/>
-      <c r="M287" s="23"/>
-      <c r="N287" s="23"/>
-      <c r="O287" s="23"/>
-      <c r="P287" s="23"/>
-      <c r="Q287" s="23"/>
-      <c r="R287" s="23"/>
-      <c r="S287" s="23"/>
-      <c r="T287" s="23"/>
-      <c r="U287" s="23"/>
+      <c r="F287" s="26"/>
+      <c r="G287" s="26"/>
+      <c r="H287" s="26"/>
+      <c r="I287" s="26"/>
+      <c r="J287" s="26"/>
+      <c r="K287" s="26"/>
+      <c r="L287" s="26"/>
+      <c r="M287" s="26"/>
+      <c r="N287" s="26"/>
+      <c r="O287" s="26"/>
+      <c r="P287" s="26"/>
+      <c r="Q287" s="26"/>
+      <c r="R287" s="26"/>
+      <c r="S287" s="26"/>
+      <c r="T287" s="26"/>
+      <c r="U287" s="26"/>
     </row>
     <row r="288" spans="2:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D288" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E288" s="19" t="s">
+      <c r="E288" s="17" t="s">
         <v>237</v>
       </c>
       <c r="F288" s="15"/>
@@ -6571,54 +6749,54 @@
       <c r="B290" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C290" s="21" t="s">
+      <c r="C290" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="D290" s="21"/>
-      <c r="E290" s="21"/>
-      <c r="F290" s="21"/>
-      <c r="G290" s="21"/>
-      <c r="H290" s="21"/>
-      <c r="I290" s="21"/>
-      <c r="J290" s="21"/>
-      <c r="K290" s="21"/>
-      <c r="L290" s="21"/>
-      <c r="M290" s="21"/>
-      <c r="N290" s="21"/>
-      <c r="O290" s="21"/>
-      <c r="P290" s="21"/>
-      <c r="Q290" s="21"/>
-      <c r="R290" s="21"/>
-      <c r="S290" s="21"/>
-      <c r="T290" s="21"/>
-      <c r="U290" s="21"/>
+      <c r="D290" s="20"/>
+      <c r="E290" s="20"/>
+      <c r="F290" s="20"/>
+      <c r="G290" s="20"/>
+      <c r="H290" s="20"/>
+      <c r="I290" s="20"/>
+      <c r="J290" s="20"/>
+      <c r="K290" s="20"/>
+      <c r="L290" s="20"/>
+      <c r="M290" s="20"/>
+      <c r="N290" s="20"/>
+      <c r="O290" s="20"/>
+      <c r="P290" s="20"/>
+      <c r="Q290" s="20"/>
+      <c r="R290" s="20"/>
+      <c r="S290" s="20"/>
+      <c r="T290" s="20"/>
+      <c r="U290" s="20"/>
     </row>
     <row r="291" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C291" s="21"/>
-      <c r="D291" s="21"/>
-      <c r="E291" s="21"/>
-      <c r="F291" s="21"/>
-      <c r="G291" s="21"/>
-      <c r="H291" s="21"/>
-      <c r="I291" s="21"/>
-      <c r="J291" s="21"/>
-      <c r="K291" s="21"/>
-      <c r="L291" s="21"/>
-      <c r="M291" s="21"/>
-      <c r="N291" s="21"/>
-      <c r="O291" s="21"/>
-      <c r="P291" s="21"/>
-      <c r="Q291" s="21"/>
-      <c r="R291" s="21"/>
-      <c r="S291" s="21"/>
-      <c r="T291" s="21"/>
-      <c r="U291" s="21"/>
+      <c r="C291" s="20"/>
+      <c r="D291" s="20"/>
+      <c r="E291" s="20"/>
+      <c r="F291" s="20"/>
+      <c r="G291" s="20"/>
+      <c r="H291" s="20"/>
+      <c r="I291" s="20"/>
+      <c r="J291" s="20"/>
+      <c r="K291" s="20"/>
+      <c r="L291" s="20"/>
+      <c r="M291" s="20"/>
+      <c r="N291" s="20"/>
+      <c r="O291" s="20"/>
+      <c r="P291" s="20"/>
+      <c r="Q291" s="20"/>
+      <c r="R291" s="20"/>
+      <c r="S291" s="20"/>
+      <c r="T291" s="20"/>
+      <c r="U291" s="20"/>
     </row>
     <row r="292" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D292" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E292" s="22" t="s">
+      <c r="E292" s="21" t="s">
         <v>241</v>
       </c>
       <c r="F292" s="16"/>
@@ -6633,12 +6811,12 @@
       <c r="O292" s="16"/>
       <c r="P292" s="16"/>
       <c r="Q292" s="16"/>
-      <c r="R292" s="23" t="s">
+      <c r="R292" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="S292" s="23"/>
-      <c r="T292" s="23"/>
-      <c r="U292" s="23"/>
+      <c r="S292" s="26"/>
+      <c r="T292" s="26"/>
+      <c r="U292" s="26"/>
     </row>
     <row r="293" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E293" s="16"/>
@@ -6654,10 +6832,10 @@
       <c r="O293" s="16"/>
       <c r="P293" s="16"/>
       <c r="Q293" s="16"/>
-      <c r="R293" s="23"/>
-      <c r="S293" s="23"/>
-      <c r="T293" s="23"/>
-      <c r="U293" s="23"/>
+      <c r="R293" s="26"/>
+      <c r="S293" s="26"/>
+      <c r="T293" s="26"/>
+      <c r="U293" s="26"/>
     </row>
     <row r="294" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D294" s="1" t="s">
@@ -6711,54 +6889,54 @@
       <c r="B297" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C297" s="31" t="s">
+      <c r="C297" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="D297" s="19"/>
-      <c r="E297" s="19"/>
-      <c r="F297" s="19"/>
-      <c r="G297" s="19"/>
-      <c r="H297" s="19"/>
-      <c r="I297" s="19"/>
-      <c r="J297" s="19"/>
-      <c r="K297" s="19"/>
-      <c r="L297" s="19"/>
-      <c r="M297" s="19"/>
-      <c r="N297" s="19"/>
-      <c r="O297" s="19"/>
-      <c r="P297" s="19"/>
-      <c r="Q297" s="19"/>
-      <c r="R297" s="19"/>
-      <c r="S297" s="19"/>
-      <c r="T297" s="19"/>
-      <c r="U297" s="19"/>
+      <c r="D297" s="17"/>
+      <c r="E297" s="17"/>
+      <c r="F297" s="17"/>
+      <c r="G297" s="17"/>
+      <c r="H297" s="17"/>
+      <c r="I297" s="17"/>
+      <c r="J297" s="17"/>
+      <c r="K297" s="17"/>
+      <c r="L297" s="17"/>
+      <c r="M297" s="17"/>
+      <c r="N297" s="17"/>
+      <c r="O297" s="17"/>
+      <c r="P297" s="17"/>
+      <c r="Q297" s="17"/>
+      <c r="R297" s="17"/>
+      <c r="S297" s="17"/>
+      <c r="T297" s="17"/>
+      <c r="U297" s="17"/>
     </row>
     <row r="298" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C298" s="19"/>
-      <c r="D298" s="19"/>
-      <c r="E298" s="19"/>
-      <c r="F298" s="19"/>
-      <c r="G298" s="19"/>
-      <c r="H298" s="19"/>
-      <c r="I298" s="19"/>
-      <c r="J298" s="19"/>
-      <c r="K298" s="19"/>
-      <c r="L298" s="19"/>
-      <c r="M298" s="19"/>
-      <c r="N298" s="19"/>
-      <c r="O298" s="19"/>
-      <c r="P298" s="19"/>
-      <c r="Q298" s="19"/>
-      <c r="R298" s="19"/>
-      <c r="S298" s="19"/>
-      <c r="T298" s="19"/>
-      <c r="U298" s="19"/>
+      <c r="C298" s="17"/>
+      <c r="D298" s="17"/>
+      <c r="E298" s="17"/>
+      <c r="F298" s="17"/>
+      <c r="G298" s="17"/>
+      <c r="H298" s="17"/>
+      <c r="I298" s="17"/>
+      <c r="J298" s="17"/>
+      <c r="K298" s="17"/>
+      <c r="L298" s="17"/>
+      <c r="M298" s="17"/>
+      <c r="N298" s="17"/>
+      <c r="O298" s="17"/>
+      <c r="P298" s="17"/>
+      <c r="Q298" s="17"/>
+      <c r="R298" s="17"/>
+      <c r="S298" s="17"/>
+      <c r="T298" s="17"/>
+      <c r="U298" s="17"/>
     </row>
     <row r="299" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D299" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E299" s="22" t="s">
+      <c r="E299" s="21" t="s">
         <v>250</v>
       </c>
       <c r="F299" s="16"/>
@@ -6773,12 +6951,12 @@
       <c r="O299" s="16"/>
       <c r="P299" s="16"/>
       <c r="Q299" s="16"/>
-      <c r="R299" s="23" t="s">
+      <c r="R299" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="S299" s="23"/>
-      <c r="T299" s="23"/>
-      <c r="U299" s="23"/>
+      <c r="S299" s="26"/>
+      <c r="T299" s="26"/>
+      <c r="U299" s="26"/>
     </row>
     <row r="300" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D300" s="16"/>
@@ -6795,16 +6973,16 @@
       <c r="O300" s="16"/>
       <c r="P300" s="16"/>
       <c r="Q300" s="16"/>
-      <c r="R300" s="23"/>
-      <c r="S300" s="23"/>
-      <c r="T300" s="23"/>
-      <c r="U300" s="23"/>
+      <c r="R300" s="26"/>
+      <c r="S300" s="26"/>
+      <c r="T300" s="26"/>
+      <c r="U300" s="26"/>
     </row>
     <row r="301" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D301" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E301" s="19" t="s">
+      <c r="E301" s="17" t="s">
         <v>247</v>
       </c>
       <c r="F301" s="15"/>
@@ -6840,7 +7018,7 @@
       <c r="D303" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E303" s="19" t="s">
+      <c r="E303" s="17" t="s">
         <v>248</v>
       </c>
       <c r="F303" s="15"/>
@@ -6876,33 +7054,33 @@
       <c r="B306" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C306" s="18" t="s">
+      <c r="C306" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="D306" s="18"/>
-      <c r="E306" s="18"/>
-      <c r="F306" s="18"/>
-      <c r="G306" s="18"/>
-      <c r="H306" s="18"/>
-      <c r="I306" s="18"/>
-      <c r="J306" s="18"/>
-      <c r="K306" s="18"/>
-      <c r="L306" s="18"/>
-      <c r="M306" s="18"/>
-      <c r="N306" s="18"/>
-      <c r="O306" s="18"/>
-      <c r="P306" s="18"/>
-      <c r="Q306" s="18"/>
-      <c r="R306" s="18"/>
-      <c r="S306" s="18"/>
-      <c r="T306" s="18"/>
-      <c r="U306" s="18"/>
+      <c r="D306" s="19"/>
+      <c r="E306" s="19"/>
+      <c r="F306" s="19"/>
+      <c r="G306" s="19"/>
+      <c r="H306" s="19"/>
+      <c r="I306" s="19"/>
+      <c r="J306" s="19"/>
+      <c r="K306" s="19"/>
+      <c r="L306" s="19"/>
+      <c r="M306" s="19"/>
+      <c r="N306" s="19"/>
+      <c r="O306" s="19"/>
+      <c r="P306" s="19"/>
+      <c r="Q306" s="19"/>
+      <c r="R306" s="19"/>
+      <c r="S306" s="19"/>
+      <c r="T306" s="19"/>
+      <c r="U306" s="19"/>
     </row>
     <row r="307" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D307" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E307" s="22" t="s">
+      <c r="E307" s="21" t="s">
         <v>253</v>
       </c>
       <c r="F307" s="16"/>
@@ -6917,12 +7095,12 @@
       <c r="O307" s="16"/>
       <c r="P307" s="16"/>
       <c r="Q307" s="16"/>
-      <c r="R307" s="23" t="s">
+      <c r="R307" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="S307" s="23"/>
-      <c r="T307" s="23"/>
-      <c r="U307" s="23"/>
+      <c r="S307" s="26"/>
+      <c r="T307" s="26"/>
+      <c r="U307" s="26"/>
     </row>
     <row r="308" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D308" s="16"/>
@@ -6939,52 +7117,52 @@
       <c r="O308" s="16"/>
       <c r="P308" s="16"/>
       <c r="Q308" s="16"/>
-      <c r="R308" s="23"/>
-      <c r="S308" s="23"/>
-      <c r="T308" s="23"/>
-      <c r="U308" s="23"/>
+      <c r="R308" s="26"/>
+      <c r="S308" s="26"/>
+      <c r="T308" s="26"/>
+      <c r="U308" s="26"/>
     </row>
     <row r="309" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D309" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E309" s="19" t="s">
+      <c r="E309" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="F309" s="19"/>
-      <c r="G309" s="19"/>
-      <c r="H309" s="19"/>
-      <c r="I309" s="19"/>
-      <c r="J309" s="19"/>
-      <c r="K309" s="19"/>
-      <c r="L309" s="19"/>
-      <c r="M309" s="19"/>
-      <c r="N309" s="19"/>
-      <c r="O309" s="19"/>
-      <c r="P309" s="19"/>
-      <c r="Q309" s="19"/>
+      <c r="F309" s="17"/>
+      <c r="G309" s="17"/>
+      <c r="H309" s="17"/>
+      <c r="I309" s="17"/>
+      <c r="J309" s="17"/>
+      <c r="K309" s="17"/>
+      <c r="L309" s="17"/>
+      <c r="M309" s="17"/>
+      <c r="N309" s="17"/>
+      <c r="O309" s="17"/>
+      <c r="P309" s="17"/>
+      <c r="Q309" s="17"/>
     </row>
     <row r="310" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D310" s="15"/>
-      <c r="E310" s="19"/>
-      <c r="F310" s="19"/>
-      <c r="G310" s="19"/>
-      <c r="H310" s="19"/>
-      <c r="I310" s="19"/>
-      <c r="J310" s="19"/>
-      <c r="K310" s="19"/>
-      <c r="L310" s="19"/>
-      <c r="M310" s="19"/>
-      <c r="N310" s="19"/>
-      <c r="O310" s="19"/>
-      <c r="P310" s="19"/>
-      <c r="Q310" s="19"/>
+      <c r="E310" s="17"/>
+      <c r="F310" s="17"/>
+      <c r="G310" s="17"/>
+      <c r="H310" s="17"/>
+      <c r="I310" s="17"/>
+      <c r="J310" s="17"/>
+      <c r="K310" s="17"/>
+      <c r="L310" s="17"/>
+      <c r="M310" s="17"/>
+      <c r="N310" s="17"/>
+      <c r="O310" s="17"/>
+      <c r="P310" s="17"/>
+      <c r="Q310" s="17"/>
     </row>
     <row r="311" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D311" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E311" s="19" t="s">
+      <c r="E311" s="17" t="s">
         <v>255</v>
       </c>
       <c r="F311" s="15"/>
@@ -7020,33 +7198,33 @@
       <c r="B314" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C314" s="18" t="s">
+      <c r="C314" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="D314" s="18"/>
-      <c r="E314" s="18"/>
-      <c r="F314" s="18"/>
-      <c r="G314" s="18"/>
-      <c r="H314" s="18"/>
-      <c r="I314" s="18"/>
-      <c r="J314" s="18"/>
-      <c r="K314" s="18"/>
-      <c r="L314" s="18"/>
-      <c r="M314" s="18"/>
-      <c r="N314" s="18"/>
-      <c r="O314" s="18"/>
-      <c r="P314" s="18"/>
-      <c r="Q314" s="18"/>
-      <c r="R314" s="18"/>
-      <c r="S314" s="18"/>
-      <c r="T314" s="18"/>
-      <c r="U314" s="18"/>
+      <c r="D314" s="19"/>
+      <c r="E314" s="19"/>
+      <c r="F314" s="19"/>
+      <c r="G314" s="19"/>
+      <c r="H314" s="19"/>
+      <c r="I314" s="19"/>
+      <c r="J314" s="19"/>
+      <c r="K314" s="19"/>
+      <c r="L314" s="19"/>
+      <c r="M314" s="19"/>
+      <c r="N314" s="19"/>
+      <c r="O314" s="19"/>
+      <c r="P314" s="19"/>
+      <c r="Q314" s="19"/>
+      <c r="R314" s="19"/>
+      <c r="S314" s="19"/>
+      <c r="T314" s="19"/>
+      <c r="U314" s="19"/>
     </row>
     <row r="315" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D315" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E315" s="22" t="s">
+      <c r="E315" s="21" t="s">
         <v>261</v>
       </c>
       <c r="F315" s="16"/>
@@ -7062,11 +7240,11 @@
       <c r="P315" s="16"/>
       <c r="Q315" s="16"/>
       <c r="R315" s="16"/>
-      <c r="S315" s="23" t="s">
+      <c r="S315" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="T315" s="23"/>
-      <c r="U315" s="23"/>
+      <c r="T315" s="26"/>
+      <c r="U315" s="26"/>
     </row>
     <row r="316" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D316" s="16"/>
@@ -7084,9 +7262,9 @@
       <c r="P316" s="16"/>
       <c r="Q316" s="16"/>
       <c r="R316" s="16"/>
-      <c r="S316" s="23"/>
-      <c r="T316" s="23"/>
-      <c r="U316" s="23"/>
+      <c r="S316" s="26"/>
+      <c r="T316" s="26"/>
+      <c r="U316" s="26"/>
     </row>
     <row r="317" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D317" s="1" t="s">
@@ -7113,7 +7291,7 @@
       <c r="B319" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C319" s="32" t="s">
+      <c r="C319" s="25" t="s">
         <v>263</v>
       </c>
       <c r="D319" s="15"/>
@@ -7196,27 +7374,27 @@
       <c r="B324" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C324" s="18" t="s">
+      <c r="C324" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="D324" s="18"/>
-      <c r="E324" s="18"/>
-      <c r="F324" s="18"/>
-      <c r="G324" s="18"/>
-      <c r="H324" s="18"/>
-      <c r="I324" s="18"/>
-      <c r="J324" s="18"/>
-      <c r="K324" s="18"/>
-      <c r="L324" s="18"/>
-      <c r="M324" s="18"/>
-      <c r="N324" s="18"/>
-      <c r="O324" s="18"/>
-      <c r="P324" s="18"/>
-      <c r="Q324" s="18"/>
-      <c r="R324" s="18"/>
-      <c r="S324" s="18"/>
-      <c r="T324" s="18"/>
-      <c r="U324" s="18"/>
+      <c r="D324" s="19"/>
+      <c r="E324" s="19"/>
+      <c r="F324" s="19"/>
+      <c r="G324" s="19"/>
+      <c r="H324" s="19"/>
+      <c r="I324" s="19"/>
+      <c r="J324" s="19"/>
+      <c r="K324" s="19"/>
+      <c r="L324" s="19"/>
+      <c r="M324" s="19"/>
+      <c r="N324" s="19"/>
+      <c r="O324" s="19"/>
+      <c r="P324" s="19"/>
+      <c r="Q324" s="19"/>
+      <c r="R324" s="19"/>
+      <c r="S324" s="19"/>
+      <c r="T324" s="19"/>
+      <c r="U324" s="19"/>
     </row>
     <row r="325" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D325" s="1" t="s">
@@ -7279,27 +7457,27 @@
       <c r="B329" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C329" s="18" t="s">
+      <c r="C329" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="D329" s="18"/>
-      <c r="E329" s="18"/>
-      <c r="F329" s="18"/>
-      <c r="G329" s="18"/>
-      <c r="H329" s="18"/>
-      <c r="I329" s="18"/>
-      <c r="J329" s="18"/>
-      <c r="K329" s="18"/>
-      <c r="L329" s="18"/>
-      <c r="M329" s="18"/>
-      <c r="N329" s="18"/>
-      <c r="O329" s="18"/>
-      <c r="P329" s="18"/>
-      <c r="Q329" s="18"/>
-      <c r="R329" s="18"/>
-      <c r="S329" s="18"/>
-      <c r="T329" s="18"/>
-      <c r="U329" s="18"/>
+      <c r="D329" s="19"/>
+      <c r="E329" s="19"/>
+      <c r="F329" s="19"/>
+      <c r="G329" s="19"/>
+      <c r="H329" s="19"/>
+      <c r="I329" s="19"/>
+      <c r="J329" s="19"/>
+      <c r="K329" s="19"/>
+      <c r="L329" s="19"/>
+      <c r="M329" s="19"/>
+      <c r="N329" s="19"/>
+      <c r="O329" s="19"/>
+      <c r="P329" s="19"/>
+      <c r="Q329" s="19"/>
+      <c r="R329" s="19"/>
+      <c r="S329" s="19"/>
+      <c r="T329" s="19"/>
+      <c r="U329" s="19"/>
     </row>
     <row r="330" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D330" s="1" t="s">
@@ -7362,20 +7540,20 @@
       <c r="D333" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E333" s="19" t="s">
+      <c r="E333" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="F333" s="19"/>
-      <c r="G333" s="19"/>
-      <c r="H333" s="19"/>
-      <c r="I333" s="19"/>
-      <c r="J333" s="19"/>
-      <c r="K333" s="19"/>
-      <c r="L333" s="19"/>
-      <c r="M333" s="19"/>
-      <c r="N333" s="19"/>
-      <c r="O333" s="19"/>
-      <c r="P333" s="19"/>
+      <c r="F333" s="17"/>
+      <c r="G333" s="17"/>
+      <c r="H333" s="17"/>
+      <c r="I333" s="17"/>
+      <c r="J333" s="17"/>
+      <c r="K333" s="17"/>
+      <c r="L333" s="17"/>
+      <c r="M333" s="17"/>
+      <c r="N333" s="17"/>
+      <c r="O333" s="17"/>
+      <c r="P333" s="17"/>
       <c r="Q333" s="1"/>
       <c r="R333" s="1"/>
     </row>
@@ -7383,27 +7561,27 @@
       <c r="B335" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C335" s="21" t="s">
+      <c r="C335" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D335" s="18"/>
-      <c r="E335" s="18"/>
-      <c r="F335" s="18"/>
-      <c r="G335" s="18"/>
-      <c r="H335" s="18"/>
-      <c r="I335" s="18"/>
-      <c r="J335" s="18"/>
-      <c r="K335" s="18"/>
-      <c r="L335" s="18"/>
-      <c r="M335" s="18"/>
-      <c r="N335" s="18"/>
-      <c r="O335" s="18"/>
-      <c r="P335" s="18"/>
-      <c r="Q335" s="18"/>
-      <c r="R335" s="18"/>
-      <c r="S335" s="18"/>
-      <c r="T335" s="18"/>
-      <c r="U335" s="18"/>
+      <c r="D335" s="19"/>
+      <c r="E335" s="19"/>
+      <c r="F335" s="19"/>
+      <c r="G335" s="19"/>
+      <c r="H335" s="19"/>
+      <c r="I335" s="19"/>
+      <c r="J335" s="19"/>
+      <c r="K335" s="19"/>
+      <c r="L335" s="19"/>
+      <c r="M335" s="19"/>
+      <c r="N335" s="19"/>
+      <c r="O335" s="19"/>
+      <c r="P335" s="19"/>
+      <c r="Q335" s="19"/>
+      <c r="R335" s="19"/>
+      <c r="S335" s="19"/>
+      <c r="T335" s="19"/>
+      <c r="U335" s="19"/>
     </row>
     <row r="336" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D336" s="3" t="s">
@@ -7423,13 +7601,13 @@
       <c r="N336" s="16"/>
       <c r="O336" s="16"/>
       <c r="P336" s="16"/>
-      <c r="Q336" s="17" t="s">
+      <c r="Q336" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="R336" s="17"/>
-      <c r="S336" s="17"/>
-      <c r="T336" s="17"/>
-      <c r="U336" s="17"/>
+      <c r="R336" s="18"/>
+      <c r="S336" s="18"/>
+      <c r="T336" s="18"/>
+      <c r="U336" s="18"/>
     </row>
     <row r="337" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D337" s="1" t="s">
@@ -7473,48 +7651,48 @@
       <c r="B340" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C340" s="21" t="s">
+      <c r="C340" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="D340" s="18"/>
-      <c r="E340" s="18"/>
-      <c r="F340" s="18"/>
-      <c r="G340" s="18"/>
-      <c r="H340" s="18"/>
-      <c r="I340" s="18"/>
-      <c r="J340" s="18"/>
-      <c r="K340" s="18"/>
-      <c r="L340" s="18"/>
-      <c r="M340" s="18"/>
-      <c r="N340" s="18"/>
-      <c r="O340" s="18"/>
-      <c r="P340" s="18"/>
-      <c r="Q340" s="18"/>
-      <c r="R340" s="18"/>
-      <c r="S340" s="18"/>
-      <c r="T340" s="18"/>
-      <c r="U340" s="18"/>
+      <c r="D340" s="19"/>
+      <c r="E340" s="19"/>
+      <c r="F340" s="19"/>
+      <c r="G340" s="19"/>
+      <c r="H340" s="19"/>
+      <c r="I340" s="19"/>
+      <c r="J340" s="19"/>
+      <c r="K340" s="19"/>
+      <c r="L340" s="19"/>
+      <c r="M340" s="19"/>
+      <c r="N340" s="19"/>
+      <c r="O340" s="19"/>
+      <c r="P340" s="19"/>
+      <c r="Q340" s="19"/>
+      <c r="R340" s="19"/>
+      <c r="S340" s="19"/>
+      <c r="T340" s="19"/>
+      <c r="U340" s="19"/>
     </row>
     <row r="341" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C341" s="18"/>
-      <c r="D341" s="18"/>
-      <c r="E341" s="18"/>
-      <c r="F341" s="18"/>
-      <c r="G341" s="18"/>
-      <c r="H341" s="18"/>
-      <c r="I341" s="18"/>
-      <c r="J341" s="18"/>
-      <c r="K341" s="18"/>
-      <c r="L341" s="18"/>
-      <c r="M341" s="18"/>
-      <c r="N341" s="18"/>
-      <c r="O341" s="18"/>
-      <c r="P341" s="18"/>
-      <c r="Q341" s="18"/>
-      <c r="R341" s="18"/>
-      <c r="S341" s="18"/>
-      <c r="T341" s="18"/>
-      <c r="U341" s="18"/>
+      <c r="C341" s="19"/>
+      <c r="D341" s="19"/>
+      <c r="E341" s="19"/>
+      <c r="F341" s="19"/>
+      <c r="G341" s="19"/>
+      <c r="H341" s="19"/>
+      <c r="I341" s="19"/>
+      <c r="J341" s="19"/>
+      <c r="K341" s="19"/>
+      <c r="L341" s="19"/>
+      <c r="M341" s="19"/>
+      <c r="N341" s="19"/>
+      <c r="O341" s="19"/>
+      <c r="P341" s="19"/>
+      <c r="Q341" s="19"/>
+      <c r="R341" s="19"/>
+      <c r="S341" s="19"/>
+      <c r="T341" s="19"/>
+      <c r="U341" s="19"/>
     </row>
     <row r="342" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D342" s="10" t="s">
@@ -7541,7 +7719,7 @@
       <c r="D343" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E343" s="19" t="s">
+      <c r="E343" s="17" t="s">
         <v>287</v>
       </c>
       <c r="F343" s="15"/>
@@ -7587,7 +7765,7 @@
       <c r="D345" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E345" s="22" t="s">
+      <c r="E345" s="21" t="s">
         <v>288</v>
       </c>
       <c r="F345" s="16"/>
@@ -7601,13 +7779,13 @@
       <c r="N345" s="16"/>
       <c r="O345" s="16"/>
       <c r="P345" s="16"/>
-      <c r="Q345" s="17" t="s">
+      <c r="Q345" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="R345" s="17"/>
-      <c r="S345" s="17"/>
-      <c r="T345" s="17"/>
-      <c r="U345" s="17"/>
+      <c r="R345" s="18"/>
+      <c r="S345" s="18"/>
+      <c r="T345" s="18"/>
+      <c r="U345" s="18"/>
     </row>
     <row r="346" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C346" s="1"/>
@@ -7624,17 +7802,17 @@
       <c r="N346" s="16"/>
       <c r="O346" s="16"/>
       <c r="P346" s="16"/>
-      <c r="Q346" s="17"/>
-      <c r="R346" s="17"/>
-      <c r="S346" s="17"/>
-      <c r="T346" s="17"/>
-      <c r="U346" s="17"/>
+      <c r="Q346" s="18"/>
+      <c r="R346" s="18"/>
+      <c r="S346" s="18"/>
+      <c r="T346" s="18"/>
+      <c r="U346" s="18"/>
     </row>
     <row r="348" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B348" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C348" s="31" t="s">
+      <c r="C348" s="24" t="s">
         <v>290</v>
       </c>
       <c r="D348" s="15"/>
@@ -7679,7 +7857,7 @@
       <c r="D350" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E350" s="22" t="s">
+      <c r="E350" s="21" t="s">
         <v>292</v>
       </c>
       <c r="F350" s="16"/>
@@ -7693,13 +7871,13 @@
       <c r="N350" s="16"/>
       <c r="O350" s="16"/>
       <c r="P350" s="16"/>
-      <c r="Q350" s="17" t="s">
+      <c r="Q350" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="R350" s="17"/>
-      <c r="S350" s="17"/>
-      <c r="T350" s="17"/>
-      <c r="U350" s="17"/>
+      <c r="R350" s="18"/>
+      <c r="S350" s="18"/>
+      <c r="T350" s="18"/>
+      <c r="U350" s="18"/>
     </row>
     <row r="351" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D351" s="16"/>
@@ -7715,43 +7893,43 @@
       <c r="N351" s="16"/>
       <c r="O351" s="16"/>
       <c r="P351" s="16"/>
-      <c r="Q351" s="17"/>
-      <c r="R351" s="17"/>
-      <c r="S351" s="17"/>
-      <c r="T351" s="17"/>
-      <c r="U351" s="17"/>
+      <c r="Q351" s="18"/>
+      <c r="R351" s="18"/>
+      <c r="S351" s="18"/>
+      <c r="T351" s="18"/>
+      <c r="U351" s="18"/>
     </row>
     <row r="353" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B353" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C353" s="21" t="s">
+      <c r="C353" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="D353" s="18"/>
-      <c r="E353" s="18"/>
-      <c r="F353" s="18"/>
-      <c r="G353" s="18"/>
-      <c r="H353" s="18"/>
-      <c r="I353" s="18"/>
-      <c r="J353" s="18"/>
-      <c r="K353" s="18"/>
-      <c r="L353" s="18"/>
-      <c r="M353" s="18"/>
-      <c r="N353" s="18"/>
-      <c r="O353" s="18"/>
-      <c r="P353" s="18"/>
-      <c r="Q353" s="18"/>
-      <c r="R353" s="18"/>
-      <c r="S353" s="18"/>
-      <c r="T353" s="18"/>
-      <c r="U353" s="18"/>
+      <c r="D353" s="19"/>
+      <c r="E353" s="19"/>
+      <c r="F353" s="19"/>
+      <c r="G353" s="19"/>
+      <c r="H353" s="19"/>
+      <c r="I353" s="19"/>
+      <c r="J353" s="19"/>
+      <c r="K353" s="19"/>
+      <c r="L353" s="19"/>
+      <c r="M353" s="19"/>
+      <c r="N353" s="19"/>
+      <c r="O353" s="19"/>
+      <c r="P353" s="19"/>
+      <c r="Q353" s="19"/>
+      <c r="R353" s="19"/>
+      <c r="S353" s="19"/>
+      <c r="T353" s="19"/>
+      <c r="U353" s="19"/>
     </row>
     <row r="354" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D354" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E354" s="19" t="s">
+      <c r="E354" s="17" t="s">
         <v>297</v>
       </c>
       <c r="F354" s="15"/>
@@ -7785,7 +7963,7 @@
       <c r="D356" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E356" s="22" t="s">
+      <c r="E356" s="21" t="s">
         <v>298</v>
       </c>
       <c r="F356" s="16"/>
@@ -7799,13 +7977,13 @@
       <c r="N356" s="16"/>
       <c r="O356" s="16"/>
       <c r="P356" s="16"/>
-      <c r="Q356" s="17" t="s">
+      <c r="Q356" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="R356" s="17"/>
-      <c r="S356" s="17"/>
-      <c r="T356" s="17"/>
-      <c r="U356" s="17"/>
+      <c r="R356" s="18"/>
+      <c r="S356" s="18"/>
+      <c r="T356" s="18"/>
+      <c r="U356" s="18"/>
     </row>
     <row r="357" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D357" s="16"/>
@@ -7821,11 +7999,11 @@
       <c r="N357" s="16"/>
       <c r="O357" s="16"/>
       <c r="P357" s="16"/>
-      <c r="Q357" s="17"/>
-      <c r="R357" s="17"/>
-      <c r="S357" s="17"/>
-      <c r="T357" s="17"/>
-      <c r="U357" s="17"/>
+      <c r="Q357" s="18"/>
+      <c r="R357" s="18"/>
+      <c r="S357" s="18"/>
+      <c r="T357" s="18"/>
+      <c r="U357" s="18"/>
     </row>
     <row r="358" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D358" s="10" t="s">
@@ -7850,27 +8028,27 @@
       <c r="B360" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C360" s="18" t="s">
+      <c r="C360" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="D360" s="18"/>
-      <c r="E360" s="18"/>
-      <c r="F360" s="18"/>
-      <c r="G360" s="18"/>
-      <c r="H360" s="18"/>
-      <c r="I360" s="18"/>
-      <c r="J360" s="18"/>
-      <c r="K360" s="18"/>
-      <c r="L360" s="18"/>
-      <c r="M360" s="18"/>
-      <c r="N360" s="18"/>
-      <c r="O360" s="18"/>
-      <c r="P360" s="18"/>
-      <c r="Q360" s="18"/>
-      <c r="R360" s="18"/>
-      <c r="S360" s="18"/>
-      <c r="T360" s="18"/>
-      <c r="U360" s="18"/>
+      <c r="D360" s="19"/>
+      <c r="E360" s="19"/>
+      <c r="F360" s="19"/>
+      <c r="G360" s="19"/>
+      <c r="H360" s="19"/>
+      <c r="I360" s="19"/>
+      <c r="J360" s="19"/>
+      <c r="K360" s="19"/>
+      <c r="L360" s="19"/>
+      <c r="M360" s="19"/>
+      <c r="N360" s="19"/>
+      <c r="O360" s="19"/>
+      <c r="P360" s="19"/>
+      <c r="Q360" s="19"/>
+      <c r="R360" s="19"/>
+      <c r="S360" s="19"/>
+      <c r="T360" s="19"/>
+      <c r="U360" s="19"/>
     </row>
     <row r="361" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D361" s="3" t="s">
@@ -7912,27 +8090,27 @@
       <c r="B366" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C366" s="18" t="s">
+      <c r="C366" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="D366" s="18"/>
-      <c r="E366" s="18"/>
-      <c r="F366" s="18"/>
-      <c r="G366" s="18"/>
-      <c r="H366" s="18"/>
-      <c r="I366" s="18"/>
-      <c r="J366" s="18"/>
-      <c r="K366" s="18"/>
-      <c r="L366" s="18"/>
-      <c r="M366" s="18"/>
-      <c r="N366" s="18"/>
-      <c r="O366" s="18"/>
-      <c r="P366" s="18"/>
-      <c r="Q366" s="18"/>
-      <c r="R366" s="18"/>
-      <c r="S366" s="18"/>
-      <c r="T366" s="18"/>
-      <c r="U366" s="18"/>
+      <c r="D366" s="19"/>
+      <c r="E366" s="19"/>
+      <c r="F366" s="19"/>
+      <c r="G366" s="19"/>
+      <c r="H366" s="19"/>
+      <c r="I366" s="19"/>
+      <c r="J366" s="19"/>
+      <c r="K366" s="19"/>
+      <c r="L366" s="19"/>
+      <c r="M366" s="19"/>
+      <c r="N366" s="19"/>
+      <c r="O366" s="19"/>
+      <c r="P366" s="19"/>
+      <c r="Q366" s="19"/>
+      <c r="R366" s="19"/>
+      <c r="S366" s="19"/>
+      <c r="T366" s="19"/>
+      <c r="U366" s="19"/>
     </row>
     <row r="367" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D367" s="1" t="s">
@@ -7970,8 +8148,8 @@
       </c>
       <c r="F370" s="15"/>
     </row>
-    <row r="372" spans="1:21" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="28" t="s">
+    <row r="372" spans="1:21" s="23" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="23" t="s">
         <v>308</v>
       </c>
     </row>
@@ -7979,27 +8157,27 @@
       <c r="B374" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C374" s="18" t="s">
+      <c r="C374" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="D374" s="18"/>
-      <c r="E374" s="18"/>
-      <c r="F374" s="18"/>
-      <c r="G374" s="18"/>
-      <c r="H374" s="18"/>
-      <c r="I374" s="18"/>
-      <c r="J374" s="18"/>
-      <c r="K374" s="18"/>
-      <c r="L374" s="18"/>
-      <c r="M374" s="18"/>
-      <c r="N374" s="18"/>
-      <c r="O374" s="18"/>
-      <c r="P374" s="18"/>
-      <c r="Q374" s="18"/>
-      <c r="R374" s="18"/>
-      <c r="S374" s="18"/>
-      <c r="T374" s="18"/>
-      <c r="U374" s="18"/>
+      <c r="D374" s="19"/>
+      <c r="E374" s="19"/>
+      <c r="F374" s="19"/>
+      <c r="G374" s="19"/>
+      <c r="H374" s="19"/>
+      <c r="I374" s="19"/>
+      <c r="J374" s="19"/>
+      <c r="K374" s="19"/>
+      <c r="L374" s="19"/>
+      <c r="M374" s="19"/>
+      <c r="N374" s="19"/>
+      <c r="O374" s="19"/>
+      <c r="P374" s="19"/>
+      <c r="Q374" s="19"/>
+      <c r="R374" s="19"/>
+      <c r="S374" s="19"/>
+      <c r="T374" s="19"/>
+      <c r="U374" s="19"/>
     </row>
     <row r="375" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D375" s="1" t="s">
@@ -8022,21 +8200,21 @@
       <c r="F376" s="16"/>
       <c r="G376" s="16"/>
       <c r="H376" s="16"/>
-      <c r="I376" s="17" t="s">
+      <c r="I376" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="J376" s="17"/>
-      <c r="K376" s="17"/>
-      <c r="L376" s="17"/>
-      <c r="M376" s="17"/>
-      <c r="N376" s="17"/>
-      <c r="O376" s="17"/>
-      <c r="P376" s="17"/>
-      <c r="Q376" s="17"/>
-      <c r="R376" s="17"/>
-      <c r="S376" s="17"/>
-      <c r="T376" s="17"/>
-      <c r="U376" s="17"/>
+      <c r="J376" s="18"/>
+      <c r="K376" s="18"/>
+      <c r="L376" s="18"/>
+      <c r="M376" s="18"/>
+      <c r="N376" s="18"/>
+      <c r="O376" s="18"/>
+      <c r="P376" s="18"/>
+      <c r="Q376" s="18"/>
+      <c r="R376" s="18"/>
+      <c r="S376" s="18"/>
+      <c r="T376" s="18"/>
+      <c r="U376" s="18"/>
     </row>
     <row r="377" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D377" s="1" t="s">
@@ -8075,27 +8253,27 @@
       <c r="B381" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C381" s="18" t="s">
+      <c r="C381" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="D381" s="18"/>
-      <c r="E381" s="18"/>
-      <c r="F381" s="18"/>
-      <c r="G381" s="18"/>
-      <c r="H381" s="18"/>
-      <c r="I381" s="18"/>
-      <c r="J381" s="18"/>
-      <c r="K381" s="18"/>
-      <c r="L381" s="18"/>
-      <c r="M381" s="18"/>
-      <c r="N381" s="18"/>
-      <c r="O381" s="18"/>
-      <c r="P381" s="18"/>
-      <c r="Q381" s="18"/>
-      <c r="R381" s="18"/>
-      <c r="S381" s="18"/>
-      <c r="T381" s="18"/>
-      <c r="U381" s="18"/>
+      <c r="D381" s="19"/>
+      <c r="E381" s="19"/>
+      <c r="F381" s="19"/>
+      <c r="G381" s="19"/>
+      <c r="H381" s="19"/>
+      <c r="I381" s="19"/>
+      <c r="J381" s="19"/>
+      <c r="K381" s="19"/>
+      <c r="L381" s="19"/>
+      <c r="M381" s="19"/>
+      <c r="N381" s="19"/>
+      <c r="O381" s="19"/>
+      <c r="P381" s="19"/>
+      <c r="Q381" s="19"/>
+      <c r="R381" s="19"/>
+      <c r="S381" s="19"/>
+      <c r="T381" s="19"/>
+      <c r="U381" s="19"/>
     </row>
     <row r="382" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D382" s="3" t="s">
@@ -8105,23 +8283,23 @@
         <v>319</v>
       </c>
       <c r="F382" s="16"/>
-      <c r="G382" s="17" t="s">
+      <c r="G382" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="H382" s="17"/>
-      <c r="I382" s="17"/>
-      <c r="J382" s="17"/>
-      <c r="K382" s="17"/>
-      <c r="L382" s="17"/>
-      <c r="M382" s="17"/>
-      <c r="N382" s="17"/>
-      <c r="O382" s="17"/>
-      <c r="P382" s="17"/>
-      <c r="Q382" s="17"/>
-      <c r="R382" s="17"/>
-      <c r="S382" s="17"/>
-      <c r="T382" s="17"/>
-      <c r="U382" s="17"/>
+      <c r="H382" s="18"/>
+      <c r="I382" s="18"/>
+      <c r="J382" s="18"/>
+      <c r="K382" s="18"/>
+      <c r="L382" s="18"/>
+      <c r="M382" s="18"/>
+      <c r="N382" s="18"/>
+      <c r="O382" s="18"/>
+      <c r="P382" s="18"/>
+      <c r="Q382" s="18"/>
+      <c r="R382" s="18"/>
+      <c r="S382" s="18"/>
+      <c r="T382" s="18"/>
+      <c r="U382" s="18"/>
     </row>
     <row r="383" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D383" s="1" t="s">
@@ -8145,27 +8323,27 @@
       <c r="B386" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C386" s="18" t="s">
+      <c r="C386" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="D386" s="18"/>
-      <c r="E386" s="18"/>
-      <c r="F386" s="18"/>
-      <c r="G386" s="18"/>
-      <c r="H386" s="18"/>
-      <c r="I386" s="18"/>
-      <c r="J386" s="18"/>
-      <c r="K386" s="18"/>
-      <c r="L386" s="18"/>
-      <c r="M386" s="18"/>
-      <c r="N386" s="18"/>
-      <c r="O386" s="18"/>
-      <c r="P386" s="18"/>
-      <c r="Q386" s="18"/>
-      <c r="R386" s="18"/>
-      <c r="S386" s="18"/>
-      <c r="T386" s="18"/>
-      <c r="U386" s="18"/>
+      <c r="D386" s="19"/>
+      <c r="E386" s="19"/>
+      <c r="F386" s="19"/>
+      <c r="G386" s="19"/>
+      <c r="H386" s="19"/>
+      <c r="I386" s="19"/>
+      <c r="J386" s="19"/>
+      <c r="K386" s="19"/>
+      <c r="L386" s="19"/>
+      <c r="M386" s="19"/>
+      <c r="N386" s="19"/>
+      <c r="O386" s="19"/>
+      <c r="P386" s="19"/>
+      <c r="Q386" s="19"/>
+      <c r="R386" s="19"/>
+      <c r="S386" s="19"/>
+      <c r="T386" s="19"/>
+      <c r="U386" s="19"/>
     </row>
     <row r="387" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D387" s="1" t="s">
@@ -8201,16 +8379,16 @@
       <c r="K388" s="16"/>
       <c r="L388" s="16"/>
       <c r="M388" s="16"/>
-      <c r="N388" s="17" t="s">
+      <c r="N388" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="O388" s="17"/>
-      <c r="P388" s="17"/>
-      <c r="Q388" s="17"/>
-      <c r="R388" s="17"/>
-      <c r="S388" s="17"/>
-      <c r="T388" s="17"/>
-      <c r="U388" s="17"/>
+      <c r="O388" s="18"/>
+      <c r="P388" s="18"/>
+      <c r="Q388" s="18"/>
+      <c r="R388" s="18"/>
+      <c r="S388" s="18"/>
+      <c r="T388" s="18"/>
+      <c r="U388" s="18"/>
     </row>
     <row r="389" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D389" s="1" t="s">
@@ -8254,47 +8432,47 @@
       <c r="B392" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C392" s="18" t="s">
+      <c r="C392" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="D392" s="18"/>
-      <c r="E392" s="18"/>
-      <c r="F392" s="18"/>
-      <c r="G392" s="18"/>
-      <c r="H392" s="18"/>
-      <c r="I392" s="18"/>
-      <c r="J392" s="18"/>
-      <c r="K392" s="18"/>
-      <c r="L392" s="18"/>
-      <c r="M392" s="18"/>
-      <c r="N392" s="18"/>
-      <c r="O392" s="18"/>
-      <c r="P392" s="18"/>
-      <c r="Q392" s="18"/>
-      <c r="R392" s="18"/>
-      <c r="S392" s="18"/>
-      <c r="T392" s="18"/>
-      <c r="U392" s="18"/>
+      <c r="D392" s="19"/>
+      <c r="E392" s="19"/>
+      <c r="F392" s="19"/>
+      <c r="G392" s="19"/>
+      <c r="H392" s="19"/>
+      <c r="I392" s="19"/>
+      <c r="J392" s="19"/>
+      <c r="K392" s="19"/>
+      <c r="L392" s="19"/>
+      <c r="M392" s="19"/>
+      <c r="N392" s="19"/>
+      <c r="O392" s="19"/>
+      <c r="P392" s="19"/>
+      <c r="Q392" s="19"/>
+      <c r="R392" s="19"/>
+      <c r="S392" s="19"/>
+      <c r="T392" s="19"/>
+      <c r="U392" s="19"/>
     </row>
     <row r="393" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D393" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E393" s="19" t="s">
+      <c r="E393" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="F393" s="19"/>
-      <c r="G393" s="19"/>
-      <c r="H393" s="19"/>
-      <c r="I393" s="19"/>
-      <c r="J393" s="19"/>
-      <c r="K393" s="19"/>
-      <c r="L393" s="19"/>
-      <c r="M393" s="19"/>
-      <c r="N393" s="19"/>
-      <c r="O393" s="19"/>
-      <c r="P393" s="19"/>
-      <c r="Q393" s="19"/>
+      <c r="F393" s="17"/>
+      <c r="G393" s="17"/>
+      <c r="H393" s="17"/>
+      <c r="I393" s="17"/>
+      <c r="J393" s="17"/>
+      <c r="K393" s="17"/>
+      <c r="L393" s="17"/>
+      <c r="M393" s="17"/>
+      <c r="N393" s="17"/>
+      <c r="O393" s="17"/>
+      <c r="P393" s="17"/>
+      <c r="Q393" s="17"/>
       <c r="R393" s="1"/>
       <c r="S393" s="1"/>
       <c r="T393" s="1"/>
@@ -8319,12 +8497,12 @@
       <c r="O394" s="16"/>
       <c r="P394" s="16"/>
       <c r="Q394" s="16"/>
-      <c r="R394" s="17" t="s">
+      <c r="R394" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="S394" s="17"/>
-      <c r="T394" s="17"/>
-      <c r="U394" s="17"/>
+      <c r="S394" s="18"/>
+      <c r="T394" s="18"/>
+      <c r="U394" s="18"/>
     </row>
     <row r="395" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D395" s="1" t="s">
@@ -8350,27 +8528,27 @@
       <c r="B397" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C397" s="18" t="s">
+      <c r="C397" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="D397" s="18"/>
-      <c r="E397" s="18"/>
-      <c r="F397" s="18"/>
-      <c r="G397" s="18"/>
-      <c r="H397" s="18"/>
-      <c r="I397" s="18"/>
-      <c r="J397" s="18"/>
-      <c r="K397" s="18"/>
-      <c r="L397" s="18"/>
-      <c r="M397" s="18"/>
-      <c r="N397" s="18"/>
-      <c r="O397" s="18"/>
-      <c r="P397" s="18"/>
-      <c r="Q397" s="18"/>
-      <c r="R397" s="18"/>
-      <c r="S397" s="18"/>
-      <c r="T397" s="18"/>
-      <c r="U397" s="18"/>
+      <c r="D397" s="19"/>
+      <c r="E397" s="19"/>
+      <c r="F397" s="19"/>
+      <c r="G397" s="19"/>
+      <c r="H397" s="19"/>
+      <c r="I397" s="19"/>
+      <c r="J397" s="19"/>
+      <c r="K397" s="19"/>
+      <c r="L397" s="19"/>
+      <c r="M397" s="19"/>
+      <c r="N397" s="19"/>
+      <c r="O397" s="19"/>
+      <c r="P397" s="19"/>
+      <c r="Q397" s="19"/>
+      <c r="R397" s="19"/>
+      <c r="S397" s="19"/>
+      <c r="T397" s="19"/>
+      <c r="U397" s="19"/>
     </row>
     <row r="398" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D398" s="3" t="s">
@@ -8445,27 +8623,27 @@
       <c r="B402" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C402" s="18" t="s">
+      <c r="C402" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="D402" s="18"/>
-      <c r="E402" s="18"/>
-      <c r="F402" s="18"/>
-      <c r="G402" s="18"/>
-      <c r="H402" s="18"/>
-      <c r="I402" s="18"/>
-      <c r="J402" s="18"/>
-      <c r="K402" s="18"/>
-      <c r="L402" s="18"/>
-      <c r="M402" s="18"/>
-      <c r="N402" s="18"/>
-      <c r="O402" s="18"/>
-      <c r="P402" s="18"/>
-      <c r="Q402" s="18"/>
-      <c r="R402" s="18"/>
-      <c r="S402" s="18"/>
-      <c r="T402" s="18"/>
-      <c r="U402" s="18"/>
+      <c r="D402" s="19"/>
+      <c r="E402" s="19"/>
+      <c r="F402" s="19"/>
+      <c r="G402" s="19"/>
+      <c r="H402" s="19"/>
+      <c r="I402" s="19"/>
+      <c r="J402" s="19"/>
+      <c r="K402" s="19"/>
+      <c r="L402" s="19"/>
+      <c r="M402" s="19"/>
+      <c r="N402" s="19"/>
+      <c r="O402" s="19"/>
+      <c r="P402" s="19"/>
+      <c r="Q402" s="19"/>
+      <c r="R402" s="19"/>
+      <c r="S402" s="19"/>
+      <c r="T402" s="19"/>
+      <c r="U402" s="19"/>
     </row>
     <row r="403" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D403" s="1" t="s">
@@ -8546,16 +8724,16 @@
       <c r="K407" s="16"/>
       <c r="L407" s="16"/>
       <c r="M407" s="16"/>
-      <c r="N407" s="17" t="s">
+      <c r="N407" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="O407" s="17"/>
-      <c r="P407" s="17"/>
-      <c r="Q407" s="17"/>
-      <c r="R407" s="17"/>
-      <c r="S407" s="17"/>
-      <c r="T407" s="17"/>
-      <c r="U407" s="17"/>
+      <c r="O407" s="18"/>
+      <c r="P407" s="18"/>
+      <c r="Q407" s="18"/>
+      <c r="R407" s="18"/>
+      <c r="S407" s="18"/>
+      <c r="T407" s="18"/>
+      <c r="U407" s="18"/>
     </row>
     <row r="408" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D408" s="1" t="s">
@@ -8577,27 +8755,27 @@
       <c r="B410" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C410" s="18" t="s">
+      <c r="C410" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="D410" s="18"/>
-      <c r="E410" s="18"/>
-      <c r="F410" s="18"/>
-      <c r="G410" s="18"/>
-      <c r="H410" s="18"/>
-      <c r="I410" s="18"/>
-      <c r="J410" s="18"/>
-      <c r="K410" s="18"/>
-      <c r="L410" s="18"/>
-      <c r="M410" s="18"/>
-      <c r="N410" s="18"/>
-      <c r="O410" s="18"/>
-      <c r="P410" s="18"/>
-      <c r="Q410" s="18"/>
-      <c r="R410" s="18"/>
-      <c r="S410" s="18"/>
-      <c r="T410" s="18"/>
-      <c r="U410" s="18"/>
+      <c r="D410" s="19"/>
+      <c r="E410" s="19"/>
+      <c r="F410" s="19"/>
+      <c r="G410" s="19"/>
+      <c r="H410" s="19"/>
+      <c r="I410" s="19"/>
+      <c r="J410" s="19"/>
+      <c r="K410" s="19"/>
+      <c r="L410" s="19"/>
+      <c r="M410" s="19"/>
+      <c r="N410" s="19"/>
+      <c r="O410" s="19"/>
+      <c r="P410" s="19"/>
+      <c r="Q410" s="19"/>
+      <c r="R410" s="19"/>
+      <c r="S410" s="19"/>
+      <c r="T410" s="19"/>
+      <c r="U410" s="19"/>
     </row>
     <row r="411" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D411" s="1" t="s">
@@ -8662,16 +8840,16 @@
       <c r="K414" s="16"/>
       <c r="L414" s="16"/>
       <c r="M414" s="16"/>
-      <c r="N414" s="17" t="s">
+      <c r="N414" s="18" t="s">
         <v>356</v>
       </c>
-      <c r="O414" s="17"/>
-      <c r="P414" s="17"/>
-      <c r="Q414" s="17"/>
-      <c r="R414" s="17"/>
-      <c r="S414" s="17"/>
-      <c r="T414" s="17"/>
-      <c r="U414" s="17"/>
+      <c r="O414" s="18"/>
+      <c r="P414" s="18"/>
+      <c r="Q414" s="18"/>
+      <c r="R414" s="18"/>
+      <c r="S414" s="18"/>
+      <c r="T414" s="18"/>
+      <c r="U414" s="18"/>
     </row>
     <row r="415" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D415" s="1" t="s">
@@ -8709,53 +8887,53 @@
       <c r="B418" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C418" s="18" t="s">
+      <c r="C418" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="D418" s="18"/>
-      <c r="E418" s="18"/>
-      <c r="F418" s="18"/>
-      <c r="G418" s="18"/>
-      <c r="H418" s="18"/>
-      <c r="I418" s="18"/>
-      <c r="J418" s="18"/>
-      <c r="K418" s="18"/>
-      <c r="L418" s="18"/>
-      <c r="M418" s="18"/>
-      <c r="N418" s="18"/>
-      <c r="O418" s="18"/>
-      <c r="P418" s="18"/>
-      <c r="Q418" s="18"/>
-      <c r="R418" s="18"/>
-      <c r="S418" s="18"/>
-      <c r="T418" s="18"/>
-      <c r="U418" s="18"/>
+      <c r="D418" s="19"/>
+      <c r="E418" s="19"/>
+      <c r="F418" s="19"/>
+      <c r="G418" s="19"/>
+      <c r="H418" s="19"/>
+      <c r="I418" s="19"/>
+      <c r="J418" s="19"/>
+      <c r="K418" s="19"/>
+      <c r="L418" s="19"/>
+      <c r="M418" s="19"/>
+      <c r="N418" s="19"/>
+      <c r="O418" s="19"/>
+      <c r="P418" s="19"/>
+      <c r="Q418" s="19"/>
+      <c r="R418" s="19"/>
+      <c r="S418" s="19"/>
+      <c r="T418" s="19"/>
+      <c r="U418" s="19"/>
     </row>
     <row r="419" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D419" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E419" s="20" t="s">
+      <c r="E419" s="33" t="s">
         <v>361</v>
       </c>
-      <c r="F419" s="20"/>
-      <c r="G419" s="20"/>
-      <c r="H419" s="20"/>
-      <c r="I419" s="20"/>
-      <c r="J419" s="17" t="s">
+      <c r="F419" s="33"/>
+      <c r="G419" s="33"/>
+      <c r="H419" s="33"/>
+      <c r="I419" s="33"/>
+      <c r="J419" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="K419" s="17"/>
-      <c r="L419" s="17"/>
-      <c r="M419" s="17"/>
-      <c r="N419" s="17"/>
-      <c r="O419" s="17"/>
-      <c r="P419" s="17"/>
-      <c r="Q419" s="17"/>
-      <c r="R419" s="17"/>
-      <c r="S419" s="17"/>
-      <c r="T419" s="17"/>
-      <c r="U419" s="17"/>
+      <c r="K419" s="18"/>
+      <c r="L419" s="18"/>
+      <c r="M419" s="18"/>
+      <c r="N419" s="18"/>
+      <c r="O419" s="18"/>
+      <c r="P419" s="18"/>
+      <c r="Q419" s="18"/>
+      <c r="R419" s="18"/>
+      <c r="S419" s="18"/>
+      <c r="T419" s="18"/>
+      <c r="U419" s="18"/>
     </row>
     <row r="420" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D420" s="1" t="s">
@@ -8809,27 +8987,27 @@
       <c r="B425" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C425" s="18" t="s">
+      <c r="C425" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="D425" s="18"/>
-      <c r="E425" s="18"/>
-      <c r="F425" s="18"/>
-      <c r="G425" s="18"/>
-      <c r="H425" s="18"/>
-      <c r="I425" s="18"/>
-      <c r="J425" s="18"/>
-      <c r="K425" s="18"/>
-      <c r="L425" s="18"/>
-      <c r="M425" s="18"/>
-      <c r="N425" s="18"/>
-      <c r="O425" s="18"/>
-      <c r="P425" s="18"/>
-      <c r="Q425" s="18"/>
-      <c r="R425" s="18"/>
-      <c r="S425" s="18"/>
-      <c r="T425" s="18"/>
-      <c r="U425" s="18"/>
+      <c r="D425" s="19"/>
+      <c r="E425" s="19"/>
+      <c r="F425" s="19"/>
+      <c r="G425" s="19"/>
+      <c r="H425" s="19"/>
+      <c r="I425" s="19"/>
+      <c r="J425" s="19"/>
+      <c r="K425" s="19"/>
+      <c r="L425" s="19"/>
+      <c r="M425" s="19"/>
+      <c r="N425" s="19"/>
+      <c r="O425" s="19"/>
+      <c r="P425" s="19"/>
+      <c r="Q425" s="19"/>
+      <c r="R425" s="19"/>
+      <c r="S425" s="19"/>
+      <c r="T425" s="19"/>
+      <c r="U425" s="19"/>
     </row>
     <row r="426" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D426" s="1" t="s">
@@ -8880,22 +9058,22 @@
       </c>
       <c r="F430" s="16"/>
       <c r="G430" s="16"/>
-      <c r="H430" s="17" t="s">
+      <c r="H430" s="18" t="s">
         <v>370</v>
       </c>
-      <c r="I430" s="17"/>
-      <c r="J430" s="17"/>
-      <c r="K430" s="17"/>
-      <c r="L430" s="17"/>
-      <c r="M430" s="17"/>
-      <c r="N430" s="17"/>
-      <c r="O430" s="17"/>
-      <c r="P430" s="17"/>
-      <c r="Q430" s="17"/>
-      <c r="R430" s="17"/>
-      <c r="S430" s="17"/>
-      <c r="T430" s="17"/>
-      <c r="U430" s="17"/>
+      <c r="I430" s="18"/>
+      <c r="J430" s="18"/>
+      <c r="K430" s="18"/>
+      <c r="L430" s="18"/>
+      <c r="M430" s="18"/>
+      <c r="N430" s="18"/>
+      <c r="O430" s="18"/>
+      <c r="P430" s="18"/>
+      <c r="Q430" s="18"/>
+      <c r="R430" s="18"/>
+      <c r="S430" s="18"/>
+      <c r="T430" s="18"/>
+      <c r="U430" s="18"/>
     </row>
     <row r="431" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D431" s="1" t="s">
@@ -8911,27 +9089,27 @@
       <c r="B433" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C433" s="18" t="s">
+      <c r="C433" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="D433" s="18"/>
-      <c r="E433" s="18"/>
-      <c r="F433" s="18"/>
-      <c r="G433" s="18"/>
-      <c r="H433" s="18"/>
-      <c r="I433" s="18"/>
-      <c r="J433" s="18"/>
-      <c r="K433" s="18"/>
-      <c r="L433" s="18"/>
-      <c r="M433" s="18"/>
-      <c r="N433" s="18"/>
-      <c r="O433" s="18"/>
-      <c r="P433" s="18"/>
-      <c r="Q433" s="18"/>
-      <c r="R433" s="18"/>
-      <c r="S433" s="18"/>
-      <c r="T433" s="18"/>
-      <c r="U433" s="18"/>
+      <c r="D433" s="19"/>
+      <c r="E433" s="19"/>
+      <c r="F433" s="19"/>
+      <c r="G433" s="19"/>
+      <c r="H433" s="19"/>
+      <c r="I433" s="19"/>
+      <c r="J433" s="19"/>
+      <c r="K433" s="19"/>
+      <c r="L433" s="19"/>
+      <c r="M433" s="19"/>
+      <c r="N433" s="19"/>
+      <c r="O433" s="19"/>
+      <c r="P433" s="19"/>
+      <c r="Q433" s="19"/>
+      <c r="R433" s="19"/>
+      <c r="S433" s="19"/>
+      <c r="T433" s="19"/>
+      <c r="U433" s="19"/>
     </row>
     <row r="434" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D434" s="1" t="s">
@@ -8989,27 +9167,27 @@
       <c r="B439" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C439" s="18" t="s">
+      <c r="C439" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="D439" s="18"/>
-      <c r="E439" s="18"/>
-      <c r="F439" s="18"/>
-      <c r="G439" s="18"/>
-      <c r="H439" s="18"/>
-      <c r="I439" s="18"/>
-      <c r="J439" s="18"/>
-      <c r="K439" s="18"/>
-      <c r="L439" s="18"/>
-      <c r="M439" s="18"/>
-      <c r="N439" s="18"/>
-      <c r="O439" s="18"/>
-      <c r="P439" s="18"/>
-      <c r="Q439" s="18"/>
-      <c r="R439" s="18"/>
-      <c r="S439" s="18"/>
-      <c r="T439" s="18"/>
-      <c r="U439" s="18"/>
+      <c r="D439" s="19"/>
+      <c r="E439" s="19"/>
+      <c r="F439" s="19"/>
+      <c r="G439" s="19"/>
+      <c r="H439" s="19"/>
+      <c r="I439" s="19"/>
+      <c r="J439" s="19"/>
+      <c r="K439" s="19"/>
+      <c r="L439" s="19"/>
+      <c r="M439" s="19"/>
+      <c r="N439" s="19"/>
+      <c r="O439" s="19"/>
+      <c r="P439" s="19"/>
+      <c r="Q439" s="19"/>
+      <c r="R439" s="19"/>
+      <c r="S439" s="19"/>
+      <c r="T439" s="19"/>
+      <c r="U439" s="19"/>
     </row>
     <row r="440" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D440" s="1" t="s">
@@ -9063,7 +9241,7 @@
       <c r="D442" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E442" s="19" t="s">
+      <c r="E442" s="17" t="s">
         <v>382</v>
       </c>
       <c r="F442" s="15"/>
@@ -9159,27 +9337,27 @@
       <c r="B447" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C447" s="18" t="s">
+      <c r="C447" s="19" t="s">
         <v>386</v>
       </c>
-      <c r="D447" s="18"/>
-      <c r="E447" s="18"/>
-      <c r="F447" s="18"/>
-      <c r="G447" s="18"/>
-      <c r="H447" s="18"/>
-      <c r="I447" s="18"/>
-      <c r="J447" s="18"/>
-      <c r="K447" s="18"/>
-      <c r="L447" s="18"/>
-      <c r="M447" s="18"/>
-      <c r="N447" s="18"/>
-      <c r="O447" s="18"/>
-      <c r="P447" s="18"/>
-      <c r="Q447" s="18"/>
-      <c r="R447" s="18"/>
-      <c r="S447" s="18"/>
-      <c r="T447" s="18"/>
-      <c r="U447" s="18"/>
+      <c r="D447" s="19"/>
+      <c r="E447" s="19"/>
+      <c r="F447" s="19"/>
+      <c r="G447" s="19"/>
+      <c r="H447" s="19"/>
+      <c r="I447" s="19"/>
+      <c r="J447" s="19"/>
+      <c r="K447" s="19"/>
+      <c r="L447" s="19"/>
+      <c r="M447" s="19"/>
+      <c r="N447" s="19"/>
+      <c r="O447" s="19"/>
+      <c r="P447" s="19"/>
+      <c r="Q447" s="19"/>
+      <c r="R447" s="19"/>
+      <c r="S447" s="19"/>
+      <c r="T447" s="19"/>
+      <c r="U447" s="19"/>
     </row>
     <row r="448" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D448" s="1" t="s">
@@ -9207,23 +9385,23 @@
         <v>389</v>
       </c>
       <c r="F450" s="16"/>
-      <c r="G450" s="17" t="s">
+      <c r="G450" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="H450" s="17"/>
-      <c r="I450" s="17"/>
-      <c r="J450" s="17"/>
-      <c r="K450" s="17"/>
-      <c r="L450" s="17"/>
-      <c r="M450" s="17"/>
-      <c r="N450" s="17"/>
-      <c r="O450" s="17"/>
-      <c r="P450" s="17"/>
-      <c r="Q450" s="17"/>
-      <c r="R450" s="17"/>
-      <c r="S450" s="17"/>
-      <c r="T450" s="17"/>
-      <c r="U450" s="17"/>
+      <c r="H450" s="18"/>
+      <c r="I450" s="18"/>
+      <c r="J450" s="18"/>
+      <c r="K450" s="18"/>
+      <c r="L450" s="18"/>
+      <c r="M450" s="18"/>
+      <c r="N450" s="18"/>
+      <c r="O450" s="18"/>
+      <c r="P450" s="18"/>
+      <c r="Q450" s="18"/>
+      <c r="R450" s="18"/>
+      <c r="S450" s="18"/>
+      <c r="T450" s="18"/>
+      <c r="U450" s="18"/>
     </row>
     <row r="451" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D451" s="1" t="s">
@@ -9244,52 +9422,52 @@
       <c r="F452" s="15"/>
     </row>
     <row r="454" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B454" s="33" t="s">
+      <c r="B454" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="C454" s="21" t="s">
+      <c r="C454" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="D454" s="21"/>
-      <c r="E454" s="21"/>
-      <c r="F454" s="21"/>
-      <c r="G454" s="21"/>
-      <c r="H454" s="21"/>
-      <c r="I454" s="21"/>
-      <c r="J454" s="21"/>
-      <c r="K454" s="21"/>
-      <c r="L454" s="21"/>
-      <c r="M454" s="21"/>
-      <c r="N454" s="21"/>
-      <c r="O454" s="21"/>
-      <c r="P454" s="21"/>
-      <c r="Q454" s="21"/>
-      <c r="R454" s="21"/>
-      <c r="S454" s="21"/>
-      <c r="T454" s="21"/>
-      <c r="U454" s="21"/>
+      <c r="D454" s="20"/>
+      <c r="E454" s="20"/>
+      <c r="F454" s="20"/>
+      <c r="G454" s="20"/>
+      <c r="H454" s="20"/>
+      <c r="I454" s="20"/>
+      <c r="J454" s="20"/>
+      <c r="K454" s="20"/>
+      <c r="L454" s="20"/>
+      <c r="M454" s="20"/>
+      <c r="N454" s="20"/>
+      <c r="O454" s="20"/>
+      <c r="P454" s="20"/>
+      <c r="Q454" s="20"/>
+      <c r="R454" s="20"/>
+      <c r="S454" s="20"/>
+      <c r="T454" s="20"/>
+      <c r="U454" s="20"/>
     </row>
     <row r="455" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B455" s="33"/>
-      <c r="C455" s="21"/>
-      <c r="D455" s="21"/>
-      <c r="E455" s="21"/>
-      <c r="F455" s="21"/>
-      <c r="G455" s="21"/>
-      <c r="H455" s="21"/>
-      <c r="I455" s="21"/>
-      <c r="J455" s="21"/>
-      <c r="K455" s="21"/>
-      <c r="L455" s="21"/>
-      <c r="M455" s="21"/>
-      <c r="N455" s="21"/>
-      <c r="O455" s="21"/>
-      <c r="P455" s="21"/>
-      <c r="Q455" s="21"/>
-      <c r="R455" s="21"/>
-      <c r="S455" s="21"/>
-      <c r="T455" s="21"/>
-      <c r="U455" s="21"/>
+      <c r="B455" s="22"/>
+      <c r="C455" s="20"/>
+      <c r="D455" s="20"/>
+      <c r="E455" s="20"/>
+      <c r="F455" s="20"/>
+      <c r="G455" s="20"/>
+      <c r="H455" s="20"/>
+      <c r="I455" s="20"/>
+      <c r="J455" s="20"/>
+      <c r="K455" s="20"/>
+      <c r="L455" s="20"/>
+      <c r="M455" s="20"/>
+      <c r="N455" s="20"/>
+      <c r="O455" s="20"/>
+      <c r="P455" s="20"/>
+      <c r="Q455" s="20"/>
+      <c r="R455" s="20"/>
+      <c r="S455" s="20"/>
+      <c r="T455" s="20"/>
+      <c r="U455" s="20"/>
     </row>
     <row r="456" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D456" s="3" t="s">
@@ -9327,27 +9505,27 @@
       <c r="B461" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C461" s="18" t="s">
+      <c r="C461" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="D461" s="18"/>
-      <c r="E461" s="18"/>
-      <c r="F461" s="18"/>
-      <c r="G461" s="18"/>
-      <c r="H461" s="18"/>
-      <c r="I461" s="18"/>
-      <c r="J461" s="18"/>
-      <c r="K461" s="18"/>
-      <c r="L461" s="18"/>
-      <c r="M461" s="18"/>
-      <c r="N461" s="18"/>
-      <c r="O461" s="18"/>
-      <c r="P461" s="18"/>
-      <c r="Q461" s="18"/>
-      <c r="R461" s="18"/>
-      <c r="S461" s="18"/>
-      <c r="T461" s="18"/>
-      <c r="U461" s="18"/>
+      <c r="D461" s="19"/>
+      <c r="E461" s="19"/>
+      <c r="F461" s="19"/>
+      <c r="G461" s="19"/>
+      <c r="H461" s="19"/>
+      <c r="I461" s="19"/>
+      <c r="J461" s="19"/>
+      <c r="K461" s="19"/>
+      <c r="L461" s="19"/>
+      <c r="M461" s="19"/>
+      <c r="N461" s="19"/>
+      <c r="O461" s="19"/>
+      <c r="P461" s="19"/>
+      <c r="Q461" s="19"/>
+      <c r="R461" s="19"/>
+      <c r="S461" s="19"/>
+      <c r="T461" s="19"/>
+      <c r="U461" s="19"/>
     </row>
     <row r="462" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D462" s="1" t="s">
@@ -9389,27 +9567,27 @@
       <c r="B467" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C467" s="18" t="s">
+      <c r="C467" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="D467" s="18"/>
-      <c r="E467" s="18"/>
-      <c r="F467" s="18"/>
-      <c r="G467" s="18"/>
-      <c r="H467" s="18"/>
-      <c r="I467" s="18"/>
-      <c r="J467" s="18"/>
-      <c r="K467" s="18"/>
-      <c r="L467" s="18"/>
-      <c r="M467" s="18"/>
-      <c r="N467" s="18"/>
-      <c r="O467" s="18"/>
-      <c r="P467" s="18"/>
-      <c r="Q467" s="18"/>
-      <c r="R467" s="18"/>
-      <c r="S467" s="18"/>
-      <c r="T467" s="18"/>
-      <c r="U467" s="18"/>
+      <c r="D467" s="19"/>
+      <c r="E467" s="19"/>
+      <c r="F467" s="19"/>
+      <c r="G467" s="19"/>
+      <c r="H467" s="19"/>
+      <c r="I467" s="19"/>
+      <c r="J467" s="19"/>
+      <c r="K467" s="19"/>
+      <c r="L467" s="19"/>
+      <c r="M467" s="19"/>
+      <c r="N467" s="19"/>
+      <c r="O467" s="19"/>
+      <c r="P467" s="19"/>
+      <c r="Q467" s="19"/>
+      <c r="R467" s="19"/>
+      <c r="S467" s="19"/>
+      <c r="T467" s="19"/>
+      <c r="U467" s="19"/>
     </row>
     <row r="468" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D468" s="1" t="s">
@@ -9460,27 +9638,27 @@
       <c r="B474" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C474" s="18" t="s">
+      <c r="C474" s="19" t="s">
         <v>406</v>
       </c>
-      <c r="D474" s="18"/>
-      <c r="E474" s="18"/>
-      <c r="F474" s="18"/>
-      <c r="G474" s="18"/>
-      <c r="H474" s="18"/>
-      <c r="I474" s="18"/>
-      <c r="J474" s="18"/>
-      <c r="K474" s="18"/>
-      <c r="L474" s="18"/>
-      <c r="M474" s="18"/>
-      <c r="N474" s="18"/>
-      <c r="O474" s="18"/>
-      <c r="P474" s="18"/>
-      <c r="Q474" s="18"/>
-      <c r="R474" s="18"/>
-      <c r="S474" s="18"/>
-      <c r="T474" s="18"/>
-      <c r="U474" s="18"/>
+      <c r="D474" s="19"/>
+      <c r="E474" s="19"/>
+      <c r="F474" s="19"/>
+      <c r="G474" s="19"/>
+      <c r="H474" s="19"/>
+      <c r="I474" s="19"/>
+      <c r="J474" s="19"/>
+      <c r="K474" s="19"/>
+      <c r="L474" s="19"/>
+      <c r="M474" s="19"/>
+      <c r="N474" s="19"/>
+      <c r="O474" s="19"/>
+      <c r="P474" s="19"/>
+      <c r="Q474" s="19"/>
+      <c r="R474" s="19"/>
+      <c r="S474" s="19"/>
+      <c r="T474" s="19"/>
+      <c r="U474" s="19"/>
     </row>
     <row r="475" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D475" s="1" t="s">
@@ -9525,27 +9703,27 @@
       <c r="B479" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C479" s="18" t="s">
+      <c r="C479" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="D479" s="18"/>
-      <c r="E479" s="18"/>
-      <c r="F479" s="18"/>
-      <c r="G479" s="18"/>
-      <c r="H479" s="18"/>
-      <c r="I479" s="18"/>
-      <c r="J479" s="18"/>
-      <c r="K479" s="18"/>
-      <c r="L479" s="18"/>
-      <c r="M479" s="18"/>
-      <c r="N479" s="18"/>
-      <c r="O479" s="18"/>
-      <c r="P479" s="18"/>
-      <c r="Q479" s="18"/>
-      <c r="R479" s="18"/>
-      <c r="S479" s="18"/>
-      <c r="T479" s="18"/>
-      <c r="U479" s="18"/>
+      <c r="D479" s="19"/>
+      <c r="E479" s="19"/>
+      <c r="F479" s="19"/>
+      <c r="G479" s="19"/>
+      <c r="H479" s="19"/>
+      <c r="I479" s="19"/>
+      <c r="J479" s="19"/>
+      <c r="K479" s="19"/>
+      <c r="L479" s="19"/>
+      <c r="M479" s="19"/>
+      <c r="N479" s="19"/>
+      <c r="O479" s="19"/>
+      <c r="P479" s="19"/>
+      <c r="Q479" s="19"/>
+      <c r="R479" s="19"/>
+      <c r="S479" s="19"/>
+      <c r="T479" s="19"/>
+      <c r="U479" s="19"/>
     </row>
     <row r="480" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D480" s="1" t="s">
@@ -9573,7 +9751,7 @@
       <c r="D481" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E481" s="22" t="s">
+      <c r="E481" s="21" t="s">
         <v>412</v>
       </c>
       <c r="F481" s="16"/>
@@ -9619,27 +9797,27 @@
       <c r="B484" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C484" s="18" t="s">
+      <c r="C484" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="D484" s="18"/>
-      <c r="E484" s="18"/>
-      <c r="F484" s="18"/>
-      <c r="G484" s="18"/>
-      <c r="H484" s="18"/>
-      <c r="I484" s="18"/>
-      <c r="J484" s="18"/>
-      <c r="K484" s="18"/>
-      <c r="L484" s="18"/>
-      <c r="M484" s="18"/>
-      <c r="N484" s="18"/>
-      <c r="O484" s="18"/>
-      <c r="P484" s="18"/>
-      <c r="Q484" s="18"/>
-      <c r="R484" s="18"/>
-      <c r="S484" s="18"/>
-      <c r="T484" s="18"/>
-      <c r="U484" s="18"/>
+      <c r="D484" s="19"/>
+      <c r="E484" s="19"/>
+      <c r="F484" s="19"/>
+      <c r="G484" s="19"/>
+      <c r="H484" s="19"/>
+      <c r="I484" s="19"/>
+      <c r="J484" s="19"/>
+      <c r="K484" s="19"/>
+      <c r="L484" s="19"/>
+      <c r="M484" s="19"/>
+      <c r="N484" s="19"/>
+      <c r="O484" s="19"/>
+      <c r="P484" s="19"/>
+      <c r="Q484" s="19"/>
+      <c r="R484" s="19"/>
+      <c r="S484" s="19"/>
+      <c r="T484" s="19"/>
+      <c r="U484" s="19"/>
     </row>
     <row r="485" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D485" s="1" t="s">
@@ -9721,27 +9899,27 @@
       <c r="B490" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C490" s="21" t="s">
+      <c r="C490" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="D490" s="18"/>
-      <c r="E490" s="18"/>
-      <c r="F490" s="18"/>
-      <c r="G490" s="18"/>
-      <c r="H490" s="18"/>
-      <c r="I490" s="18"/>
-      <c r="J490" s="18"/>
-      <c r="K490" s="18"/>
-      <c r="L490" s="18"/>
-      <c r="M490" s="18"/>
-      <c r="N490" s="18"/>
-      <c r="O490" s="18"/>
-      <c r="P490" s="18"/>
-      <c r="Q490" s="18"/>
-      <c r="R490" s="18"/>
-      <c r="S490" s="18"/>
-      <c r="T490" s="18"/>
-      <c r="U490" s="18"/>
+      <c r="D490" s="19"/>
+      <c r="E490" s="19"/>
+      <c r="F490" s="19"/>
+      <c r="G490" s="19"/>
+      <c r="H490" s="19"/>
+      <c r="I490" s="19"/>
+      <c r="J490" s="19"/>
+      <c r="K490" s="19"/>
+      <c r="L490" s="19"/>
+      <c r="M490" s="19"/>
+      <c r="N490" s="19"/>
+      <c r="O490" s="19"/>
+      <c r="P490" s="19"/>
+      <c r="Q490" s="19"/>
+      <c r="R490" s="19"/>
+      <c r="S490" s="19"/>
+      <c r="T490" s="19"/>
+      <c r="U490" s="19"/>
     </row>
     <row r="491" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D491" s="1" t="s">
@@ -9770,18 +9948,18 @@
       <c r="I492" s="16"/>
       <c r="J492" s="16"/>
       <c r="K492" s="16"/>
-      <c r="L492" s="17" t="s">
+      <c r="L492" s="18" t="s">
         <v>425</v>
       </c>
-      <c r="M492" s="17"/>
-      <c r="N492" s="17"/>
-      <c r="O492" s="17"/>
-      <c r="P492" s="17"/>
-      <c r="Q492" s="17"/>
-      <c r="R492" s="17"/>
-      <c r="S492" s="17"/>
-      <c r="T492" s="17"/>
-      <c r="U492" s="17"/>
+      <c r="M492" s="18"/>
+      <c r="N492" s="18"/>
+      <c r="O492" s="18"/>
+      <c r="P492" s="18"/>
+      <c r="Q492" s="18"/>
+      <c r="R492" s="18"/>
+      <c r="S492" s="18"/>
+      <c r="T492" s="18"/>
+      <c r="U492" s="18"/>
     </row>
     <row r="493" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D493" s="1" t="s">
@@ -9815,27 +9993,27 @@
       <c r="B496" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C496" s="18" t="s">
+      <c r="C496" s="19" t="s">
         <v>427</v>
       </c>
-      <c r="D496" s="18"/>
-      <c r="E496" s="18"/>
-      <c r="F496" s="18"/>
-      <c r="G496" s="18"/>
-      <c r="H496" s="18"/>
-      <c r="I496" s="18"/>
-      <c r="J496" s="18"/>
-      <c r="K496" s="18"/>
-      <c r="L496" s="18"/>
-      <c r="M496" s="18"/>
-      <c r="N496" s="18"/>
-      <c r="O496" s="18"/>
-      <c r="P496" s="18"/>
-      <c r="Q496" s="18"/>
-      <c r="R496" s="18"/>
-      <c r="S496" s="18"/>
-      <c r="T496" s="18"/>
-      <c r="U496" s="18"/>
+      <c r="D496" s="19"/>
+      <c r="E496" s="19"/>
+      <c r="F496" s="19"/>
+      <c r="G496" s="19"/>
+      <c r="H496" s="19"/>
+      <c r="I496" s="19"/>
+      <c r="J496" s="19"/>
+      <c r="K496" s="19"/>
+      <c r="L496" s="19"/>
+      <c r="M496" s="19"/>
+      <c r="N496" s="19"/>
+      <c r="O496" s="19"/>
+      <c r="P496" s="19"/>
+      <c r="Q496" s="19"/>
+      <c r="R496" s="19"/>
+      <c r="S496" s="19"/>
+      <c r="T496" s="19"/>
+      <c r="U496" s="19"/>
     </row>
     <row r="497" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D497" s="1" t="s">
@@ -9871,27 +10049,27 @@
       <c r="B501" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C501" s="18" t="s">
+      <c r="C501" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="D501" s="18"/>
-      <c r="E501" s="18"/>
-      <c r="F501" s="18"/>
-      <c r="G501" s="18"/>
-      <c r="H501" s="18"/>
-      <c r="I501" s="18"/>
-      <c r="J501" s="18"/>
-      <c r="K501" s="18"/>
-      <c r="L501" s="18"/>
-      <c r="M501" s="18"/>
-      <c r="N501" s="18"/>
-      <c r="O501" s="18"/>
-      <c r="P501" s="18"/>
-      <c r="Q501" s="18"/>
-      <c r="R501" s="18"/>
-      <c r="S501" s="18"/>
-      <c r="T501" s="18"/>
-      <c r="U501" s="18"/>
+      <c r="D501" s="19"/>
+      <c r="E501" s="19"/>
+      <c r="F501" s="19"/>
+      <c r="G501" s="19"/>
+      <c r="H501" s="19"/>
+      <c r="I501" s="19"/>
+      <c r="J501" s="19"/>
+      <c r="K501" s="19"/>
+      <c r="L501" s="19"/>
+      <c r="M501" s="19"/>
+      <c r="N501" s="19"/>
+      <c r="O501" s="19"/>
+      <c r="P501" s="19"/>
+      <c r="Q501" s="19"/>
+      <c r="R501" s="19"/>
+      <c r="S501" s="19"/>
+      <c r="T501" s="19"/>
+      <c r="U501" s="19"/>
     </row>
     <row r="502" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D502" s="1" t="s">
@@ -9910,23 +10088,23 @@
         <v>429</v>
       </c>
       <c r="F503" s="16"/>
-      <c r="G503" s="17" t="s">
+      <c r="G503" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="H503" s="17"/>
-      <c r="I503" s="17"/>
-      <c r="J503" s="17"/>
-      <c r="K503" s="17"/>
-      <c r="L503" s="17"/>
-      <c r="M503" s="17"/>
-      <c r="N503" s="17"/>
-      <c r="O503" s="17"/>
-      <c r="P503" s="17"/>
-      <c r="Q503" s="17"/>
-      <c r="R503" s="17"/>
-      <c r="S503" s="17"/>
-      <c r="T503" s="17"/>
-      <c r="U503" s="17"/>
+      <c r="H503" s="18"/>
+      <c r="I503" s="18"/>
+      <c r="J503" s="18"/>
+      <c r="K503" s="18"/>
+      <c r="L503" s="18"/>
+      <c r="M503" s="18"/>
+      <c r="N503" s="18"/>
+      <c r="O503" s="18"/>
+      <c r="P503" s="18"/>
+      <c r="Q503" s="18"/>
+      <c r="R503" s="18"/>
+      <c r="S503" s="18"/>
+      <c r="T503" s="18"/>
+      <c r="U503" s="18"/>
     </row>
     <row r="504" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D504" s="1" t="s">
@@ -9950,27 +10128,27 @@
       <c r="B507" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C507" s="18" t="s">
+      <c r="C507" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="D507" s="18"/>
-      <c r="E507" s="18"/>
-      <c r="F507" s="18"/>
-      <c r="G507" s="18"/>
-      <c r="H507" s="18"/>
-      <c r="I507" s="18"/>
-      <c r="J507" s="18"/>
-      <c r="K507" s="18"/>
-      <c r="L507" s="18"/>
-      <c r="M507" s="18"/>
-      <c r="N507" s="18"/>
-      <c r="O507" s="18"/>
-      <c r="P507" s="18"/>
-      <c r="Q507" s="18"/>
-      <c r="R507" s="18"/>
-      <c r="S507" s="18"/>
-      <c r="T507" s="18"/>
-      <c r="U507" s="18"/>
+      <c r="D507" s="19"/>
+      <c r="E507" s="19"/>
+      <c r="F507" s="19"/>
+      <c r="G507" s="19"/>
+      <c r="H507" s="19"/>
+      <c r="I507" s="19"/>
+      <c r="J507" s="19"/>
+      <c r="K507" s="19"/>
+      <c r="L507" s="19"/>
+      <c r="M507" s="19"/>
+      <c r="N507" s="19"/>
+      <c r="O507" s="19"/>
+      <c r="P507" s="19"/>
+      <c r="Q507" s="19"/>
+      <c r="R507" s="19"/>
+      <c r="S507" s="19"/>
+      <c r="T507" s="19"/>
+      <c r="U507" s="19"/>
     </row>
     <row r="508" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D508" s="1" t="s">
@@ -10028,19 +10206,19 @@
       <c r="N510" s="16"/>
       <c r="O510" s="16"/>
       <c r="P510" s="16"/>
-      <c r="Q510" s="17" t="s">
+      <c r="Q510" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="R510" s="17"/>
-      <c r="S510" s="17"/>
-      <c r="T510" s="17"/>
-      <c r="U510" s="17"/>
+      <c r="R510" s="18"/>
+      <c r="S510" s="18"/>
+      <c r="T510" s="18"/>
+      <c r="U510" s="18"/>
     </row>
     <row r="511" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D511" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E511" s="19" t="s">
+      <c r="E511" s="17" t="s">
         <v>440</v>
       </c>
       <c r="F511" s="15"/>
@@ -10055,33 +10233,33 @@
       <c r="O511" s="15"/>
       <c r="P511" s="15"/>
     </row>
-    <row r="513" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B513" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C513" s="18" t="s">
+      <c r="C513" s="19" t="s">
         <v>443</v>
       </c>
-      <c r="D513" s="18"/>
-      <c r="E513" s="18"/>
-      <c r="F513" s="18"/>
-      <c r="G513" s="18"/>
-      <c r="H513" s="18"/>
-      <c r="I513" s="18"/>
-      <c r="J513" s="18"/>
-      <c r="K513" s="18"/>
-      <c r="L513" s="18"/>
-      <c r="M513" s="18"/>
-      <c r="N513" s="18"/>
-      <c r="O513" s="18"/>
-      <c r="P513" s="18"/>
-      <c r="Q513" s="18"/>
-      <c r="R513" s="18"/>
-      <c r="S513" s="18"/>
-      <c r="T513" s="18"/>
-      <c r="U513" s="18"/>
-    </row>
-    <row r="514" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D513" s="19"/>
+      <c r="E513" s="19"/>
+      <c r="F513" s="19"/>
+      <c r="G513" s="19"/>
+      <c r="H513" s="19"/>
+      <c r="I513" s="19"/>
+      <c r="J513" s="19"/>
+      <c r="K513" s="19"/>
+      <c r="L513" s="19"/>
+      <c r="M513" s="19"/>
+      <c r="N513" s="19"/>
+      <c r="O513" s="19"/>
+      <c r="P513" s="19"/>
+      <c r="Q513" s="19"/>
+      <c r="R513" s="19"/>
+      <c r="S513" s="19"/>
+      <c r="T513" s="19"/>
+      <c r="U513" s="19"/>
+    </row>
+    <row r="514" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D514" s="1" t="s">
         <v>3</v>
       </c>
@@ -10093,7 +10271,7 @@
       <c r="H514" s="15"/>
       <c r="I514" s="15"/>
     </row>
-    <row r="515" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D515" s="1" t="s">
         <v>4</v>
       </c>
@@ -10105,7 +10283,7 @@
       <c r="H515" s="15"/>
       <c r="I515" s="15"/>
     </row>
-    <row r="516" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D516" s="1" t="s">
         <v>5</v>
       </c>
@@ -10116,150 +10294,1319 @@
       <c r="G516" s="15"/>
       <c r="H516" s="15"/>
       <c r="I516" s="15"/>
-      <c r="J516" s="17" t="s">
+      <c r="J516" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="K516" s="18"/>
+      <c r="L516" s="18"/>
+      <c r="M516" s="18"/>
+      <c r="N516" s="18"/>
+      <c r="O516" s="18"/>
+      <c r="P516" s="18"/>
+      <c r="Q516" s="18"/>
+      <c r="R516" s="18"/>
+      <c r="S516" s="18"/>
+      <c r="T516" s="18"/>
+      <c r="U516" s="18"/>
+    </row>
+    <row r="518" spans="1:21" s="34" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A518" s="34" t="s">
         <v>445</v>
       </c>
-      <c r="K516" s="17"/>
-      <c r="L516" s="17"/>
-      <c r="M516" s="17"/>
-      <c r="N516" s="17"/>
-      <c r="O516" s="17"/>
-      <c r="P516" s="17"/>
-      <c r="Q516" s="17"/>
-      <c r="R516" s="17"/>
-      <c r="S516" s="17"/>
-      <c r="T516" s="17"/>
-      <c r="U516" s="17"/>
+    </row>
+    <row r="520" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B520" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C520" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="D520" s="19"/>
+      <c r="E520" s="19"/>
+      <c r="F520" s="19"/>
+      <c r="G520" s="19"/>
+      <c r="H520" s="19"/>
+      <c r="I520" s="19"/>
+      <c r="J520" s="19"/>
+      <c r="K520" s="19"/>
+      <c r="L520" s="19"/>
+      <c r="M520" s="19"/>
+      <c r="N520" s="19"/>
+      <c r="O520" s="19"/>
+      <c r="P520" s="19"/>
+      <c r="Q520" s="19"/>
+      <c r="R520" s="19"/>
+      <c r="S520" s="19"/>
+      <c r="T520" s="19"/>
+      <c r="U520" s="19"/>
+    </row>
+    <row r="521" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D521" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E521" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="F521" s="16"/>
+      <c r="G521" s="16"/>
+      <c r="H521" s="16"/>
+      <c r="I521" s="16"/>
+      <c r="J521" s="16"/>
+      <c r="K521" s="16"/>
+      <c r="L521" s="16"/>
+      <c r="M521" s="16"/>
+      <c r="N521" s="16"/>
+      <c r="O521" s="1"/>
+      <c r="P521" s="1"/>
+      <c r="Q521" s="1"/>
+      <c r="R521" s="1"/>
+      <c r="S521" s="1"/>
+      <c r="T521" s="1"/>
+      <c r="U521" s="1"/>
+    </row>
+    <row r="522" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D522" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E522" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="F522" s="15"/>
+      <c r="G522" s="15"/>
+      <c r="H522" s="15"/>
+      <c r="I522" s="15"/>
+      <c r="J522" s="15"/>
+      <c r="K522" s="15"/>
+      <c r="L522" s="15"/>
+      <c r="M522" s="15"/>
+      <c r="N522" s="15"/>
+      <c r="O522" s="1"/>
+      <c r="P522" s="1"/>
+      <c r="Q522" s="1"/>
+      <c r="R522" s="1"/>
+      <c r="S522" s="1"/>
+      <c r="T522" s="1"/>
+      <c r="U522" s="1"/>
+    </row>
+    <row r="523" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D523" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E523" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="F523" s="15"/>
+      <c r="G523" s="15"/>
+      <c r="H523" s="15"/>
+      <c r="I523" s="15"/>
+      <c r="J523" s="15"/>
+      <c r="K523" s="15"/>
+      <c r="L523" s="15"/>
+      <c r="M523" s="15"/>
+      <c r="N523" s="15"/>
+      <c r="O523" s="1"/>
+      <c r="P523" s="1"/>
+      <c r="Q523" s="1"/>
+      <c r="R523" s="1"/>
+      <c r="S523" s="1"/>
+      <c r="T523" s="1"/>
+      <c r="U523" s="1"/>
+    </row>
+    <row r="525" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B525" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C525" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="D525" s="19"/>
+      <c r="E525" s="19"/>
+      <c r="F525" s="19"/>
+      <c r="G525" s="19"/>
+      <c r="H525" s="19"/>
+      <c r="I525" s="19"/>
+      <c r="J525" s="19"/>
+      <c r="K525" s="19"/>
+      <c r="L525" s="19"/>
+      <c r="M525" s="19"/>
+      <c r="N525" s="19"/>
+      <c r="O525" s="19"/>
+      <c r="P525" s="19"/>
+      <c r="Q525" s="19"/>
+      <c r="R525" s="19"/>
+      <c r="S525" s="19"/>
+      <c r="T525" s="19"/>
+      <c r="U525" s="19"/>
+    </row>
+    <row r="526" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D526" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E526" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="F526" s="15"/>
+      <c r="G526" s="15"/>
+      <c r="H526" s="15"/>
+      <c r="I526" s="15"/>
+    </row>
+    <row r="527" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D527" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E527" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F527" s="15"/>
+      <c r="G527" s="15"/>
+      <c r="H527" s="15"/>
+      <c r="I527" s="15"/>
+    </row>
+    <row r="528" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D528" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E528" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="F528" s="16"/>
+      <c r="G528" s="16"/>
+      <c r="H528" s="16"/>
+      <c r="I528" s="16"/>
+    </row>
+    <row r="530" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B530" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C530" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D530" s="19"/>
+      <c r="E530" s="19"/>
+      <c r="F530" s="19"/>
+      <c r="G530" s="19"/>
+      <c r="H530" s="19"/>
+      <c r="I530" s="19"/>
+      <c r="J530" s="19"/>
+      <c r="K530" s="19"/>
+      <c r="L530" s="19"/>
+      <c r="M530" s="19"/>
+      <c r="N530" s="19"/>
+      <c r="O530" s="19"/>
+      <c r="P530" s="19"/>
+      <c r="Q530" s="19"/>
+      <c r="R530" s="19"/>
+      <c r="S530" s="19"/>
+      <c r="T530" s="19"/>
+      <c r="U530" s="19"/>
+    </row>
+    <row r="531" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D531" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E531" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="F531" s="15"/>
+      <c r="G531" s="15"/>
+      <c r="H531" s="15"/>
+      <c r="I531" s="15"/>
+      <c r="J531" s="15"/>
+      <c r="K531" s="15"/>
+      <c r="L531" s="15"/>
+      <c r="M531" s="15"/>
+      <c r="N531" s="15"/>
+      <c r="O531" s="15"/>
+      <c r="P531" s="15"/>
+      <c r="Q531" s="15"/>
+      <c r="R531" s="15"/>
+      <c r="S531" s="15"/>
+      <c r="T531" s="15"/>
+      <c r="U531" s="15"/>
+    </row>
+    <row r="532" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D532" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E532" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="F532" s="15"/>
+      <c r="G532" s="15"/>
+      <c r="H532" s="15"/>
+      <c r="I532" s="15"/>
+      <c r="J532" s="15"/>
+      <c r="K532" s="15"/>
+      <c r="L532" s="15"/>
+      <c r="M532" s="15"/>
+      <c r="N532" s="15"/>
+      <c r="O532" s="15"/>
+      <c r="P532" s="15"/>
+      <c r="Q532" s="15"/>
+      <c r="R532" s="15"/>
+      <c r="S532" s="15"/>
+      <c r="T532" s="15"/>
+      <c r="U532" s="15"/>
+    </row>
+    <row r="533" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D533" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E533" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="F533" s="16"/>
+      <c r="G533" s="16"/>
+      <c r="H533" s="16"/>
+      <c r="I533" s="16"/>
+      <c r="J533" s="16"/>
+      <c r="K533" s="16"/>
+      <c r="L533" s="16"/>
+      <c r="M533" s="16"/>
+      <c r="N533" s="16"/>
+      <c r="O533" s="16"/>
+      <c r="P533" s="16"/>
+      <c r="Q533" s="16"/>
+      <c r="R533" s="16"/>
+      <c r="S533" s="16"/>
+      <c r="T533" s="16"/>
+      <c r="U533" s="16"/>
+    </row>
+    <row r="535" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B535" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C535" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="D535" s="19"/>
+      <c r="E535" s="19"/>
+      <c r="F535" s="19"/>
+      <c r="G535" s="19"/>
+      <c r="H535" s="19"/>
+      <c r="I535" s="19"/>
+      <c r="J535" s="19"/>
+      <c r="K535" s="19"/>
+      <c r="L535" s="19"/>
+      <c r="M535" s="19"/>
+      <c r="N535" s="19"/>
+      <c r="O535" s="19"/>
+      <c r="P535" s="19"/>
+      <c r="Q535" s="19"/>
+      <c r="R535" s="19"/>
+      <c r="S535" s="19"/>
+      <c r="T535" s="19"/>
+      <c r="U535" s="19"/>
+    </row>
+    <row r="536" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D536" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E536" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="F536" s="15"/>
+    </row>
+    <row r="537" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D537" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E537" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="F537" s="15"/>
+    </row>
+    <row r="538" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D538" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E538" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="F538" s="15"/>
+    </row>
+    <row r="539" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D539" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E539" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="F539" s="16"/>
+      <c r="G539" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="H539" s="18"/>
+      <c r="I539" s="18"/>
+      <c r="J539" s="18"/>
+      <c r="K539" s="18"/>
+      <c r="L539" s="18"/>
+      <c r="M539" s="18"/>
+      <c r="N539" s="18"/>
+      <c r="O539" s="18"/>
+      <c r="P539" s="18"/>
+      <c r="Q539" s="18"/>
+      <c r="R539" s="18"/>
+      <c r="S539" s="18"/>
+      <c r="T539" s="18"/>
+      <c r="U539" s="18"/>
+    </row>
+    <row r="541" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B541" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C541" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="D541" s="19"/>
+      <c r="E541" s="19"/>
+      <c r="F541" s="19"/>
+      <c r="G541" s="19"/>
+      <c r="H541" s="19"/>
+      <c r="I541" s="19"/>
+      <c r="J541" s="19"/>
+      <c r="K541" s="19"/>
+      <c r="L541" s="19"/>
+      <c r="M541" s="19"/>
+      <c r="N541" s="19"/>
+      <c r="O541" s="19"/>
+      <c r="P541" s="19"/>
+      <c r="Q541" s="19"/>
+      <c r="R541" s="19"/>
+      <c r="S541" s="19"/>
+      <c r="T541" s="19"/>
+      <c r="U541" s="19"/>
+    </row>
+    <row r="542" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D542" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E542" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="F542" s="16"/>
+      <c r="G542" s="16"/>
+      <c r="H542" s="16"/>
+      <c r="I542" s="16"/>
+      <c r="J542" s="16"/>
+    </row>
+    <row r="543" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D543" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E543" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="F543" s="15"/>
+      <c r="G543" s="15"/>
+      <c r="H543" s="15"/>
+      <c r="I543" s="15"/>
+      <c r="J543" s="15"/>
+    </row>
+    <row r="544" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D544" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E544" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="F544" s="15"/>
+      <c r="G544" s="15"/>
+      <c r="H544" s="15"/>
+      <c r="I544" s="15"/>
+      <c r="J544" s="15"/>
+    </row>
+    <row r="546" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B546" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C546" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="D546" s="19"/>
+      <c r="E546" s="19"/>
+      <c r="F546" s="19"/>
+      <c r="G546" s="19"/>
+      <c r="H546" s="19"/>
+      <c r="I546" s="19"/>
+      <c r="J546" s="19"/>
+      <c r="K546" s="19"/>
+      <c r="L546" s="19"/>
+      <c r="M546" s="19"/>
+      <c r="N546" s="19"/>
+      <c r="O546" s="19"/>
+      <c r="P546" s="19"/>
+      <c r="Q546" s="19"/>
+      <c r="R546" s="19"/>
+      <c r="S546" s="19"/>
+      <c r="T546" s="19"/>
+      <c r="U546" s="19"/>
+    </row>
+    <row r="547" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D547" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E547" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="F547" s="15"/>
+      <c r="G547" s="15"/>
+      <c r="H547" s="15"/>
+      <c r="I547" s="15"/>
+      <c r="J547" s="15"/>
+      <c r="K547" s="15"/>
+    </row>
+    <row r="548" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D548" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E548" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="F548" s="15"/>
+      <c r="G548" s="15"/>
+      <c r="H548" s="15"/>
+      <c r="I548" s="15"/>
+      <c r="J548" s="15"/>
+      <c r="K548" s="15"/>
+    </row>
+    <row r="549" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D549" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E549" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="F549" s="15"/>
+      <c r="G549" s="15"/>
+      <c r="H549" s="15"/>
+      <c r="I549" s="15"/>
+      <c r="J549" s="15"/>
+      <c r="K549" s="15"/>
+    </row>
+    <row r="550" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D550" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E550" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="F550" s="16"/>
+      <c r="G550" s="16"/>
+      <c r="H550" s="16"/>
+      <c r="I550" s="16"/>
+      <c r="J550" s="16"/>
+      <c r="K550" s="16"/>
+    </row>
+    <row r="552" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B552" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C552" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="D552" s="19"/>
+      <c r="E552" s="19"/>
+      <c r="F552" s="19"/>
+      <c r="G552" s="19"/>
+      <c r="H552" s="19"/>
+      <c r="I552" s="19"/>
+      <c r="J552" s="19"/>
+      <c r="K552" s="19"/>
+      <c r="L552" s="19"/>
+      <c r="M552" s="19"/>
+      <c r="N552" s="19"/>
+      <c r="O552" s="19"/>
+      <c r="P552" s="19"/>
+      <c r="Q552" s="19"/>
+      <c r="R552" s="19"/>
+      <c r="S552" s="19"/>
+      <c r="T552" s="19"/>
+      <c r="U552" s="19"/>
+    </row>
+    <row r="553" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D553" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E553" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="F553" s="15"/>
+      <c r="G553" s="15"/>
+      <c r="H553" s="15"/>
+      <c r="I553" s="15"/>
+      <c r="J553" s="15"/>
+      <c r="K553" s="15"/>
+      <c r="L553" s="15"/>
+      <c r="M553" s="15"/>
+      <c r="N553" s="15"/>
+      <c r="O553" s="15"/>
+      <c r="P553" s="15"/>
+      <c r="Q553" s="15"/>
+      <c r="R553" s="15"/>
+      <c r="S553" s="15"/>
+    </row>
+    <row r="554" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D554" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E554" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="F554" s="15"/>
+      <c r="G554" s="15"/>
+      <c r="H554" s="15"/>
+      <c r="I554" s="15"/>
+      <c r="J554" s="15"/>
+      <c r="K554" s="15"/>
+      <c r="L554" s="15"/>
+      <c r="M554" s="15"/>
+      <c r="N554" s="15"/>
+      <c r="O554" s="15"/>
+      <c r="P554" s="15"/>
+      <c r="Q554" s="15"/>
+      <c r="R554" s="15"/>
+      <c r="S554" s="15"/>
+    </row>
+    <row r="555" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D555" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E555" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="F555" s="16"/>
+      <c r="G555" s="16"/>
+      <c r="H555" s="16"/>
+      <c r="I555" s="16"/>
+      <c r="J555" s="16"/>
+      <c r="K555" s="16"/>
+      <c r="L555" s="16"/>
+      <c r="M555" s="16"/>
+      <c r="N555" s="16"/>
+      <c r="O555" s="16"/>
+      <c r="P555" s="16"/>
+      <c r="Q555" s="16"/>
+      <c r="R555" s="16"/>
+      <c r="S555" s="16"/>
+    </row>
+    <row r="557" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B557" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C557" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="D557" s="20"/>
+      <c r="E557" s="20"/>
+      <c r="F557" s="20"/>
+      <c r="G557" s="20"/>
+      <c r="H557" s="20"/>
+      <c r="I557" s="20"/>
+      <c r="J557" s="20"/>
+      <c r="K557" s="20"/>
+      <c r="L557" s="20"/>
+      <c r="M557" s="20"/>
+      <c r="N557" s="20"/>
+      <c r="O557" s="20"/>
+      <c r="P557" s="20"/>
+      <c r="Q557" s="20"/>
+      <c r="R557" s="20"/>
+      <c r="S557" s="20"/>
+      <c r="T557" s="20"/>
+      <c r="U557" s="20"/>
+    </row>
+    <row r="558" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C558" s="20"/>
+      <c r="D558" s="20"/>
+      <c r="E558" s="20"/>
+      <c r="F558" s="20"/>
+      <c r="G558" s="20"/>
+      <c r="H558" s="20"/>
+      <c r="I558" s="20"/>
+      <c r="J558" s="20"/>
+      <c r="K558" s="20"/>
+      <c r="L558" s="20"/>
+      <c r="M558" s="20"/>
+      <c r="N558" s="20"/>
+      <c r="O558" s="20"/>
+      <c r="P558" s="20"/>
+      <c r="Q558" s="20"/>
+      <c r="R558" s="20"/>
+      <c r="S558" s="20"/>
+      <c r="T558" s="20"/>
+      <c r="U558" s="20"/>
+    </row>
+    <row r="559" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C559" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="D559" s="19"/>
+      <c r="E559" s="19"/>
+      <c r="F559" s="19"/>
+      <c r="G559" s="19"/>
+      <c r="H559" s="19"/>
+      <c r="I559" s="19"/>
+      <c r="J559" s="19"/>
+      <c r="K559" s="19"/>
+      <c r="L559" s="19"/>
+      <c r="M559" s="19"/>
+      <c r="N559" s="19"/>
+      <c r="O559" s="19"/>
+      <c r="P559" s="19"/>
+      <c r="Q559" s="19"/>
+      <c r="R559" s="19"/>
+      <c r="S559" s="19"/>
+      <c r="T559" s="19"/>
+      <c r="U559" s="19"/>
+    </row>
+    <row r="560" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C560" s="19"/>
+      <c r="D560" s="19"/>
+      <c r="E560" s="19"/>
+      <c r="F560" s="19"/>
+      <c r="G560" s="19"/>
+      <c r="H560" s="19"/>
+      <c r="I560" s="19"/>
+      <c r="J560" s="19"/>
+      <c r="K560" s="19"/>
+      <c r="L560" s="19"/>
+      <c r="M560" s="19"/>
+      <c r="N560" s="19"/>
+      <c r="O560" s="19"/>
+      <c r="P560" s="19"/>
+      <c r="Q560" s="19"/>
+      <c r="R560" s="19"/>
+      <c r="S560" s="19"/>
+      <c r="T560" s="19"/>
+      <c r="U560" s="19"/>
+    </row>
+    <row r="561" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D561" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E561" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="F561" s="15"/>
+      <c r="G561" s="15"/>
+      <c r="H561" s="15"/>
+      <c r="I561" s="15"/>
+      <c r="J561" s="15"/>
+      <c r="K561" s="15"/>
+      <c r="L561" s="15"/>
+      <c r="M561" s="15"/>
+      <c r="N561" s="15"/>
+      <c r="O561" s="15"/>
+      <c r="P561" s="15"/>
+    </row>
+    <row r="562" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D562" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E562" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="F562" s="16"/>
+      <c r="G562" s="16"/>
+      <c r="H562" s="16"/>
+      <c r="I562" s="16"/>
+      <c r="J562" s="16"/>
+      <c r="K562" s="16"/>
+      <c r="L562" s="16"/>
+      <c r="M562" s="16"/>
+      <c r="N562" s="16"/>
+      <c r="O562" s="16"/>
+      <c r="P562" s="16"/>
+      <c r="Q562" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="R562" s="18"/>
+      <c r="S562" s="18"/>
+      <c r="T562" s="18"/>
+      <c r="U562" s="18"/>
+    </row>
+    <row r="563" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D563" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E563" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="F563" s="15"/>
+      <c r="G563" s="15"/>
+      <c r="H563" s="15"/>
+      <c r="I563" s="15"/>
+      <c r="J563" s="15"/>
+      <c r="K563" s="15"/>
+      <c r="L563" s="15"/>
+      <c r="M563" s="15"/>
+      <c r="N563" s="15"/>
+      <c r="O563" s="15"/>
+      <c r="P563" s="15"/>
+    </row>
+    <row r="565" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B565" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C565" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="D565" s="19"/>
+      <c r="E565" s="19"/>
+      <c r="F565" s="19"/>
+      <c r="G565" s="19"/>
+      <c r="H565" s="19"/>
+      <c r="I565" s="19"/>
+      <c r="J565" s="19"/>
+      <c r="K565" s="19"/>
+      <c r="L565" s="19"/>
+      <c r="M565" s="19"/>
+      <c r="N565" s="19"/>
+      <c r="O565" s="19"/>
+      <c r="P565" s="19"/>
+      <c r="Q565" s="19"/>
+      <c r="R565" s="19"/>
+      <c r="S565" s="19"/>
+      <c r="T565" s="19"/>
+      <c r="U565" s="19"/>
+    </row>
+    <row r="566" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D566" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E566" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="F566" s="16"/>
+      <c r="G566" s="16"/>
+      <c r="H566" s="16"/>
+      <c r="I566" s="16"/>
+      <c r="J566" s="16"/>
+      <c r="K566" s="16"/>
+      <c r="L566" s="16"/>
+      <c r="M566" s="16"/>
+      <c r="N566" s="16"/>
+      <c r="O566" s="16"/>
+      <c r="P566" s="16"/>
+      <c r="Q566" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="R566" s="18"/>
+      <c r="S566" s="18"/>
+      <c r="T566" s="18"/>
+      <c r="U566" s="18"/>
+    </row>
+    <row r="567" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D567" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E567" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="F567" s="15"/>
+      <c r="G567" s="15"/>
+      <c r="H567" s="15"/>
+      <c r="I567" s="15"/>
+      <c r="J567" s="15"/>
+      <c r="K567" s="15"/>
+      <c r="L567" s="15"/>
+      <c r="M567" s="15"/>
+      <c r="N567" s="15"/>
+      <c r="O567" s="15"/>
+      <c r="P567" s="15"/>
+    </row>
+    <row r="568" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D568" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E568" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="F568" s="15"/>
+      <c r="G568" s="15"/>
+      <c r="H568" s="15"/>
+      <c r="I568" s="15"/>
+      <c r="J568" s="15"/>
+      <c r="K568" s="15"/>
+      <c r="L568" s="15"/>
+      <c r="M568" s="15"/>
+      <c r="N568" s="15"/>
+      <c r="O568" s="15"/>
+      <c r="P568" s="15"/>
+    </row>
+    <row r="569" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D569" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E569" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="F569" s="15"/>
+      <c r="G569" s="15"/>
+      <c r="H569" s="15"/>
+      <c r="I569" s="15"/>
+      <c r="J569" s="15"/>
+      <c r="K569" s="15"/>
+      <c r="L569" s="15"/>
+      <c r="M569" s="15"/>
+      <c r="N569" s="15"/>
+      <c r="O569" s="15"/>
+      <c r="P569" s="15"/>
+    </row>
+    <row r="571" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B571" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C571" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="D571" s="19"/>
+      <c r="E571" s="19"/>
+      <c r="F571" s="19"/>
+      <c r="G571" s="19"/>
+      <c r="H571" s="19"/>
+      <c r="I571" s="19"/>
+      <c r="J571" s="19"/>
+      <c r="K571" s="19"/>
+      <c r="L571" s="19"/>
+      <c r="M571" s="19"/>
+      <c r="N571" s="19"/>
+      <c r="O571" s="19"/>
+      <c r="P571" s="19"/>
+      <c r="Q571" s="19"/>
+      <c r="R571" s="19"/>
+      <c r="S571" s="19"/>
+      <c r="T571" s="19"/>
+      <c r="U571" s="19"/>
+    </row>
+    <row r="572" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D572" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E572" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="F572" s="15"/>
+      <c r="G572" s="15"/>
+      <c r="H572" s="15"/>
+      <c r="I572" s="15"/>
+      <c r="J572" s="15"/>
+      <c r="K572" s="15"/>
+      <c r="L572" s="15"/>
+      <c r="M572" s="15"/>
+      <c r="N572" s="15"/>
+      <c r="O572" s="15"/>
+      <c r="P572" s="15"/>
+    </row>
+    <row r="573" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D573" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E573" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="F573" s="15"/>
+      <c r="G573" s="15"/>
+      <c r="H573" s="15"/>
+      <c r="I573" s="15"/>
+      <c r="J573" s="15"/>
+      <c r="K573" s="15"/>
+      <c r="L573" s="15"/>
+      <c r="M573" s="15"/>
+      <c r="N573" s="15"/>
+      <c r="O573" s="15"/>
+      <c r="P573" s="15"/>
+    </row>
+    <row r="574" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D574" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E574" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="F574" s="16"/>
+      <c r="G574" s="16"/>
+      <c r="H574" s="16"/>
+      <c r="I574" s="16"/>
+      <c r="J574" s="16"/>
+      <c r="K574" s="16"/>
+      <c r="L574" s="16"/>
+      <c r="M574" s="16"/>
+      <c r="N574" s="16"/>
+      <c r="O574" s="16"/>
+      <c r="P574" s="16"/>
+      <c r="Q574" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="R574" s="18"/>
+      <c r="S574" s="18"/>
+      <c r="T574" s="18"/>
+      <c r="U574" s="18"/>
+    </row>
+    <row r="575" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D575" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E575" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="F575" s="15"/>
+      <c r="G575" s="15"/>
+      <c r="H575" s="15"/>
+      <c r="I575" s="15"/>
+      <c r="J575" s="15"/>
+      <c r="K575" s="15"/>
+      <c r="L575" s="15"/>
+      <c r="M575" s="15"/>
+      <c r="N575" s="15"/>
+      <c r="O575" s="15"/>
+      <c r="P575" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="443">
-    <mergeCell ref="E508:P508"/>
-    <mergeCell ref="E509:P509"/>
-    <mergeCell ref="E510:P510"/>
-    <mergeCell ref="E511:P511"/>
-    <mergeCell ref="Q510:U510"/>
-    <mergeCell ref="C513:U513"/>
-    <mergeCell ref="E514:I514"/>
-    <mergeCell ref="E515:I515"/>
-    <mergeCell ref="E516:I516"/>
-    <mergeCell ref="J516:U516"/>
-    <mergeCell ref="E498:G498"/>
-    <mergeCell ref="E499:G499"/>
-    <mergeCell ref="C501:U501"/>
-    <mergeCell ref="E502:F502"/>
-    <mergeCell ref="E503:F503"/>
-    <mergeCell ref="E504:F504"/>
-    <mergeCell ref="E505:F505"/>
-    <mergeCell ref="G503:U503"/>
-    <mergeCell ref="C507:U507"/>
-    <mergeCell ref="E488:P488"/>
-    <mergeCell ref="C490:U490"/>
-    <mergeCell ref="E491:K491"/>
-    <mergeCell ref="E492:K492"/>
-    <mergeCell ref="E493:K493"/>
-    <mergeCell ref="E494:K494"/>
-    <mergeCell ref="L492:U492"/>
-    <mergeCell ref="C496:U496"/>
-    <mergeCell ref="E497:G497"/>
-    <mergeCell ref="E482:S482"/>
-    <mergeCell ref="E481:S481"/>
-    <mergeCell ref="E480:S480"/>
-    <mergeCell ref="C484:U484"/>
-    <mergeCell ref="E485:P485"/>
-    <mergeCell ref="E486:P486"/>
-    <mergeCell ref="E487:P487"/>
-    <mergeCell ref="E469:F469"/>
-    <mergeCell ref="E470:F470"/>
-    <mergeCell ref="E471:F471"/>
-    <mergeCell ref="E472:F472"/>
-    <mergeCell ref="C474:U474"/>
-    <mergeCell ref="E475:J475"/>
-    <mergeCell ref="E476:J476"/>
-    <mergeCell ref="E477:J477"/>
-    <mergeCell ref="C479:U479"/>
-    <mergeCell ref="B454:B455"/>
-    <mergeCell ref="C454:U455"/>
-    <mergeCell ref="C461:U461"/>
-    <mergeCell ref="E462:F462"/>
-    <mergeCell ref="E463:F463"/>
-    <mergeCell ref="E464:F464"/>
-    <mergeCell ref="E465:F465"/>
-    <mergeCell ref="C467:U467"/>
-    <mergeCell ref="E468:F468"/>
-    <mergeCell ref="E377:H377"/>
-    <mergeCell ref="E378:H378"/>
-    <mergeCell ref="E379:H379"/>
-    <mergeCell ref="C366:U366"/>
-    <mergeCell ref="E367:F367"/>
-    <mergeCell ref="E368:F368"/>
-    <mergeCell ref="E369:F369"/>
-    <mergeCell ref="E370:F370"/>
-    <mergeCell ref="A372:XFD372"/>
-    <mergeCell ref="C374:U374"/>
-    <mergeCell ref="E375:H375"/>
-    <mergeCell ref="E376:H376"/>
-    <mergeCell ref="I376:U376"/>
-    <mergeCell ref="D356:D357"/>
-    <mergeCell ref="E356:P357"/>
-    <mergeCell ref="E358:P358"/>
-    <mergeCell ref="Q356:U357"/>
-    <mergeCell ref="C360:U360"/>
-    <mergeCell ref="E361:F361"/>
-    <mergeCell ref="E362:F362"/>
-    <mergeCell ref="E363:F363"/>
-    <mergeCell ref="E364:F364"/>
-    <mergeCell ref="C348:U348"/>
-    <mergeCell ref="D350:D351"/>
-    <mergeCell ref="E350:P351"/>
-    <mergeCell ref="E349:P349"/>
-    <mergeCell ref="Q345:U346"/>
-    <mergeCell ref="Q350:U351"/>
-    <mergeCell ref="C353:U353"/>
-    <mergeCell ref="E354:P355"/>
-    <mergeCell ref="D354:D355"/>
-    <mergeCell ref="C340:U341"/>
-    <mergeCell ref="E342:P342"/>
-    <mergeCell ref="D343:D344"/>
-    <mergeCell ref="E343:P344"/>
-    <mergeCell ref="D345:D346"/>
-    <mergeCell ref="E345:P346"/>
-    <mergeCell ref="E333:P333"/>
-    <mergeCell ref="E332:P332"/>
-    <mergeCell ref="E331:P331"/>
-    <mergeCell ref="E330:P330"/>
-    <mergeCell ref="C335:U335"/>
-    <mergeCell ref="E338:P338"/>
-    <mergeCell ref="E337:P337"/>
-    <mergeCell ref="E336:P336"/>
-    <mergeCell ref="Q336:U336"/>
-    <mergeCell ref="C319:U319"/>
-    <mergeCell ref="E322:P322"/>
-    <mergeCell ref="E321:P321"/>
-    <mergeCell ref="E320:P320"/>
-    <mergeCell ref="C324:U324"/>
-    <mergeCell ref="E325:P325"/>
-    <mergeCell ref="E326:P326"/>
-    <mergeCell ref="E327:P327"/>
-    <mergeCell ref="C329:U329"/>
-    <mergeCell ref="D311:D312"/>
-    <mergeCell ref="E307:Q308"/>
-    <mergeCell ref="E309:Q310"/>
-    <mergeCell ref="E311:Q312"/>
-    <mergeCell ref="R307:U308"/>
-    <mergeCell ref="C314:U314"/>
-    <mergeCell ref="D315:D316"/>
-    <mergeCell ref="E315:R316"/>
-    <mergeCell ref="E317:R317"/>
-    <mergeCell ref="S315:U316"/>
-    <mergeCell ref="D301:D302"/>
-    <mergeCell ref="D303:D304"/>
-    <mergeCell ref="E299:Q300"/>
-    <mergeCell ref="E301:Q302"/>
-    <mergeCell ref="E303:Q304"/>
-    <mergeCell ref="R299:U300"/>
-    <mergeCell ref="C306:U306"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="D309:D310"/>
+  <mergeCells count="493">
+    <mergeCell ref="E569:P569"/>
+    <mergeCell ref="Q566:U566"/>
+    <mergeCell ref="C571:U571"/>
+    <mergeCell ref="E572:P572"/>
+    <mergeCell ref="E573:P573"/>
+    <mergeCell ref="E574:P574"/>
+    <mergeCell ref="E575:P575"/>
+    <mergeCell ref="Q574:U574"/>
+    <mergeCell ref="C559:U560"/>
+    <mergeCell ref="E562:P562"/>
+    <mergeCell ref="E561:P561"/>
+    <mergeCell ref="E563:P563"/>
+    <mergeCell ref="Q562:U562"/>
+    <mergeCell ref="C565:U565"/>
+    <mergeCell ref="E566:P566"/>
+    <mergeCell ref="E567:P567"/>
+    <mergeCell ref="E568:P568"/>
+    <mergeCell ref="E547:K547"/>
+    <mergeCell ref="E548:K548"/>
+    <mergeCell ref="E549:K549"/>
+    <mergeCell ref="E550:K550"/>
+    <mergeCell ref="C552:U552"/>
+    <mergeCell ref="E553:S553"/>
+    <mergeCell ref="E554:S554"/>
+    <mergeCell ref="E555:S555"/>
+    <mergeCell ref="C557:U558"/>
+    <mergeCell ref="E537:F537"/>
+    <mergeCell ref="E538:F538"/>
+    <mergeCell ref="E539:F539"/>
+    <mergeCell ref="G539:U539"/>
+    <mergeCell ref="C541:U541"/>
+    <mergeCell ref="E542:J542"/>
+    <mergeCell ref="E543:J543"/>
+    <mergeCell ref="E544:J544"/>
+    <mergeCell ref="C546:U546"/>
+    <mergeCell ref="E526:I526"/>
+    <mergeCell ref="E527:I527"/>
+    <mergeCell ref="E528:I528"/>
+    <mergeCell ref="C530:U530"/>
+    <mergeCell ref="E531:U531"/>
+    <mergeCell ref="E532:U532"/>
+    <mergeCell ref="E533:U533"/>
+    <mergeCell ref="C535:U535"/>
+    <mergeCell ref="E536:F536"/>
+    <mergeCell ref="A518:XFD518"/>
+    <mergeCell ref="C520:U520"/>
+    <mergeCell ref="E521:N521"/>
+    <mergeCell ref="E522:N522"/>
+    <mergeCell ref="E523:N523"/>
+    <mergeCell ref="C525:U525"/>
+    <mergeCell ref="E449:F449"/>
+    <mergeCell ref="E450:F450"/>
+    <mergeCell ref="E451:F451"/>
+    <mergeCell ref="E452:F452"/>
+    <mergeCell ref="G450:U450"/>
+    <mergeCell ref="C439:U439"/>
+    <mergeCell ref="E440:U440"/>
+    <mergeCell ref="E441:U441"/>
+    <mergeCell ref="E442:U442"/>
+    <mergeCell ref="E443:U443"/>
+    <mergeCell ref="E444:U444"/>
+    <mergeCell ref="E445:U445"/>
+    <mergeCell ref="C447:U447"/>
+    <mergeCell ref="E448:F448"/>
+    <mergeCell ref="E429:G429"/>
+    <mergeCell ref="E430:G430"/>
+    <mergeCell ref="E431:G431"/>
+    <mergeCell ref="H430:U430"/>
+    <mergeCell ref="C433:U433"/>
+    <mergeCell ref="E434:J434"/>
+    <mergeCell ref="E435:J435"/>
+    <mergeCell ref="E436:J436"/>
+    <mergeCell ref="E437:J437"/>
+    <mergeCell ref="E419:I419"/>
+    <mergeCell ref="E420:I420"/>
+    <mergeCell ref="E421:I421"/>
+    <mergeCell ref="E422:I422"/>
+    <mergeCell ref="E423:I423"/>
+    <mergeCell ref="C425:U425"/>
+    <mergeCell ref="E426:G426"/>
+    <mergeCell ref="E427:G427"/>
+    <mergeCell ref="E428:G428"/>
+    <mergeCell ref="J419:U419"/>
+    <mergeCell ref="C410:U410"/>
+    <mergeCell ref="E411:M411"/>
+    <mergeCell ref="E412:M412"/>
+    <mergeCell ref="E413:M413"/>
+    <mergeCell ref="E414:M414"/>
+    <mergeCell ref="E415:M415"/>
+    <mergeCell ref="E416:M416"/>
+    <mergeCell ref="N414:U414"/>
+    <mergeCell ref="C418:U418"/>
+    <mergeCell ref="E399:T399"/>
+    <mergeCell ref="E400:T400"/>
+    <mergeCell ref="C402:U402"/>
+    <mergeCell ref="E403:M403"/>
+    <mergeCell ref="E404:M404"/>
+    <mergeCell ref="E405:M405"/>
+    <mergeCell ref="E406:M406"/>
+    <mergeCell ref="E407:M407"/>
+    <mergeCell ref="E408:M408"/>
+    <mergeCell ref="N407:U407"/>
+    <mergeCell ref="C392:U392"/>
+    <mergeCell ref="E393:Q393"/>
+    <mergeCell ref="E394:Q394"/>
+    <mergeCell ref="E395:Q395"/>
+    <mergeCell ref="R394:U394"/>
+    <mergeCell ref="C397:U397"/>
+    <mergeCell ref="E398:T398"/>
+    <mergeCell ref="C381:U381"/>
+    <mergeCell ref="E382:F382"/>
+    <mergeCell ref="E383:F383"/>
+    <mergeCell ref="E384:F384"/>
+    <mergeCell ref="G382:U382"/>
+    <mergeCell ref="C386:U386"/>
+    <mergeCell ref="E389:M389"/>
+    <mergeCell ref="E390:M390"/>
+    <mergeCell ref="E388:M388"/>
+    <mergeCell ref="E387:M387"/>
+    <mergeCell ref="N388:U388"/>
+    <mergeCell ref="C284:U285"/>
+    <mergeCell ref="E286:U286"/>
+    <mergeCell ref="E288:U288"/>
+    <mergeCell ref="D286:D287"/>
+    <mergeCell ref="E287:U287"/>
+    <mergeCell ref="C271:U272"/>
+    <mergeCell ref="F277:U277"/>
+    <mergeCell ref="C279:U279"/>
+    <mergeCell ref="E280:U280"/>
+    <mergeCell ref="E282:U282"/>
+    <mergeCell ref="E281:L281"/>
+    <mergeCell ref="M281:U281"/>
+    <mergeCell ref="C260:U260"/>
+    <mergeCell ref="E261:U261"/>
+    <mergeCell ref="E264:U264"/>
+    <mergeCell ref="E262:U263"/>
+    <mergeCell ref="C266:U266"/>
+    <mergeCell ref="E269:N269"/>
+    <mergeCell ref="E268:G268"/>
+    <mergeCell ref="E267:G267"/>
+    <mergeCell ref="E251:I251"/>
+    <mergeCell ref="E252:I252"/>
+    <mergeCell ref="C254:U254"/>
+    <mergeCell ref="E255:U255"/>
+    <mergeCell ref="E256:U256"/>
+    <mergeCell ref="E257:U257"/>
+    <mergeCell ref="E258:U258"/>
+    <mergeCell ref="E241:K241"/>
+    <mergeCell ref="E242:K242"/>
+    <mergeCell ref="L242:U242"/>
+    <mergeCell ref="C244:U244"/>
+    <mergeCell ref="E245:I245"/>
+    <mergeCell ref="E246:I246"/>
+    <mergeCell ref="E247:I247"/>
+    <mergeCell ref="C249:U249"/>
+    <mergeCell ref="E250:I250"/>
+    <mergeCell ref="C234:U234"/>
+    <mergeCell ref="E235:K235"/>
+    <mergeCell ref="E236:K236"/>
+    <mergeCell ref="E237:K237"/>
+    <mergeCell ref="L236:U236"/>
+    <mergeCell ref="C239:U239"/>
+    <mergeCell ref="E240:K240"/>
+    <mergeCell ref="E224:I224"/>
+    <mergeCell ref="E225:I225"/>
+    <mergeCell ref="E226:I226"/>
+    <mergeCell ref="E227:I227"/>
+    <mergeCell ref="J227:U227"/>
+    <mergeCell ref="C229:U229"/>
+    <mergeCell ref="E230:I230"/>
+    <mergeCell ref="E231:I231"/>
+    <mergeCell ref="E232:I232"/>
+    <mergeCell ref="C209:U209"/>
+    <mergeCell ref="C213:U213"/>
+    <mergeCell ref="C217:U217"/>
+    <mergeCell ref="E218:I218"/>
+    <mergeCell ref="E219:I219"/>
+    <mergeCell ref="E220:I220"/>
+    <mergeCell ref="E221:I221"/>
+    <mergeCell ref="C223:U223"/>
+    <mergeCell ref="J219:U219"/>
+    <mergeCell ref="F214:U214"/>
+    <mergeCell ref="E191:G191"/>
+    <mergeCell ref="C193:U193"/>
+    <mergeCell ref="C199:U199"/>
+    <mergeCell ref="E200:H200"/>
+    <mergeCell ref="E201:H201"/>
+    <mergeCell ref="E202:H202"/>
+    <mergeCell ref="C204:U204"/>
+    <mergeCell ref="E207:F207"/>
+    <mergeCell ref="E205:F205"/>
+    <mergeCell ref="E206:F206"/>
+    <mergeCell ref="E182:H182"/>
+    <mergeCell ref="E183:H183"/>
+    <mergeCell ref="E184:H184"/>
+    <mergeCell ref="I183:U183"/>
+    <mergeCell ref="C186:U186"/>
+    <mergeCell ref="E187:G187"/>
+    <mergeCell ref="E188:G188"/>
+    <mergeCell ref="E189:G189"/>
+    <mergeCell ref="E190:G190"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="D176:D177"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="E174:U175"/>
+    <mergeCell ref="E176:U177"/>
+    <mergeCell ref="E178:U179"/>
+    <mergeCell ref="L168:U168"/>
+    <mergeCell ref="C181:U181"/>
+    <mergeCell ref="E70:U70"/>
+    <mergeCell ref="E71:U71"/>
+    <mergeCell ref="C62:T62"/>
+    <mergeCell ref="E63:J63"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="K63:U63"/>
+    <mergeCell ref="C67:U67"/>
+    <mergeCell ref="C151:U151"/>
+    <mergeCell ref="E83:M83"/>
+    <mergeCell ref="C85:U85"/>
+    <mergeCell ref="E86:N86"/>
+    <mergeCell ref="E87:N87"/>
+    <mergeCell ref="E88:N88"/>
+    <mergeCell ref="E77:M77"/>
+    <mergeCell ref="C79:U79"/>
+    <mergeCell ref="E80:M80"/>
+    <mergeCell ref="E81:M81"/>
+    <mergeCell ref="E82:M82"/>
+    <mergeCell ref="C96:U96"/>
+    <mergeCell ref="E97:I97"/>
+    <mergeCell ref="E98:I98"/>
+    <mergeCell ref="E99:I99"/>
+    <mergeCell ref="C101:U101"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="C56:T56"/>
+    <mergeCell ref="E68:U68"/>
+    <mergeCell ref="E69:U69"/>
+    <mergeCell ref="C44:O44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H46:U46"/>
+    <mergeCell ref="C50:T50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="C33:O33"/>
+    <mergeCell ref="E24:U24"/>
+    <mergeCell ref="E25:U25"/>
+    <mergeCell ref="E26:U26"/>
+    <mergeCell ref="C28:O28"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E30:K30"/>
+    <mergeCell ref="L30:U30"/>
+    <mergeCell ref="H41:U41"/>
+    <mergeCell ref="E35:U35"/>
+    <mergeCell ref="E36:U36"/>
+    <mergeCell ref="E34:K34"/>
+    <mergeCell ref="L34:U34"/>
+    <mergeCell ref="C38:O38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E31:U31"/>
+    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="C73:U73"/>
+    <mergeCell ref="E74:M74"/>
+    <mergeCell ref="E75:M75"/>
+    <mergeCell ref="E76:M76"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="C5:O5"/>
+    <mergeCell ref="E6:U6"/>
+    <mergeCell ref="E7:U7"/>
+    <mergeCell ref="E8:U8"/>
+    <mergeCell ref="C23:O23"/>
+    <mergeCell ref="E11:U11"/>
+    <mergeCell ref="E12:U12"/>
+    <mergeCell ref="E13:U13"/>
+    <mergeCell ref="E15:U15"/>
+    <mergeCell ref="E14:K14"/>
+    <mergeCell ref="L14:U14"/>
+    <mergeCell ref="C17:O17"/>
+    <mergeCell ref="E18:U18"/>
+    <mergeCell ref="E19:U19"/>
+    <mergeCell ref="E20:U20"/>
+    <mergeCell ref="E21:U21"/>
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="L29:U29"/>
+    <mergeCell ref="E112:U112"/>
+    <mergeCell ref="E114:U114"/>
+    <mergeCell ref="E113:U113"/>
+    <mergeCell ref="C116:U116"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="E89:N89"/>
+    <mergeCell ref="C91:U91"/>
+    <mergeCell ref="E92:I92"/>
+    <mergeCell ref="E93:I93"/>
+    <mergeCell ref="E94:I94"/>
+    <mergeCell ref="E108:K108"/>
+    <mergeCell ref="E109:K109"/>
+    <mergeCell ref="L108:U108"/>
+    <mergeCell ref="C111:U111"/>
+    <mergeCell ref="E102:N102"/>
+    <mergeCell ref="E103:N103"/>
+    <mergeCell ref="E104:N104"/>
+    <mergeCell ref="C106:U106"/>
+    <mergeCell ref="E107:K107"/>
+    <mergeCell ref="E125:K125"/>
+    <mergeCell ref="E126:K126"/>
+    <mergeCell ref="E127:K127"/>
+    <mergeCell ref="E128:K128"/>
+    <mergeCell ref="E129:K129"/>
+    <mergeCell ref="E118:K118"/>
+    <mergeCell ref="E119:K119"/>
+    <mergeCell ref="L119:U119"/>
+    <mergeCell ref="A122:XFD122"/>
+    <mergeCell ref="C124:U124"/>
+    <mergeCell ref="E136:K136"/>
+    <mergeCell ref="E137:K137"/>
+    <mergeCell ref="E138:K138"/>
+    <mergeCell ref="L138:U138"/>
+    <mergeCell ref="C140:U140"/>
+    <mergeCell ref="E130:K130"/>
+    <mergeCell ref="C132:U132"/>
+    <mergeCell ref="E133:K133"/>
+    <mergeCell ref="E134:K134"/>
+    <mergeCell ref="E135:K135"/>
+    <mergeCell ref="C147:U147"/>
+    <mergeCell ref="E148:K148"/>
+    <mergeCell ref="E149:K149"/>
+    <mergeCell ref="E141:K141"/>
+    <mergeCell ref="E142:K142"/>
+    <mergeCell ref="E143:K143"/>
+    <mergeCell ref="E144:K144"/>
+    <mergeCell ref="E145:K145"/>
+    <mergeCell ref="E152:K152"/>
     <mergeCell ref="E163:K163"/>
     <mergeCell ref="C290:U291"/>
     <mergeCell ref="E292:Q293"/>
@@ -10284,298 +11631,133 @@
     <mergeCell ref="E169:K169"/>
     <mergeCell ref="C171:U171"/>
     <mergeCell ref="E172:U173"/>
-    <mergeCell ref="C147:U147"/>
-    <mergeCell ref="E148:K148"/>
-    <mergeCell ref="E149:K149"/>
-    <mergeCell ref="E141:K141"/>
-    <mergeCell ref="E142:K142"/>
-    <mergeCell ref="E143:K143"/>
-    <mergeCell ref="E144:K144"/>
-    <mergeCell ref="E145:K145"/>
-    <mergeCell ref="E152:K152"/>
-    <mergeCell ref="E136:K136"/>
-    <mergeCell ref="E137:K137"/>
-    <mergeCell ref="E138:K138"/>
-    <mergeCell ref="L138:U138"/>
-    <mergeCell ref="C140:U140"/>
-    <mergeCell ref="E130:K130"/>
-    <mergeCell ref="C132:U132"/>
-    <mergeCell ref="E133:K133"/>
-    <mergeCell ref="E134:K134"/>
-    <mergeCell ref="E135:K135"/>
-    <mergeCell ref="E125:K125"/>
-    <mergeCell ref="E126:K126"/>
-    <mergeCell ref="E127:K127"/>
-    <mergeCell ref="E128:K128"/>
-    <mergeCell ref="E129:K129"/>
-    <mergeCell ref="E118:K118"/>
-    <mergeCell ref="E119:K119"/>
-    <mergeCell ref="L119:U119"/>
-    <mergeCell ref="A122:XFD122"/>
-    <mergeCell ref="C124:U124"/>
-    <mergeCell ref="E112:U112"/>
-    <mergeCell ref="E114:U114"/>
-    <mergeCell ref="E113:U113"/>
-    <mergeCell ref="C116:U116"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="E89:N89"/>
-    <mergeCell ref="C91:U91"/>
-    <mergeCell ref="E92:I92"/>
-    <mergeCell ref="E93:I93"/>
-    <mergeCell ref="E94:I94"/>
-    <mergeCell ref="E108:K108"/>
-    <mergeCell ref="E109:K109"/>
-    <mergeCell ref="L108:U108"/>
-    <mergeCell ref="C111:U111"/>
-    <mergeCell ref="E102:N102"/>
-    <mergeCell ref="E103:N103"/>
-    <mergeCell ref="E104:N104"/>
-    <mergeCell ref="C106:U106"/>
-    <mergeCell ref="E107:K107"/>
-    <mergeCell ref="C10:O10"/>
-    <mergeCell ref="C73:U73"/>
-    <mergeCell ref="E74:M74"/>
-    <mergeCell ref="E75:M75"/>
-    <mergeCell ref="E76:M76"/>
-    <mergeCell ref="A3:XFD3"/>
-    <mergeCell ref="C5:O5"/>
-    <mergeCell ref="E6:U6"/>
-    <mergeCell ref="E7:U7"/>
-    <mergeCell ref="E8:U8"/>
-    <mergeCell ref="C23:O23"/>
-    <mergeCell ref="E11:U11"/>
-    <mergeCell ref="E12:U12"/>
-    <mergeCell ref="E13:U13"/>
-    <mergeCell ref="E15:U15"/>
-    <mergeCell ref="E14:K14"/>
-    <mergeCell ref="L14:U14"/>
-    <mergeCell ref="C17:O17"/>
-    <mergeCell ref="E18:U18"/>
-    <mergeCell ref="E19:U19"/>
-    <mergeCell ref="E20:U20"/>
-    <mergeCell ref="E21:U21"/>
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="L29:U29"/>
-    <mergeCell ref="C33:O33"/>
-    <mergeCell ref="E24:U24"/>
-    <mergeCell ref="E25:U25"/>
-    <mergeCell ref="E26:U26"/>
-    <mergeCell ref="C28:O28"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E30:K30"/>
-    <mergeCell ref="L30:U30"/>
-    <mergeCell ref="H41:U41"/>
-    <mergeCell ref="E35:U35"/>
-    <mergeCell ref="E36:U36"/>
-    <mergeCell ref="E34:K34"/>
-    <mergeCell ref="L34:U34"/>
-    <mergeCell ref="C38:O38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E31:U31"/>
-    <mergeCell ref="C44:O44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H46:U46"/>
-    <mergeCell ref="C50:T50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="C56:T56"/>
-    <mergeCell ref="E68:U68"/>
-    <mergeCell ref="E69:U69"/>
-    <mergeCell ref="E70:U70"/>
-    <mergeCell ref="E71:U71"/>
-    <mergeCell ref="C62:T62"/>
-    <mergeCell ref="E63:J63"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="K63:U63"/>
-    <mergeCell ref="C67:U67"/>
-    <mergeCell ref="C151:U151"/>
-    <mergeCell ref="E83:M83"/>
-    <mergeCell ref="C85:U85"/>
-    <mergeCell ref="E86:N86"/>
-    <mergeCell ref="E87:N87"/>
-    <mergeCell ref="E88:N88"/>
-    <mergeCell ref="E77:M77"/>
-    <mergeCell ref="C79:U79"/>
-    <mergeCell ref="E80:M80"/>
-    <mergeCell ref="E81:M81"/>
-    <mergeCell ref="E82:M82"/>
-    <mergeCell ref="C96:U96"/>
-    <mergeCell ref="E97:I97"/>
-    <mergeCell ref="E98:I98"/>
-    <mergeCell ref="E99:I99"/>
-    <mergeCell ref="C101:U101"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="D176:D177"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="E174:U175"/>
-    <mergeCell ref="E176:U177"/>
-    <mergeCell ref="E178:U179"/>
-    <mergeCell ref="L168:U168"/>
-    <mergeCell ref="C181:U181"/>
-    <mergeCell ref="E182:H182"/>
-    <mergeCell ref="E183:H183"/>
-    <mergeCell ref="E184:H184"/>
-    <mergeCell ref="I183:U183"/>
-    <mergeCell ref="C186:U186"/>
-    <mergeCell ref="E187:G187"/>
-    <mergeCell ref="E188:G188"/>
-    <mergeCell ref="E189:G189"/>
-    <mergeCell ref="E190:G190"/>
-    <mergeCell ref="E191:G191"/>
-    <mergeCell ref="C193:U193"/>
-    <mergeCell ref="C199:U199"/>
-    <mergeCell ref="E200:H200"/>
-    <mergeCell ref="E201:H201"/>
-    <mergeCell ref="E202:H202"/>
-    <mergeCell ref="C204:U204"/>
-    <mergeCell ref="E207:F207"/>
-    <mergeCell ref="E205:F205"/>
-    <mergeCell ref="E206:F206"/>
-    <mergeCell ref="C209:U209"/>
-    <mergeCell ref="C213:U213"/>
-    <mergeCell ref="C217:U217"/>
-    <mergeCell ref="E218:I218"/>
-    <mergeCell ref="E219:I219"/>
-    <mergeCell ref="E220:I220"/>
-    <mergeCell ref="E221:I221"/>
-    <mergeCell ref="C223:U223"/>
-    <mergeCell ref="J219:U219"/>
-    <mergeCell ref="F214:U214"/>
-    <mergeCell ref="C234:U234"/>
-    <mergeCell ref="E235:K235"/>
-    <mergeCell ref="E236:K236"/>
-    <mergeCell ref="E237:K237"/>
-    <mergeCell ref="L236:U236"/>
-    <mergeCell ref="C239:U239"/>
-    <mergeCell ref="E240:K240"/>
-    <mergeCell ref="E224:I224"/>
-    <mergeCell ref="E225:I225"/>
-    <mergeCell ref="E226:I226"/>
-    <mergeCell ref="E227:I227"/>
-    <mergeCell ref="J227:U227"/>
-    <mergeCell ref="C229:U229"/>
-    <mergeCell ref="E230:I230"/>
-    <mergeCell ref="E231:I231"/>
-    <mergeCell ref="E232:I232"/>
-    <mergeCell ref="E241:K241"/>
-    <mergeCell ref="E242:K242"/>
-    <mergeCell ref="L242:U242"/>
-    <mergeCell ref="C244:U244"/>
-    <mergeCell ref="E245:I245"/>
-    <mergeCell ref="E246:I246"/>
-    <mergeCell ref="E247:I247"/>
-    <mergeCell ref="C249:U249"/>
-    <mergeCell ref="E250:I250"/>
-    <mergeCell ref="C260:U260"/>
-    <mergeCell ref="E261:U261"/>
-    <mergeCell ref="E264:U264"/>
-    <mergeCell ref="E262:U263"/>
-    <mergeCell ref="C266:U266"/>
-    <mergeCell ref="E269:N269"/>
-    <mergeCell ref="E268:G268"/>
-    <mergeCell ref="E267:G267"/>
-    <mergeCell ref="E251:I251"/>
-    <mergeCell ref="E252:I252"/>
-    <mergeCell ref="C254:U254"/>
-    <mergeCell ref="E255:U255"/>
-    <mergeCell ref="E256:U256"/>
-    <mergeCell ref="E257:U257"/>
-    <mergeCell ref="E258:U258"/>
-    <mergeCell ref="C284:U285"/>
-    <mergeCell ref="E286:U286"/>
-    <mergeCell ref="E288:U288"/>
-    <mergeCell ref="D286:D287"/>
-    <mergeCell ref="E287:U287"/>
-    <mergeCell ref="C271:U272"/>
-    <mergeCell ref="F277:U277"/>
-    <mergeCell ref="C279:U279"/>
-    <mergeCell ref="E280:U280"/>
-    <mergeCell ref="E282:U282"/>
-    <mergeCell ref="E281:L281"/>
-    <mergeCell ref="M281:U281"/>
-    <mergeCell ref="C392:U392"/>
-    <mergeCell ref="E393:Q393"/>
-    <mergeCell ref="E394:Q394"/>
-    <mergeCell ref="E395:Q395"/>
-    <mergeCell ref="R394:U394"/>
-    <mergeCell ref="C397:U397"/>
-    <mergeCell ref="E398:T398"/>
-    <mergeCell ref="C381:U381"/>
-    <mergeCell ref="E382:F382"/>
-    <mergeCell ref="E383:F383"/>
-    <mergeCell ref="E384:F384"/>
-    <mergeCell ref="G382:U382"/>
-    <mergeCell ref="C386:U386"/>
-    <mergeCell ref="E389:M389"/>
-    <mergeCell ref="E390:M390"/>
-    <mergeCell ref="E388:M388"/>
-    <mergeCell ref="E387:M387"/>
-    <mergeCell ref="N388:U388"/>
-    <mergeCell ref="E399:T399"/>
-    <mergeCell ref="E400:T400"/>
-    <mergeCell ref="C402:U402"/>
-    <mergeCell ref="E403:M403"/>
-    <mergeCell ref="E404:M404"/>
-    <mergeCell ref="E405:M405"/>
-    <mergeCell ref="E406:M406"/>
-    <mergeCell ref="E407:M407"/>
-    <mergeCell ref="E408:M408"/>
-    <mergeCell ref="N407:U407"/>
-    <mergeCell ref="C410:U410"/>
-    <mergeCell ref="E411:M411"/>
-    <mergeCell ref="E412:M412"/>
-    <mergeCell ref="E413:M413"/>
-    <mergeCell ref="E414:M414"/>
-    <mergeCell ref="E415:M415"/>
-    <mergeCell ref="E416:M416"/>
-    <mergeCell ref="N414:U414"/>
-    <mergeCell ref="C418:U418"/>
-    <mergeCell ref="E419:I419"/>
-    <mergeCell ref="E420:I420"/>
-    <mergeCell ref="E421:I421"/>
-    <mergeCell ref="E422:I422"/>
-    <mergeCell ref="E423:I423"/>
-    <mergeCell ref="C425:U425"/>
-    <mergeCell ref="E426:G426"/>
-    <mergeCell ref="E427:G427"/>
-    <mergeCell ref="E428:G428"/>
-    <mergeCell ref="J419:U419"/>
-    <mergeCell ref="E429:G429"/>
-    <mergeCell ref="E430:G430"/>
-    <mergeCell ref="E431:G431"/>
-    <mergeCell ref="H430:U430"/>
-    <mergeCell ref="C433:U433"/>
-    <mergeCell ref="E434:J434"/>
-    <mergeCell ref="E435:J435"/>
-    <mergeCell ref="E436:J436"/>
-    <mergeCell ref="E437:J437"/>
-    <mergeCell ref="E449:F449"/>
-    <mergeCell ref="E450:F450"/>
-    <mergeCell ref="E451:F451"/>
-    <mergeCell ref="E452:F452"/>
-    <mergeCell ref="G450:U450"/>
-    <mergeCell ref="C439:U439"/>
-    <mergeCell ref="E440:U440"/>
-    <mergeCell ref="E441:U441"/>
-    <mergeCell ref="E442:U442"/>
-    <mergeCell ref="E443:U443"/>
-    <mergeCell ref="E444:U444"/>
-    <mergeCell ref="E445:U445"/>
-    <mergeCell ref="C447:U447"/>
-    <mergeCell ref="E448:F448"/>
+    <mergeCell ref="D301:D302"/>
+    <mergeCell ref="D303:D304"/>
+    <mergeCell ref="E299:Q300"/>
+    <mergeCell ref="E301:Q302"/>
+    <mergeCell ref="E303:Q304"/>
+    <mergeCell ref="R299:U300"/>
+    <mergeCell ref="C306:U306"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="D309:D310"/>
+    <mergeCell ref="D311:D312"/>
+    <mergeCell ref="E307:Q308"/>
+    <mergeCell ref="E309:Q310"/>
+    <mergeCell ref="E311:Q312"/>
+    <mergeCell ref="R307:U308"/>
+    <mergeCell ref="C314:U314"/>
+    <mergeCell ref="D315:D316"/>
+    <mergeCell ref="E315:R316"/>
+    <mergeCell ref="E317:R317"/>
+    <mergeCell ref="S315:U316"/>
+    <mergeCell ref="E330:P330"/>
+    <mergeCell ref="C335:U335"/>
+    <mergeCell ref="E338:P338"/>
+    <mergeCell ref="E337:P337"/>
+    <mergeCell ref="E336:P336"/>
+    <mergeCell ref="Q336:U336"/>
+    <mergeCell ref="C319:U319"/>
+    <mergeCell ref="E322:P322"/>
+    <mergeCell ref="E321:P321"/>
+    <mergeCell ref="E320:P320"/>
+    <mergeCell ref="C324:U324"/>
+    <mergeCell ref="E325:P325"/>
+    <mergeCell ref="E326:P326"/>
+    <mergeCell ref="E327:P327"/>
+    <mergeCell ref="C329:U329"/>
+    <mergeCell ref="C340:U341"/>
+    <mergeCell ref="E342:P342"/>
+    <mergeCell ref="D343:D344"/>
+    <mergeCell ref="E343:P344"/>
+    <mergeCell ref="D345:D346"/>
+    <mergeCell ref="E345:P346"/>
+    <mergeCell ref="E333:P333"/>
+    <mergeCell ref="E332:P332"/>
+    <mergeCell ref="E331:P331"/>
+    <mergeCell ref="C348:U348"/>
+    <mergeCell ref="D350:D351"/>
+    <mergeCell ref="E350:P351"/>
+    <mergeCell ref="E349:P349"/>
+    <mergeCell ref="Q345:U346"/>
+    <mergeCell ref="Q350:U351"/>
+    <mergeCell ref="C353:U353"/>
+    <mergeCell ref="E354:P355"/>
+    <mergeCell ref="D354:D355"/>
+    <mergeCell ref="D356:D357"/>
+    <mergeCell ref="E356:P357"/>
+    <mergeCell ref="E358:P358"/>
+    <mergeCell ref="Q356:U357"/>
+    <mergeCell ref="C360:U360"/>
+    <mergeCell ref="E361:F361"/>
+    <mergeCell ref="E362:F362"/>
+    <mergeCell ref="E363:F363"/>
+    <mergeCell ref="E364:F364"/>
+    <mergeCell ref="E377:H377"/>
+    <mergeCell ref="E378:H378"/>
+    <mergeCell ref="E379:H379"/>
+    <mergeCell ref="C366:U366"/>
+    <mergeCell ref="E367:F367"/>
+    <mergeCell ref="E368:F368"/>
+    <mergeCell ref="E369:F369"/>
+    <mergeCell ref="E370:F370"/>
+    <mergeCell ref="A372:XFD372"/>
+    <mergeCell ref="C374:U374"/>
+    <mergeCell ref="E375:H375"/>
+    <mergeCell ref="E376:H376"/>
+    <mergeCell ref="I376:U376"/>
+    <mergeCell ref="B454:B455"/>
+    <mergeCell ref="C454:U455"/>
+    <mergeCell ref="C461:U461"/>
+    <mergeCell ref="E462:F462"/>
+    <mergeCell ref="E463:F463"/>
+    <mergeCell ref="E464:F464"/>
+    <mergeCell ref="E465:F465"/>
+    <mergeCell ref="C467:U467"/>
+    <mergeCell ref="E468:F468"/>
+    <mergeCell ref="E482:S482"/>
+    <mergeCell ref="E481:S481"/>
+    <mergeCell ref="E480:S480"/>
+    <mergeCell ref="C484:U484"/>
+    <mergeCell ref="E485:P485"/>
+    <mergeCell ref="E486:P486"/>
+    <mergeCell ref="E487:P487"/>
+    <mergeCell ref="E469:F469"/>
+    <mergeCell ref="E470:F470"/>
+    <mergeCell ref="E471:F471"/>
+    <mergeCell ref="E472:F472"/>
+    <mergeCell ref="C474:U474"/>
+    <mergeCell ref="E475:J475"/>
+    <mergeCell ref="E476:J476"/>
+    <mergeCell ref="E477:J477"/>
+    <mergeCell ref="C479:U479"/>
+    <mergeCell ref="E488:P488"/>
+    <mergeCell ref="C490:U490"/>
+    <mergeCell ref="E491:K491"/>
+    <mergeCell ref="E492:K492"/>
+    <mergeCell ref="E493:K493"/>
+    <mergeCell ref="E494:K494"/>
+    <mergeCell ref="L492:U492"/>
+    <mergeCell ref="C496:U496"/>
+    <mergeCell ref="E497:G497"/>
+    <mergeCell ref="E498:G498"/>
+    <mergeCell ref="E499:G499"/>
+    <mergeCell ref="C501:U501"/>
+    <mergeCell ref="E502:F502"/>
+    <mergeCell ref="E503:F503"/>
+    <mergeCell ref="E504:F504"/>
+    <mergeCell ref="E505:F505"/>
+    <mergeCell ref="G503:U503"/>
+    <mergeCell ref="C507:U507"/>
+    <mergeCell ref="E508:P508"/>
+    <mergeCell ref="E509:P509"/>
+    <mergeCell ref="E510:P510"/>
+    <mergeCell ref="E511:P511"/>
+    <mergeCell ref="Q510:U510"/>
+    <mergeCell ref="C513:U513"/>
+    <mergeCell ref="E514:I514"/>
+    <mergeCell ref="E515:I515"/>
+    <mergeCell ref="E516:I516"/>
+    <mergeCell ref="J516:U516"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L138" r:id="rId1"/>

--- a/Q&A.xlsx
+++ b/Q&A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3637" uniqueCount="1862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3642" uniqueCount="1861">
   <si>
     <t>1. Общие архитектурные вопросы</t>
   </si>
@@ -4189,9 +4189,6 @@
     <t>В отдельном конфигурационном файле хранилища конфигурации</t>
   </si>
   <si>
-    <t>Вроде как это похоже на правду</t>
-  </si>
-  <si>
     <t>10.12</t>
   </si>
   <si>
@@ -4372,9 +4369,6 @@
   </si>
   <si>
     <t>Согласно рук-ву разраб-ка 34.4.6 (опытным путём)</t>
-  </si>
-  <si>
-    <t>Проверил опытным путем (если сервер)</t>
   </si>
   <si>
     <t>11. Обеспечение взаим-ия с системой 1С:Предприятие 8 по http/https протоколам</t>
@@ -7176,6 +7170,9 @@
       </rPr>
       <t xml:space="preserve"> с помощью утилиты администрирования кластера серверов 1С:Предприятие?</t>
     </r>
+  </si>
+  <si>
+    <t>Опытным путем (если сервер)</t>
   </si>
 </sst>
 </file>
@@ -7564,7 +7561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7981,6 +7978,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -8292,8 +8295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:U2057"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1377" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1311" sqref="M1311:U1311"/>
+    <sheetView tabSelected="1" topLeftCell="A1436" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1475" sqref="E1475:Q1475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -8349,7 +8352,7 @@
       <c r="Q6" s="92"/>
       <c r="R6" s="92"/>
       <c r="S6" s="138" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="T6" s="139"/>
       <c r="U6" s="139"/>
@@ -8508,7 +8511,7 @@
       <c r="J14" s="92"/>
       <c r="K14" s="92"/>
       <c r="L14" s="91" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="M14" s="90"/>
       <c r="N14" s="90"/>
@@ -8649,7 +8652,7 @@
       <c r="I21" s="92"/>
       <c r="J21" s="92"/>
       <c r="K21" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="L21" s="91"/>
       <c r="M21" s="91"/>
@@ -8742,7 +8745,7 @@
       <c r="H26" s="92"/>
       <c r="I26" s="92"/>
       <c r="J26" s="119" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="K26" s="119"/>
       <c r="L26" s="119"/>
@@ -8833,7 +8836,7 @@
       <c r="J30" s="92"/>
       <c r="K30" s="92"/>
       <c r="L30" s="91" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="M30" s="91"/>
       <c r="N30" s="91"/>
@@ -8903,7 +8906,7 @@
       <c r="J34" s="92"/>
       <c r="K34" s="92"/>
       <c r="L34" s="91" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="M34" s="91"/>
       <c r="N34" s="91"/>
@@ -8968,7 +8971,7 @@
         <v>39</v>
       </c>
       <c r="C38" s="89" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="D38" s="89"/>
       <c r="E38" s="89"/>
@@ -9013,7 +9016,7 @@
       <c r="F41" s="92"/>
       <c r="G41" s="92"/>
       <c r="H41" s="91" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="I41" s="91"/>
       <c r="J41" s="91"/>
@@ -9039,7 +9042,7 @@
       <c r="F42" s="90"/>
       <c r="G42" s="90"/>
       <c r="H42" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.25">
@@ -9047,7 +9050,7 @@
         <v>44</v>
       </c>
       <c r="C44" s="89" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="D44" s="89"/>
       <c r="E44" s="89"/>
@@ -9082,7 +9085,7 @@
       <c r="F46" s="92"/>
       <c r="G46" s="92"/>
       <c r="H46" s="91" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="I46" s="91"/>
       <c r="J46" s="91"/>
@@ -9123,7 +9126,7 @@
         <v>45</v>
       </c>
       <c r="C50" s="100" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="D50" s="100"/>
       <c r="E50" s="100"/>
@@ -9183,7 +9186,7 @@
       <c r="F54" s="92"/>
       <c r="G54" s="92"/>
       <c r="H54" s="91" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="I54" s="91"/>
       <c r="J54" s="91"/>
@@ -9204,7 +9207,7 @@
         <v>46</v>
       </c>
       <c r="C56" s="100" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="D56" s="100"/>
       <c r="E56" s="100"/>
@@ -9234,7 +9237,7 @@
       <c r="F57" s="92"/>
       <c r="G57" s="92"/>
       <c r="H57" s="91" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="I57" s="91"/>
       <c r="J57" s="91"/>
@@ -9318,7 +9321,7 @@
       <c r="I63" s="92"/>
       <c r="J63" s="92"/>
       <c r="K63" s="91" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="L63" s="91"/>
       <c r="M63" s="91"/>
@@ -9465,7 +9468,7 @@
       <c r="L71" s="92"/>
       <c r="M71" s="92"/>
       <c r="N71" s="119" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="O71" s="119"/>
       <c r="P71" s="119"/>
@@ -9549,7 +9552,7 @@
       <c r="L76" s="92"/>
       <c r="M76" s="92"/>
       <c r="N76" s="91" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="O76" s="91"/>
       <c r="P76" s="91"/>
@@ -9580,7 +9583,7 @@
         <v>62</v>
       </c>
       <c r="C79" s="89" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="D79" s="89"/>
       <c r="E79" s="89"/>
@@ -9617,7 +9620,7 @@
       <c r="L80" s="92"/>
       <c r="M80" s="92"/>
       <c r="N80" s="91" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="O80" s="91"/>
       <c r="P80" s="91"/>
@@ -9680,7 +9683,7 @@
         <v>67</v>
       </c>
       <c r="C85" s="89" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="D85" s="89"/>
       <c r="E85" s="89"/>
@@ -9769,7 +9772,7 @@
       <c r="M89" s="92"/>
       <c r="N89" s="92"/>
       <c r="O89" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="P89" s="90"/>
       <c r="Q89" s="90"/>
@@ -9816,7 +9819,7 @@
       <c r="H92" s="92"/>
       <c r="I92" s="92"/>
       <c r="J92" s="91" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="K92" s="91"/>
       <c r="L92" s="91"/>
@@ -9904,7 +9907,7 @@
       <c r="H98" s="92"/>
       <c r="I98" s="92"/>
       <c r="J98" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="K98" s="88"/>
       <c r="L98" s="88"/>
@@ -9935,7 +9938,7 @@
         <v>76</v>
       </c>
       <c r="C101" s="89" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="D101" s="89"/>
       <c r="E101" s="89"/>
@@ -9973,7 +9976,7 @@
       <c r="M102" s="92"/>
       <c r="N102" s="92"/>
       <c r="O102" s="91" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="P102" s="91"/>
       <c r="Q102" s="91"/>
@@ -10028,7 +10031,7 @@
         <v>80</v>
       </c>
       <c r="C106" s="89" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="D106" s="89"/>
       <c r="E106" s="89"/>
@@ -10077,7 +10080,7 @@
       <c r="J108" s="92"/>
       <c r="K108" s="92"/>
       <c r="L108" s="118" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="M108" s="118"/>
       <c r="N108" s="118"/>
@@ -10149,7 +10152,7 @@
       <c r="P112" s="92"/>
       <c r="Q112" s="92"/>
       <c r="R112" s="138" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="S112" s="138"/>
       <c r="T112" s="138"/>
@@ -10271,7 +10274,7 @@
       <c r="J119" s="92"/>
       <c r="K119" s="92"/>
       <c r="L119" s="91" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="M119" s="91"/>
       <c r="N119" s="91"/>
@@ -10511,7 +10514,7 @@
     </row>
     <row r="138" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B138" s="91"/>
       <c r="C138" s="91"/>
@@ -10528,7 +10531,7 @@
       <c r="J138" s="92"/>
       <c r="K138" s="92"/>
       <c r="L138" s="118" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="M138" s="118"/>
       <c r="N138" s="118"/>
@@ -10750,7 +10753,7 @@
       <c r="J152" s="92"/>
       <c r="K152" s="92"/>
       <c r="L152" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="M152" s="90"/>
       <c r="N152" s="90"/>
@@ -10872,7 +10875,7 @@
       <c r="J160" s="92"/>
       <c r="K160" s="92"/>
       <c r="L160" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="M160" s="90"/>
       <c r="N160" s="90"/>
@@ -10982,7 +10985,7 @@
     </row>
     <row r="168" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B168" s="90"/>
       <c r="C168" s="90"/>
@@ -11387,7 +11390,7 @@
       <c r="F191" s="92"/>
       <c r="G191" s="92"/>
       <c r="H191" s="91" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="I191" s="91"/>
       <c r="J191" s="91"/>
@@ -11439,7 +11442,7 @@
     </row>
     <row r="195" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B195" s="90"/>
       <c r="C195" s="90"/>
@@ -11525,7 +11528,7 @@
       <c r="G202" s="92"/>
       <c r="H202" s="92"/>
       <c r="I202" s="91" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="J202" s="91"/>
       <c r="K202" s="91"/>
@@ -11584,7 +11587,7 @@
       </c>
       <c r="F206" s="92"/>
       <c r="G206" s="91" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="H206" s="91"/>
       <c r="I206" s="91"/>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="214" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B214" s="88"/>
       <c r="C214" s="88"/>
@@ -11696,7 +11699,7 @@
         <v>63</v>
       </c>
       <c r="F214" s="91" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="G214" s="91"/>
       <c r="H214" s="91"/>
@@ -11743,7 +11746,7 @@
         <v>164</v>
       </c>
       <c r="C217" s="89" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="D217" s="89"/>
       <c r="E217" s="89"/>
@@ -11788,7 +11791,7 @@
       <c r="H219" s="92"/>
       <c r="I219" s="92"/>
       <c r="J219" s="91" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="K219" s="91"/>
       <c r="L219" s="91"/>
@@ -11831,7 +11834,7 @@
         <v>169</v>
       </c>
       <c r="C223" s="89" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="D223" s="89"/>
       <c r="E223" s="89"/>
@@ -11888,7 +11891,7 @@
       <c r="H226" s="92"/>
       <c r="I226" s="92"/>
       <c r="J226" s="113" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="K226" s="113"/>
       <c r="L226" s="113"/>
@@ -12021,7 +12024,7 @@
       <c r="H233" s="92"/>
       <c r="I233" s="92"/>
       <c r="J233" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="K233" s="90"/>
       <c r="L233" s="90"/>
@@ -12551,7 +12554,7 @@
       <c r="O263" s="93"/>
       <c r="P263" s="93"/>
       <c r="Q263" s="126" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="R263" s="127"/>
       <c r="S263" s="127"/>
@@ -12768,7 +12771,7 @@
         <v>3</v>
       </c>
       <c r="F275" s="91" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="G275" s="91"/>
       <c r="H275" s="91"/>
@@ -12905,7 +12908,7 @@
     </row>
     <row r="283" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B283" s="88"/>
       <c r="C283" s="88"/>
@@ -12981,7 +12984,7 @@
     </row>
     <row r="287" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B287" s="90"/>
       <c r="C287" s="90"/>
@@ -13121,7 +13124,7 @@
       <c r="P293" s="92"/>
       <c r="Q293" s="92"/>
       <c r="R293" s="113" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="S293" s="113"/>
       <c r="T293" s="113"/>
@@ -13541,7 +13544,7 @@
     </row>
     <row r="316" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B316" s="90"/>
       <c r="C316" s="90"/>
@@ -13697,7 +13700,7 @@
       <c r="O323" s="92"/>
       <c r="P323" s="92"/>
       <c r="Q323" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="R323" s="88"/>
       <c r="S323" s="88"/>
@@ -13768,7 +13771,7 @@
       <c r="O327" s="92"/>
       <c r="P327" s="92"/>
       <c r="Q327" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="R327" s="90"/>
       <c r="S327" s="90"/>
@@ -13839,7 +13842,7 @@
       <c r="O331" s="92"/>
       <c r="P331" s="92"/>
       <c r="Q331" s="91" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="R331" s="91"/>
       <c r="S331" s="91"/>
@@ -14133,7 +14136,7 @@
       <c r="O346" s="92"/>
       <c r="P346" s="92"/>
       <c r="Q346" s="113" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="R346" s="113"/>
       <c r="S346" s="113"/>
@@ -14331,7 +14334,7 @@
       <c r="O357" s="92"/>
       <c r="P357" s="92"/>
       <c r="Q357" s="113" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="R357" s="113"/>
       <c r="S357" s="113"/>
@@ -14488,7 +14491,7 @@
       </c>
       <c r="F369" s="92"/>
       <c r="G369" s="91" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="H369" s="91"/>
       <c r="I369" s="91"/>
@@ -14567,7 +14570,7 @@
     </row>
     <row r="377" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B377" s="88"/>
       <c r="C377" s="88"/>
@@ -14657,7 +14660,7 @@
     </row>
     <row r="383" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B383" s="88"/>
       <c r="C383" s="88"/>
@@ -14751,7 +14754,7 @@
     </row>
     <row r="389" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B389" s="88"/>
       <c r="C389" s="88"/>
@@ -14870,7 +14873,7 @@
     </row>
     <row r="395" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B395" s="88"/>
       <c r="C395" s="88"/>
@@ -14947,7 +14950,7 @@
     </row>
     <row r="399" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B399" s="88"/>
       <c r="C399" s="88"/>
@@ -15024,7 +15027,7 @@
         <v>313</v>
       </c>
       <c r="C403" s="89" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="D403" s="89"/>
       <c r="E403" s="89"/>
@@ -15047,7 +15050,7 @@
     </row>
     <row r="404" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B404" s="88"/>
       <c r="C404" s="88"/>
@@ -15066,7 +15069,7 @@
       <c r="L404" s="92"/>
       <c r="M404" s="92"/>
       <c r="N404" s="91" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="O404" s="91"/>
       <c r="P404" s="91"/>
@@ -15124,7 +15127,7 @@
       <c r="L407" s="90"/>
       <c r="M407" s="90"/>
       <c r="N407" s="113" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="O407" s="113"/>
       <c r="P407" s="113"/>
@@ -15250,7 +15253,7 @@
     </row>
     <row r="415" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B415" s="88"/>
       <c r="C415" s="88"/>
@@ -15399,7 +15402,7 @@
     </row>
     <row r="424" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B424" s="88"/>
       <c r="C424" s="88"/>
@@ -15482,7 +15485,7 @@
     </row>
     <row r="431" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B431" s="88"/>
       <c r="C431" s="88"/>
@@ -15562,7 +15565,7 @@
     </row>
     <row r="436" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B436" s="88"/>
       <c r="C436" s="88"/>
@@ -15752,7 +15755,7 @@
     </row>
     <row r="446" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B446" s="88"/>
       <c r="C446" s="88"/>
@@ -15825,7 +15828,7 @@
     </row>
     <row r="451" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B451" s="88"/>
       <c r="C451" s="88"/>
@@ -15837,7 +15840,7 @@
       </c>
       <c r="F451" s="92"/>
       <c r="G451" s="91" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="H451" s="91"/>
       <c r="I451" s="91"/>
@@ -15922,7 +15925,7 @@
     </row>
     <row r="457" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B457" s="88"/>
       <c r="C457" s="88"/>
@@ -16003,7 +16006,7 @@
     </row>
     <row r="465" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B465" s="88"/>
       <c r="C465" s="88"/>
@@ -16070,7 +16073,7 @@
     </row>
     <row r="471" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B471" s="88"/>
       <c r="C471" s="88"/>
@@ -16128,7 +16131,7 @@
     </row>
     <row r="476" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B476" s="88"/>
       <c r="C476" s="88"/>
@@ -16220,7 +16223,7 @@
     </row>
     <row r="482" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B482" s="88"/>
       <c r="C482" s="88"/>
@@ -16335,7 +16338,7 @@
     </row>
     <row r="488" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B488" s="88"/>
       <c r="C488" s="88"/>
@@ -16418,7 +16421,7 @@
     </row>
     <row r="493" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B493" s="88"/>
       <c r="C493" s="88"/>
@@ -16513,7 +16516,7 @@
     </row>
     <row r="499" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B499" s="88"/>
       <c r="C499" s="88"/>
@@ -16573,7 +16576,7 @@
     </row>
     <row r="504" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B504" s="88"/>
       <c r="C504" s="88"/>
@@ -16686,7 +16689,7 @@
     </row>
     <row r="511" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B511" s="88"/>
       <c r="C511" s="88"/>
@@ -16786,7 +16789,7 @@
     </row>
     <row r="517" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B517" s="88"/>
       <c r="C517" s="88"/>
@@ -16848,7 +16851,7 @@
     </row>
     <row r="522" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B522" s="88"/>
       <c r="C522" s="88"/>
@@ -16951,7 +16954,7 @@
     </row>
     <row r="527" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B527" s="88"/>
       <c r="C527" s="88"/>
@@ -17066,7 +17069,7 @@
     </row>
     <row r="534" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B534" s="88"/>
       <c r="C534" s="88"/>
@@ -17205,7 +17208,7 @@
     </row>
     <row r="543" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B543" s="88"/>
       <c r="C543" s="88"/>
@@ -17317,7 +17320,7 @@
     </row>
     <row r="551" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B551" s="88"/>
       <c r="C551" s="88"/>
@@ -17406,7 +17409,7 @@
     </row>
     <row r="556" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B556" s="88"/>
       <c r="C556" s="88"/>
@@ -17543,7 +17546,7 @@
     </row>
     <row r="563" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B563" s="88"/>
       <c r="C563" s="88"/>
@@ -17619,7 +17622,7 @@
     </row>
     <row r="567" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B567" s="88"/>
       <c r="C567" s="88"/>
@@ -18321,7 +18324,7 @@
     </row>
     <row r="604" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B604" s="88"/>
       <c r="C604" s="88"/>
@@ -18551,7 +18554,7 @@
     </row>
     <row r="617" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B617" s="88"/>
       <c r="C617" s="88"/>
@@ -18803,7 +18806,7 @@
     </row>
     <row r="632" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B632" s="88"/>
       <c r="C632" s="88"/>
@@ -18972,7 +18975,7 @@
     </row>
     <row r="642" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B642" s="88"/>
       <c r="C642" s="88"/>
@@ -19088,7 +19091,7 @@
     </row>
     <row r="648" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B648" s="88"/>
       <c r="C648" s="88"/>
@@ -19276,7 +19279,7 @@
     </row>
     <row r="658" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B658" s="88"/>
       <c r="C658" s="88"/>
@@ -19439,7 +19442,7 @@
     </row>
     <row r="668" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="114" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B668" s="114"/>
       <c r="C668" s="114"/>
@@ -19673,7 +19676,7 @@
     </row>
     <row r="680" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B680" s="88"/>
       <c r="C680" s="88"/>
@@ -19815,7 +19818,7 @@
     </row>
     <row r="688" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B688" s="88"/>
       <c r="C688" s="88"/>
@@ -19984,7 +19987,7 @@
     </row>
     <row r="699" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B699" s="88"/>
       <c r="C699" s="88"/>
@@ -20096,7 +20099,7 @@
     </row>
     <row r="706" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B706" s="88"/>
       <c r="C706" s="88"/>
@@ -20186,7 +20189,7 @@
     </row>
     <row r="711" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B711" s="88"/>
       <c r="C711" s="88"/>
@@ -20344,7 +20347,7 @@
     </row>
     <row r="720" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B720" s="88"/>
       <c r="C720" s="88"/>
@@ -20514,7 +20517,7 @@
     </row>
     <row r="731" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B731" s="88"/>
       <c r="C731" s="88"/>
@@ -20747,7 +20750,7 @@
     </row>
     <row r="745" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B745" s="88"/>
       <c r="C745" s="88"/>
@@ -20769,7 +20772,7 @@
       <c r="O745" s="92"/>
       <c r="P745" s="92"/>
       <c r="Q745" s="91" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="R745" s="91"/>
       <c r="S745" s="91"/>
@@ -20986,7 +20989,7 @@
     </row>
     <row r="760" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B760" s="88"/>
       <c r="C760" s="88"/>
@@ -21152,7 +21155,7 @@
     </row>
     <row r="770" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B770" s="88"/>
       <c r="C770" s="88"/>
@@ -21265,7 +21268,7 @@
     </row>
     <row r="776" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B776" s="88"/>
       <c r="C776" s="88"/>
@@ -21362,7 +21365,7 @@
     </row>
     <row r="783" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B783" s="88"/>
       <c r="C783" s="88"/>
@@ -21482,7 +21485,7 @@
     </row>
     <row r="790" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B790" s="88"/>
       <c r="C790" s="88"/>
@@ -21640,7 +21643,7 @@
     </row>
     <row r="798" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B798" s="88"/>
       <c r="C798" s="88"/>
@@ -21877,7 +21880,7 @@
     </row>
     <row r="810" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B810" s="88"/>
       <c r="C810" s="88"/>
@@ -21949,7 +21952,7 @@
     </row>
     <row r="814" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B814" s="88"/>
       <c r="C814" s="88"/>
@@ -22036,7 +22039,7 @@
     </row>
     <row r="819" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B819" s="88"/>
       <c r="C819" s="88"/>
@@ -22239,7 +22242,7 @@
     </row>
     <row r="830" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B830" s="88"/>
       <c r="C830" s="88"/>
@@ -22333,7 +22336,7 @@
     </row>
     <row r="835" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B835" s="88"/>
       <c r="C835" s="88"/>
@@ -22417,7 +22420,7 @@
     </row>
     <row r="840" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B840" s="88"/>
       <c r="C840" s="88"/>
@@ -22513,7 +22516,7 @@
     </row>
     <row r="846" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B846" s="88"/>
       <c r="C846" s="88"/>
@@ -22593,7 +22596,7 @@
     </row>
     <row r="851" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B851" s="88"/>
       <c r="C851" s="88"/>
@@ -22648,7 +22651,7 @@
     </row>
     <row r="855" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B855" s="88"/>
       <c r="C855" s="88"/>
@@ -22727,7 +22730,7 @@
     </row>
     <row r="861" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B861" s="88"/>
       <c r="C861" s="88"/>
@@ -22791,7 +22794,7 @@
     </row>
     <row r="866" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B866" s="88"/>
       <c r="C866" s="88"/>
@@ -22877,7 +22880,7 @@
     </row>
     <row r="873" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B873" s="88"/>
       <c r="C873" s="88"/>
@@ -22939,7 +22942,7 @@
     </row>
     <row r="878" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B878" s="88"/>
       <c r="C878" s="88"/>
@@ -22996,7 +22999,7 @@
     </row>
     <row r="881" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B881" s="88"/>
       <c r="C881" s="88"/>
@@ -23106,7 +23109,7 @@
     </row>
     <row r="888" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B888" s="88"/>
       <c r="C888" s="88"/>
@@ -23197,7 +23200,7 @@
     </row>
     <row r="894" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B894" s="88"/>
       <c r="C894" s="88"/>
@@ -23264,7 +23267,7 @@
     </row>
     <row r="898" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B898" s="88"/>
       <c r="C898" s="88"/>
@@ -23389,7 +23392,7 @@
     </row>
     <row r="906" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B906" s="88"/>
       <c r="C906" s="88"/>
@@ -23570,7 +23573,7 @@
     </row>
     <row r="920" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B920" s="88"/>
       <c r="C920" s="88"/>
@@ -24576,7 +24579,7 @@
     </row>
     <row r="987" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B987" s="88"/>
       <c r="C987" s="88"/>
@@ -24691,7 +24694,7 @@
     </row>
     <row r="994" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B994" s="88"/>
       <c r="C994" s="88"/>
@@ -24748,7 +24751,7 @@
     </row>
     <row r="997" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B997" s="88"/>
       <c r="C997" s="88"/>
@@ -25391,7 +25394,7 @@
     </row>
     <row r="1036" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1036" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1036" s="88"/>
       <c r="C1036" s="88"/>
@@ -25505,7 +25508,7 @@
     </row>
     <row r="1043" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1043" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1043" s="88"/>
       <c r="C1043" s="88"/>
@@ -25665,7 +25668,7 @@
     </row>
     <row r="1053" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1053" s="141" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1053" s="141"/>
       <c r="C1053" s="141"/>
@@ -25687,7 +25690,7 @@
       <c r="O1053" s="92"/>
       <c r="P1053" s="92"/>
       <c r="Q1053" s="91" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="R1053" s="91"/>
       <c r="S1053" s="91"/>
@@ -25755,7 +25758,7 @@
     </row>
     <row r="1059" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1059" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1059" s="88"/>
       <c r="C1059" s="88"/>
@@ -25824,7 +25827,7 @@
     </row>
     <row r="1065" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1065" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1065" s="88"/>
       <c r="C1065" s="88"/>
@@ -25929,7 +25932,7 @@
     </row>
     <row r="1074" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1074" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1074" s="88"/>
       <c r="C1074" s="88"/>
@@ -26010,7 +26013,7 @@
     </row>
     <row r="1080" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1080" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1080" s="88"/>
       <c r="C1080" s="88"/>
@@ -26094,7 +26097,7 @@
     </row>
     <row r="1086" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1086" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1086" s="88"/>
       <c r="C1086" s="88"/>
@@ -26151,7 +26154,7 @@
     </row>
     <row r="1089" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1089" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1089" s="88"/>
       <c r="C1089" s="88"/>
@@ -26238,7 +26241,7 @@
     </row>
     <row r="1095" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1095" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1095" s="88"/>
       <c r="C1095" s="88"/>
@@ -26325,7 +26328,7 @@
     </row>
     <row r="1101" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1101" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1101" s="88"/>
       <c r="C1101" s="88"/>
@@ -26400,7 +26403,7 @@
     </row>
     <row r="1106" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1106" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1106" s="88"/>
       <c r="C1106" s="88"/>
@@ -26481,7 +26484,7 @@
     </row>
     <row r="1112" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1112" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1112" s="88"/>
       <c r="C1112" s="88"/>
@@ -26600,7 +26603,7 @@
     </row>
     <row r="1121" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1121" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1121" s="88"/>
       <c r="C1121" s="88"/>
@@ -26690,7 +26693,7 @@
     </row>
     <row r="1127" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1127" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1127" s="88"/>
       <c r="C1127" s="88"/>
@@ -26755,7 +26758,7 @@
     </row>
     <row r="1131" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1131" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1131" s="88"/>
       <c r="C1131" s="88"/>
@@ -26820,7 +26823,7 @@
     </row>
     <row r="1135" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1135" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1135" s="88"/>
       <c r="C1135" s="88"/>
@@ -26915,7 +26918,7 @@
     </row>
     <row r="1142" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1142" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1142" s="88"/>
       <c r="C1142" s="88"/>
@@ -26992,7 +26995,7 @@
     </row>
     <row r="1147" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1147" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1147" s="88"/>
       <c r="C1147" s="88"/>
@@ -27077,7 +27080,7 @@
     </row>
     <row r="1153" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1153" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1153" s="88"/>
       <c r="C1153" s="88"/>
@@ -27150,7 +27153,7 @@
     </row>
     <row r="1158" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1158" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1158" s="88"/>
       <c r="C1158" s="88"/>
@@ -27337,7 +27340,7 @@
     </row>
     <row r="1167" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1167" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1167" s="88"/>
       <c r="C1167" s="88"/>
@@ -27351,7 +27354,7 @@
       <c r="G1167" s="92"/>
       <c r="H1167" s="92"/>
       <c r="I1167" s="91" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="J1167" s="91"/>
       <c r="K1167" s="91"/>
@@ -27462,7 +27465,7 @@
     </row>
     <row r="1177" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1177" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1177" s="88"/>
       <c r="C1177" s="88"/>
@@ -27572,7 +27575,7 @@
     </row>
     <row r="1184" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1184" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1184" s="88"/>
       <c r="C1184" s="88"/>
@@ -27629,7 +27632,7 @@
     </row>
     <row r="1187" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1187" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1187" s="88"/>
       <c r="C1187" s="88"/>
@@ -27713,7 +27716,7 @@
     </row>
     <row r="1193" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1193" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1193" s="88"/>
       <c r="C1193" s="88"/>
@@ -27846,7 +27849,7 @@
     </row>
     <row r="1202" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1202" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1202" s="88"/>
       <c r="C1202" s="88"/>
@@ -27941,7 +27944,7 @@
     </row>
     <row r="1209" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1209" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1209" s="88"/>
       <c r="C1209" s="88"/>
@@ -27998,7 +28001,7 @@
     </row>
     <row r="1212" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1212" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1212" s="88"/>
       <c r="C1212" s="88"/>
@@ -28135,7 +28138,7 @@
     </row>
     <row r="1223" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1223" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1223" s="88"/>
       <c r="C1223" s="88"/>
@@ -28192,7 +28195,7 @@
     </row>
     <row r="1226" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1226" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1226" s="88"/>
       <c r="C1226" s="88"/>
@@ -28282,7 +28285,7 @@
     </row>
     <row r="1232" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1232" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1232" s="88"/>
       <c r="C1232" s="88"/>
@@ -28364,7 +28367,7 @@
     </row>
     <row r="1237" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1237" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1237" s="88"/>
       <c r="C1237" s="88"/>
@@ -28435,7 +28438,7 @@
     </row>
     <row r="1241" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1241" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1241" s="88"/>
       <c r="C1241" s="88"/>
@@ -28549,7 +28552,7 @@
     </row>
     <row r="1249" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1249" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1249" s="88"/>
       <c r="C1249" s="88"/>
@@ -28630,7 +28633,7 @@
     </row>
     <row r="1254" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1254" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1254" s="88"/>
       <c r="C1254" s="88"/>
@@ -28730,7 +28733,7 @@
     </row>
     <row r="1261" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1261" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1261" s="88"/>
       <c r="C1261" s="88"/>
@@ -28806,7 +28809,7 @@
     </row>
     <row r="1265" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1265" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1265" s="88"/>
       <c r="C1265" s="88"/>
@@ -28882,7 +28885,7 @@
         <v>1078</v>
       </c>
       <c r="C1269" s="89" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="D1269" s="89"/>
       <c r="E1269" s="89"/>
@@ -28905,7 +28908,7 @@
     </row>
     <row r="1270" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1270" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1270" s="88"/>
       <c r="C1270" s="88"/>
@@ -28969,7 +28972,7 @@
         <v>1081</v>
       </c>
       <c r="C1274" s="89" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="D1274" s="89"/>
       <c r="E1274" s="89"/>
@@ -29032,7 +29035,7 @@
     </row>
     <row r="1277" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1277" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1277" s="88"/>
       <c r="C1277" s="88"/>
@@ -29097,7 +29100,7 @@
     </row>
     <row r="1282" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1282" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1282" s="88"/>
       <c r="C1282" s="88"/>
@@ -29205,7 +29208,7 @@
     </row>
     <row r="1290" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1290" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1290" s="88"/>
       <c r="C1290" s="88"/>
@@ -29490,7 +29493,7 @@
     </row>
     <row r="1310" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1310" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1310" s="88"/>
       <c r="C1310" s="88"/>
@@ -31348,7 +31351,12 @@
       <c r="T1425" s="91"/>
       <c r="U1425" s="91"/>
     </row>
-    <row r="1426" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1426" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1426" s="88" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B1426" s="88"/>
+      <c r="C1426" s="88"/>
       <c r="D1426" s="3" t="s">
         <v>4</v>
       </c>
@@ -31566,7 +31574,7 @@
       <c r="L1438" s="92"/>
       <c r="M1438" s="92"/>
       <c r="N1438" s="91" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="O1438" s="91"/>
       <c r="P1438" s="91"/>
@@ -31722,7 +31730,12 @@
       <c r="I1448" s="90"/>
       <c r="J1448" s="90"/>
     </row>
-    <row r="1449" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1449" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1449" s="88" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B1449" s="88"/>
+      <c r="C1449" s="88"/>
       <c r="D1449" s="3" t="s">
         <v>4</v>
       </c>
@@ -31965,46 +31978,49 @@
       <c r="T1462" s="89"/>
       <c r="U1462" s="89"/>
     </row>
-    <row r="1463" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D1463" s="1" t="s">
+    <row r="1463" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1463" s="88" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B1463" s="88"/>
+      <c r="C1463" s="88"/>
+      <c r="D1463" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1463" s="90" t="s">
+      <c r="E1463" s="92" t="s">
         <v>1250</v>
       </c>
-      <c r="F1463" s="90"/>
-      <c r="G1463" s="90"/>
-      <c r="H1463" s="90"/>
-      <c r="I1463" s="90"/>
-      <c r="J1463" s="90"/>
-      <c r="K1463" s="90"/>
-      <c r="L1463" s="90"/>
+      <c r="F1463" s="92"/>
+      <c r="G1463" s="92"/>
+      <c r="H1463" s="92"/>
+      <c r="I1463" s="92"/>
+      <c r="J1463" s="92"/>
+      <c r="K1463" s="92"/>
+      <c r="L1463" s="92"/>
     </row>
     <row r="1464" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D1464" s="3" t="s">
+      <c r="D1464" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="E1464" s="92" t="s">
+      <c r="E1464" s="145" t="s">
         <v>1251</v>
       </c>
-      <c r="F1464" s="92"/>
-      <c r="G1464" s="92"/>
-      <c r="H1464" s="92"/>
-      <c r="I1464" s="92"/>
-      <c r="J1464" s="92"/>
-      <c r="K1464" s="92"/>
-      <c r="L1464" s="92"/>
-      <c r="M1464" s="91" t="s">
-        <v>1253</v>
-      </c>
-      <c r="N1464" s="91"/>
-      <c r="O1464" s="91"/>
-      <c r="P1464" s="91"/>
-      <c r="Q1464" s="91"/>
-      <c r="R1464" s="91"/>
-      <c r="S1464" s="91"/>
-      <c r="T1464" s="91"/>
-      <c r="U1464" s="91"/>
+      <c r="F1464" s="145"/>
+      <c r="G1464" s="145"/>
+      <c r="H1464" s="145"/>
+      <c r="I1464" s="145"/>
+      <c r="J1464" s="145"/>
+      <c r="K1464" s="145"/>
+      <c r="L1464" s="145"/>
+      <c r="M1464" s="18"/>
+      <c r="N1464" s="18"/>
+      <c r="O1464" s="18"/>
+      <c r="P1464" s="18"/>
+      <c r="Q1464" s="18"/>
+      <c r="R1464" s="18"/>
+      <c r="S1464" s="18"/>
+      <c r="T1464" s="18"/>
+      <c r="U1464" s="18"/>
     </row>
     <row r="1465" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D1465" s="1" t="s">
@@ -32023,10 +32039,10 @@
     </row>
     <row r="1467" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1467" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C1467" s="89" t="s">
         <v>1254</v>
-      </c>
-      <c r="C1467" s="89" t="s">
-        <v>1255</v>
       </c>
       <c r="D1467" s="89"/>
       <c r="E1467" s="89"/>
@@ -32052,7 +32068,7 @@
         <v>3</v>
       </c>
       <c r="E1468" s="90" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="F1468" s="90"/>
       <c r="G1468" s="90"/>
@@ -32073,7 +32089,7 @@
         <v>4</v>
       </c>
       <c r="E1469" s="92" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F1469" s="92"/>
       <c r="G1469" s="92"/>
@@ -32084,7 +32100,7 @@
       <c r="L1469" s="92"/>
       <c r="M1469" s="92"/>
       <c r="N1469" s="91" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="O1469" s="91"/>
       <c r="P1469" s="91"/>
@@ -32099,7 +32115,7 @@
         <v>5</v>
       </c>
       <c r="E1470" s="90" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="F1470" s="90"/>
       <c r="G1470" s="90"/>
@@ -32112,10 +32128,10 @@
     </row>
     <row r="1472" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1472" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C1472" s="89" t="s">
         <v>1260</v>
-      </c>
-      <c r="C1472" s="89" t="s">
-        <v>1261</v>
       </c>
       <c r="D1472" s="89"/>
       <c r="E1472" s="89"/>
@@ -32136,58 +32152,63 @@
       <c r="T1472" s="89"/>
       <c r="U1472" s="89"/>
     </row>
-    <row r="1473" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D1473" s="1" t="s">
+    <row r="1473" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1473" s="88" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B1473" s="88"/>
+      <c r="C1473" s="88"/>
+      <c r="D1473" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1473" s="90" t="s">
+      <c r="E1473" s="92" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F1473" s="92"/>
+      <c r="G1473" s="92"/>
+      <c r="H1473" s="92"/>
+      <c r="I1473" s="92"/>
+      <c r="J1473" s="92"/>
+      <c r="K1473" s="92"/>
+      <c r="L1473" s="92"/>
+      <c r="M1473" s="92"/>
+      <c r="N1473" s="92"/>
+      <c r="O1473" s="92"/>
+      <c r="P1473" s="92"/>
+      <c r="Q1473" s="92"/>
+    </row>
+    <row r="1474" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D1474" s="144" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1474" s="145" t="s">
         <v>1262</v>
       </c>
-      <c r="F1473" s="90"/>
-      <c r="G1473" s="90"/>
-      <c r="H1473" s="90"/>
-      <c r="I1473" s="90"/>
-      <c r="J1473" s="90"/>
-      <c r="K1473" s="90"/>
-      <c r="L1473" s="90"/>
-      <c r="M1473" s="90"/>
-      <c r="N1473" s="90"/>
-      <c r="O1473" s="90"/>
-      <c r="P1473" s="90"/>
-      <c r="Q1473" s="90"/>
-    </row>
-    <row r="1474" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D1474" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1474" s="92" t="s">
-        <v>1263</v>
-      </c>
-      <c r="F1474" s="92"/>
-      <c r="G1474" s="92"/>
-      <c r="H1474" s="92"/>
-      <c r="I1474" s="92"/>
-      <c r="J1474" s="92"/>
-      <c r="K1474" s="92"/>
-      <c r="L1474" s="92"/>
-      <c r="M1474" s="92"/>
-      <c r="N1474" s="92"/>
-      <c r="O1474" s="92"/>
-      <c r="P1474" s="92"/>
-      <c r="Q1474" s="92"/>
+      <c r="F1474" s="145"/>
+      <c r="G1474" s="145"/>
+      <c r="H1474" s="145"/>
+      <c r="I1474" s="145"/>
+      <c r="J1474" s="145"/>
+      <c r="K1474" s="145"/>
+      <c r="L1474" s="145"/>
+      <c r="M1474" s="145"/>
+      <c r="N1474" s="145"/>
+      <c r="O1474" s="145"/>
+      <c r="P1474" s="145"/>
+      <c r="Q1474" s="145"/>
       <c r="R1474" s="91" t="s">
-        <v>1310</v>
+        <v>1860</v>
       </c>
       <c r="S1474" s="91"/>
       <c r="T1474" s="91"/>
       <c r="U1474" s="91"/>
     </row>
-    <row r="1475" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="1475" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D1475" s="50" t="s">
         <v>5</v>
       </c>
       <c r="E1475" s="103" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="F1475" s="103"/>
       <c r="G1475" s="103"/>
@@ -32202,12 +32223,12 @@
       <c r="P1475" s="103"/>
       <c r="Q1475" s="103"/>
     </row>
-    <row r="1477" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="1477" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1477" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1477" s="89" t="s">
         <v>1265</v>
-      </c>
-      <c r="C1477" s="89" t="s">
-        <v>1266</v>
       </c>
       <c r="D1477" s="89"/>
       <c r="E1477" s="89"/>
@@ -32228,12 +32249,17 @@
       <c r="T1477" s="89"/>
       <c r="U1477" s="89"/>
     </row>
-    <row r="1478" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="1478" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1478" s="88" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B1478" s="88"/>
+      <c r="C1478" s="88"/>
       <c r="D1478" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1478" s="92" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="F1478" s="92"/>
       <c r="G1478" s="92"/>
@@ -32249,17 +32275,17 @@
       <c r="Q1478" s="92"/>
       <c r="R1478" s="92"/>
       <c r="S1478" s="91" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="T1478" s="91"/>
       <c r="U1478" s="91"/>
     </row>
-    <row r="1479" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="1479" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D1479" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1479" s="90" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="F1479" s="90"/>
       <c r="G1479" s="90"/>
@@ -32275,12 +32301,12 @@
       <c r="Q1479" s="90"/>
       <c r="R1479" s="90"/>
     </row>
-    <row r="1480" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="1480" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D1480" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E1480" s="90" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="F1480" s="90"/>
       <c r="G1480" s="90"/>
@@ -32296,12 +32322,12 @@
       <c r="Q1480" s="90"/>
       <c r="R1480" s="90"/>
     </row>
-    <row r="1482" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="1482" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1482" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C1482" s="100" t="s">
         <v>1271</v>
-      </c>
-      <c r="C1482" s="100" t="s">
-        <v>1272</v>
       </c>
       <c r="D1482" s="89"/>
       <c r="E1482" s="89"/>
@@ -32322,16 +32348,21 @@
       <c r="T1482" s="89"/>
       <c r="U1482" s="89"/>
     </row>
-    <row r="1483" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="1483" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1483" s="88" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B1483" s="88"/>
+      <c r="C1483" s="88"/>
       <c r="D1483" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1483" s="92" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="F1483" s="92"/>
       <c r="G1483" s="91" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H1483" s="91"/>
       <c r="I1483" s="91"/>
@@ -32348,25 +32379,25 @@
       <c r="T1483" s="91"/>
       <c r="U1483" s="91"/>
     </row>
-    <row r="1484" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="1484" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D1484" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1484" s="90" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F1484" s="90"/>
     </row>
-    <row r="1485" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="1485" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D1485" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E1485" s="90" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F1485" s="90"/>
     </row>
-    <row r="1486" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="1486" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D1486" s="50" t="s">
         <v>10</v>
       </c>
@@ -32390,12 +32421,12 @@
       <c r="T1486" s="91"/>
       <c r="U1486" s="91"/>
     </row>
-    <row r="1488" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="1488" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1488" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C1488" s="89" t="s">
         <v>1276</v>
-      </c>
-      <c r="C1488" s="89" t="s">
-        <v>1277</v>
       </c>
       <c r="D1488" s="89"/>
       <c r="E1488" s="89"/>
@@ -32421,7 +32452,7 @@
         <v>3</v>
       </c>
       <c r="E1489" s="90" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="F1489" s="90"/>
       <c r="G1489" s="90"/>
@@ -32439,7 +32470,7 @@
         <v>4</v>
       </c>
       <c r="E1490" s="92" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="F1490" s="92"/>
       <c r="G1490" s="92"/>
@@ -32447,7 +32478,7 @@
       <c r="I1490" s="92"/>
       <c r="J1490" s="92"/>
       <c r="K1490" s="91" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="L1490" s="91"/>
       <c r="M1490" s="91"/>
@@ -32465,7 +32496,7 @@
         <v>5</v>
       </c>
       <c r="E1491" s="90" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F1491" s="90"/>
       <c r="G1491" s="90"/>
@@ -32475,10 +32506,10 @@
     </row>
     <row r="1493" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1493" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1493" s="89" t="s">
         <v>1282</v>
-      </c>
-      <c r="C1493" s="89" t="s">
-        <v>1283</v>
       </c>
       <c r="D1493" s="89"/>
       <c r="E1493" s="89"/>
@@ -32504,7 +32535,7 @@
         <v>3</v>
       </c>
       <c r="E1494" s="135" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F1494" s="135"/>
       <c r="G1494" s="135"/>
@@ -32533,7 +32564,7 @@
         <v>4</v>
       </c>
       <c r="E1495" s="92" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="F1495" s="92"/>
       <c r="G1495" s="92"/>
@@ -32544,7 +32575,7 @@
       <c r="L1495" s="92"/>
       <c r="M1495" s="92"/>
       <c r="N1495" s="91" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="O1495" s="91"/>
       <c r="P1495" s="91"/>
@@ -32559,7 +32590,7 @@
         <v>5</v>
       </c>
       <c r="E1496" s="90" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="F1496" s="90"/>
       <c r="G1496" s="90"/>
@@ -32572,10 +32603,10 @@
     </row>
     <row r="1498" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1498" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C1498" s="89" t="s">
         <v>1288</v>
-      </c>
-      <c r="C1498" s="89" t="s">
-        <v>1289</v>
       </c>
       <c r="D1498" s="89"/>
       <c r="E1498" s="89"/>
@@ -32606,7 +32637,7 @@
         <v>3</v>
       </c>
       <c r="E1499" s="92" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="F1499" s="92"/>
       <c r="G1499" s="92"/>
@@ -32620,7 +32651,7 @@
       <c r="O1499" s="92"/>
       <c r="P1499" s="92"/>
       <c r="Q1499" s="91" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="R1499" s="91"/>
       <c r="S1499" s="91"/>
@@ -32632,7 +32663,7 @@
         <v>4</v>
       </c>
       <c r="E1500" s="90" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="F1500" s="90"/>
       <c r="G1500" s="90"/>
@@ -32651,7 +32682,7 @@
         <v>5</v>
       </c>
       <c r="E1501" s="90" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="F1501" s="90"/>
       <c r="G1501" s="90"/>
@@ -32667,10 +32698,10 @@
     </row>
     <row r="1503" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1503" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C1503" s="89" t="s">
         <v>1293</v>
-      </c>
-      <c r="C1503" s="89" t="s">
-        <v>1294</v>
       </c>
       <c r="D1503" s="89"/>
       <c r="E1503" s="89"/>
@@ -32696,7 +32727,7 @@
         <v>3</v>
       </c>
       <c r="E1504" s="90" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="F1504" s="90"/>
       <c r="G1504" s="90"/>
@@ -32717,7 +32748,7 @@
         <v>4</v>
       </c>
       <c r="E1505" s="92" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F1505" s="92"/>
       <c r="G1505" s="92"/>
@@ -32728,7 +32759,7 @@
       <c r="L1505" s="92"/>
       <c r="M1505" s="92"/>
       <c r="N1505" s="91" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="O1505" s="91"/>
       <c r="P1505" s="91"/>
@@ -32743,7 +32774,7 @@
         <v>5</v>
       </c>
       <c r="E1506" s="90" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="F1506" s="90"/>
       <c r="G1506" s="90"/>
@@ -32759,7 +32790,7 @@
         <v>10</v>
       </c>
       <c r="E1507" s="90" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F1507" s="90"/>
       <c r="G1507" s="90"/>
@@ -32772,10 +32803,10 @@
     </row>
     <row r="1509" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1509" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C1509" s="89" t="s">
         <v>1300</v>
-      </c>
-      <c r="C1509" s="89" t="s">
-        <v>1301</v>
       </c>
       <c r="D1509" s="89"/>
       <c r="E1509" s="89"/>
@@ -32801,7 +32832,7 @@
         <v>3</v>
       </c>
       <c r="E1510" s="90" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F1510" s="90"/>
       <c r="G1510" s="90"/>
@@ -32811,7 +32842,7 @@
         <v>4</v>
       </c>
       <c r="E1511" s="90" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="F1511" s="90"/>
       <c r="G1511" s="90"/>
@@ -32826,12 +32857,12 @@
         <v>5</v>
       </c>
       <c r="E1512" s="92" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F1512" s="92"/>
       <c r="G1512" s="92"/>
       <c r="H1512" s="91" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="I1512" s="91"/>
       <c r="J1512" s="91"/>
@@ -32852,22 +32883,22 @@
         <v>10</v>
       </c>
       <c r="E1513" s="90" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="F1513" s="90"/>
       <c r="G1513" s="90"/>
     </row>
     <row r="1515" spans="1:21" s="98" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1515" s="98" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1517" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1517" s="2" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C1517" s="89" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D1517" s="89"/>
       <c r="E1517" s="89"/>
@@ -32893,7 +32924,7 @@
         <v>3</v>
       </c>
       <c r="E1518" s="90" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="F1518" s="90"/>
       <c r="G1518" s="90"/>
@@ -32906,7 +32937,7 @@
         <v>4</v>
       </c>
       <c r="E1519" s="92" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="F1519" s="92"/>
       <c r="G1519" s="92"/>
@@ -32914,7 +32945,7 @@
       <c r="I1519" s="92"/>
       <c r="J1519" s="92"/>
       <c r="K1519" s="91" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="L1519" s="91"/>
       <c r="M1519" s="91"/>
@@ -32932,7 +32963,7 @@
         <v>5</v>
       </c>
       <c r="E1520" s="90" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="F1520" s="90"/>
       <c r="G1520" s="90"/>
@@ -32942,10 +32973,10 @@
     </row>
     <row r="1522" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1522" s="2" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C1522" s="89" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="D1522" s="89"/>
       <c r="E1522" s="89"/>
@@ -32971,7 +33002,7 @@
         <v>3</v>
       </c>
       <c r="E1523" s="48" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="1524" spans="2:21" x14ac:dyDescent="0.25">
@@ -32979,7 +33010,7 @@
         <v>4</v>
       </c>
       <c r="E1524" s="49" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="F1524" s="91" t="s">
         <v>782</v>
@@ -33005,15 +33036,15 @@
         <v>5</v>
       </c>
       <c r="E1525" s="48" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1527" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1527" s="2" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C1527" s="89" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="D1527" s="89"/>
       <c r="E1527" s="89"/>
@@ -33039,7 +33070,7 @@
         <v>3</v>
       </c>
       <c r="E1528" s="59" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="F1528" s="18"/>
       <c r="G1528" s="18"/>
@@ -33063,7 +33094,7 @@
         <v>4</v>
       </c>
       <c r="E1529" s="48" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="1530" spans="2:21" x14ac:dyDescent="0.25">
@@ -33071,7 +33102,7 @@
         <v>5</v>
       </c>
       <c r="E1530" s="54" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="F1530" s="91" t="s">
         <v>1192</v>
@@ -33094,10 +33125,10 @@
     </row>
     <row r="1532" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1532" s="2" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C1532" s="89" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="D1532" s="89"/>
       <c r="E1532" s="89"/>
@@ -33139,7 +33170,7 @@
         <v>4</v>
       </c>
       <c r="E1534" s="93" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="F1534" s="92"/>
       <c r="G1534" s="92"/>
@@ -33150,7 +33181,7 @@
       <c r="L1534" s="92"/>
       <c r="M1534" s="92"/>
       <c r="N1534" s="91" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="O1534" s="91"/>
       <c r="P1534" s="91"/>
@@ -33185,7 +33216,7 @@
         <v>5</v>
       </c>
       <c r="E1536" s="95" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="F1536" s="90"/>
       <c r="G1536" s="90"/>
@@ -33210,10 +33241,10 @@
     </row>
     <row r="1539" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1539" s="2" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C1539" s="89" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="D1539" s="89"/>
       <c r="E1539" s="89"/>
@@ -33239,7 +33270,7 @@
         <v>3</v>
       </c>
       <c r="E1540" s="90" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="F1540" s="90"/>
       <c r="G1540" s="90"/>
@@ -33255,7 +33286,7 @@
         <v>4</v>
       </c>
       <c r="E1541" s="93" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="F1541" s="92"/>
       <c r="G1541" s="92"/>
@@ -33266,7 +33297,7 @@
       <c r="L1541" s="92"/>
       <c r="M1541" s="92"/>
       <c r="N1541" s="91" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="O1541" s="91"/>
       <c r="P1541" s="91"/>
@@ -33293,7 +33324,7 @@
         <v>5</v>
       </c>
       <c r="E1543" s="95" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="F1543" s="95"/>
       <c r="G1543" s="95"/>
@@ -33318,10 +33349,10 @@
     </row>
     <row r="1546" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1546" s="2" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="C1546" s="89" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="D1546" s="89"/>
       <c r="E1546" s="89"/>
@@ -33347,14 +33378,14 @@
         <v>3</v>
       </c>
       <c r="E1547" s="92" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="F1547" s="92"/>
       <c r="G1547" s="92"/>
       <c r="H1547" s="92"/>
       <c r="I1547" s="92"/>
       <c r="J1547" s="91" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="K1547" s="91"/>
       <c r="L1547" s="91"/>
@@ -33373,7 +33404,7 @@
         <v>4</v>
       </c>
       <c r="E1548" s="90" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="F1548" s="90"/>
       <c r="G1548" s="90"/>
@@ -33385,7 +33416,7 @@
         <v>5</v>
       </c>
       <c r="E1549" s="90" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="F1549" s="90"/>
       <c r="G1549" s="90"/>
@@ -33394,10 +33425,10 @@
     </row>
     <row r="1551" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1551" s="2" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="C1551" s="89" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="D1551" s="89"/>
       <c r="E1551" s="89"/>
@@ -33423,7 +33454,7 @@
         <v>3</v>
       </c>
       <c r="E1552" s="92" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="F1552" s="92"/>
       <c r="G1552" s="92"/>
@@ -33432,7 +33463,7 @@
       <c r="J1552" s="92"/>
       <c r="K1552" s="92"/>
       <c r="L1552" s="91" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="M1552" s="91"/>
       <c r="N1552" s="91"/>
@@ -33449,7 +33480,7 @@
         <v>4</v>
       </c>
       <c r="E1553" s="90" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="F1553" s="90"/>
       <c r="G1553" s="90"/>
@@ -33463,7 +33494,7 @@
         <v>5</v>
       </c>
       <c r="E1554" s="90" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="F1554" s="90"/>
       <c r="G1554" s="90"/>
@@ -33477,7 +33508,7 @@
         <v>10</v>
       </c>
       <c r="E1555" s="90" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="F1555" s="90"/>
       <c r="G1555" s="90"/>
@@ -33488,10 +33519,10 @@
     </row>
     <row r="1557" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1557" s="2" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C1557" s="89" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="D1557" s="89"/>
       <c r="E1557" s="89"/>
@@ -33517,7 +33548,7 @@
         <v>3</v>
       </c>
       <c r="E1558" s="90" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="F1558" s="90"/>
       <c r="G1558" s="90"/>
@@ -33529,7 +33560,7 @@
         <v>4</v>
       </c>
       <c r="E1559" s="90" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="F1559" s="90"/>
       <c r="G1559" s="90"/>
@@ -33541,7 +33572,7 @@
         <v>5</v>
       </c>
       <c r="E1560" s="90" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="F1560" s="90"/>
       <c r="G1560" s="90"/>
@@ -33560,7 +33591,7 @@
       <c r="H1561" s="92"/>
       <c r="I1561" s="92"/>
       <c r="J1561" s="91" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="K1561" s="91"/>
       <c r="L1561" s="91"/>
@@ -33588,10 +33619,10 @@
     </row>
     <row r="1564" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1564" s="2" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C1564" s="89" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="D1564" s="89"/>
       <c r="E1564" s="89"/>
@@ -33617,7 +33648,7 @@
         <v>3</v>
       </c>
       <c r="E1565" s="90" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="F1565" s="90"/>
       <c r="G1565" s="90"/>
@@ -33629,7 +33660,7 @@
         <v>4</v>
       </c>
       <c r="E1566" s="90" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="F1566" s="90"/>
       <c r="G1566" s="90"/>
@@ -33641,14 +33672,14 @@
         <v>5</v>
       </c>
       <c r="E1567" s="92" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="F1567" s="92"/>
       <c r="G1567" s="92"/>
       <c r="H1567" s="92"/>
       <c r="I1567" s="92"/>
       <c r="J1567" s="91" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="K1567" s="91"/>
       <c r="L1567" s="91"/>
@@ -33688,10 +33719,10 @@
     </row>
     <row r="1571" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1571" s="2" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="C1571" s="89" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="D1571" s="89"/>
       <c r="E1571" s="89"/>
@@ -33717,12 +33748,12 @@
         <v>3</v>
       </c>
       <c r="E1572" s="92" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="F1572" s="92"/>
       <c r="G1572" s="92"/>
       <c r="H1572" s="91" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I1572" s="91"/>
       <c r="J1572" s="91"/>
@@ -33743,7 +33774,7 @@
         <v>4</v>
       </c>
       <c r="E1573" s="90" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="F1573" s="90"/>
       <c r="G1573" s="90"/>
@@ -33753,17 +33784,17 @@
         <v>5</v>
       </c>
       <c r="E1574" s="90" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="F1574" s="90"/>
       <c r="G1574" s="90"/>
     </row>
     <row r="1576" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1576" s="2" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="C1576" s="89" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="D1576" s="89"/>
       <c r="E1576" s="89"/>
@@ -33789,11 +33820,11 @@
         <v>3</v>
       </c>
       <c r="E1577" s="92" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="F1577" s="92"/>
       <c r="G1577" s="91" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="H1577" s="91"/>
       <c r="I1577" s="91"/>
@@ -33815,7 +33846,7 @@
         <v>4</v>
       </c>
       <c r="E1578" s="90" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="F1578" s="90"/>
     </row>
@@ -33824,7 +33855,7 @@
         <v>5</v>
       </c>
       <c r="E1579" s="90" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="F1579" s="90"/>
     </row>
@@ -33833,16 +33864,16 @@
         <v>10</v>
       </c>
       <c r="E1580" s="90" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="F1580" s="90"/>
     </row>
     <row r="1582" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1582" s="2" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C1582" s="89" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="D1582" s="89"/>
       <c r="E1582" s="89"/>
@@ -33868,11 +33899,11 @@
         <v>3</v>
       </c>
       <c r="E1583" s="92" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="F1583" s="92"/>
       <c r="G1583" s="91" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="H1583" s="91"/>
       <c r="I1583" s="91"/>
@@ -33894,7 +33925,7 @@
         <v>4</v>
       </c>
       <c r="E1584" s="90" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="F1584" s="90"/>
     </row>
@@ -33903,16 +33934,16 @@
         <v>5</v>
       </c>
       <c r="E1585" s="90" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="F1585" s="90"/>
     </row>
     <row r="1587" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1587" s="2" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C1587" s="89" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="D1587" s="89"/>
       <c r="E1587" s="89"/>
@@ -33938,7 +33969,7 @@
         <v>3</v>
       </c>
       <c r="E1588" s="90" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="F1588" s="90"/>
       <c r="G1588" s="90"/>
@@ -33958,7 +33989,7 @@
         <v>4</v>
       </c>
       <c r="E1589" s="92" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="F1589" s="92"/>
       <c r="G1589" s="92"/>
@@ -33973,7 +34004,7 @@
       <c r="P1589" s="92"/>
       <c r="Q1589" s="92"/>
       <c r="R1589" s="91" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="S1589" s="91"/>
       <c r="T1589" s="91"/>
@@ -33984,7 +34015,7 @@
         <v>5</v>
       </c>
       <c r="E1590" s="90" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="F1590" s="90"/>
       <c r="G1590" s="90"/>
@@ -34001,10 +34032,10 @@
     </row>
     <row r="1592" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1592" s="2" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C1592" s="100" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="D1592" s="89"/>
       <c r="E1592" s="89"/>
@@ -34030,7 +34061,7 @@
         <v>3</v>
       </c>
       <c r="E1593" s="90" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="F1593" s="90"/>
       <c r="G1593" s="90"/>
@@ -34052,7 +34083,7 @@
         <v>4</v>
       </c>
       <c r="E1594" s="90" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="F1594" s="90"/>
       <c r="G1594" s="90"/>
@@ -34074,7 +34105,7 @@
         <v>5</v>
       </c>
       <c r="E1595" s="92" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="F1595" s="92"/>
       <c r="G1595" s="92"/>
@@ -34097,10 +34128,10 @@
     </row>
     <row r="1597" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1597" s="2" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="C1597" s="89" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="D1597" s="89"/>
       <c r="E1597" s="89"/>
@@ -34126,7 +34157,7 @@
         <v>3</v>
       </c>
       <c r="E1598" s="90" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="F1598" s="90"/>
       <c r="G1598" s="90"/>
@@ -34142,7 +34173,7 @@
         <v>4</v>
       </c>
       <c r="E1599" s="90" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="F1599" s="90"/>
       <c r="G1599" s="90"/>
@@ -34158,7 +34189,7 @@
         <v>5</v>
       </c>
       <c r="E1600" s="93" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="F1600" s="93"/>
       <c r="G1600" s="93"/>
@@ -34169,7 +34200,7 @@
       <c r="L1600" s="93"/>
       <c r="M1600" s="93"/>
       <c r="N1600" s="91" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="O1600" s="91"/>
       <c r="P1600" s="91"/>
@@ -34201,10 +34232,10 @@
     </row>
     <row r="1603" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1603" s="2" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="C1603" s="89" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="D1603" s="89"/>
       <c r="E1603" s="89"/>
@@ -34230,7 +34261,7 @@
         <v>3</v>
       </c>
       <c r="E1604" s="93" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="F1604" s="92"/>
       <c r="G1604" s="92"/>
@@ -34276,7 +34307,7 @@
         <v>4</v>
       </c>
       <c r="E1606" s="95" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="F1606" s="90"/>
       <c r="G1606" s="90"/>
@@ -34304,7 +34335,7 @@
         <v>5</v>
       </c>
       <c r="E1608" s="95" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="F1608" s="90"/>
       <c r="G1608" s="90"/>
@@ -34332,7 +34363,7 @@
         <v>10</v>
       </c>
       <c r="E1610" s="95" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="F1610" s="90"/>
       <c r="G1610" s="90"/>
@@ -34357,10 +34388,10 @@
     </row>
     <row r="1613" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1613" s="2" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="C1613" s="89" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="D1613" s="89"/>
       <c r="E1613" s="89"/>
@@ -34386,7 +34417,7 @@
         <v>3</v>
       </c>
       <c r="E1614" s="90" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="F1614" s="90"/>
       <c r="G1614" s="90"/>
@@ -34396,7 +34427,7 @@
         <v>4</v>
       </c>
       <c r="E1615" s="90" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="F1615" s="90"/>
       <c r="G1615" s="90"/>
@@ -34406,7 +34437,7 @@
         <v>5</v>
       </c>
       <c r="E1616" s="90" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F1616" s="90"/>
       <c r="G1616" s="90"/>
@@ -34416,12 +34447,12 @@
         <v>10</v>
       </c>
       <c r="E1617" s="92" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="F1617" s="92"/>
       <c r="G1617" s="92"/>
       <c r="H1617" s="91" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="I1617" s="91"/>
       <c r="J1617" s="91"/>
@@ -34439,10 +34470,10 @@
     </row>
     <row r="1619" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1619" s="2" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="C1619" s="89" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="D1619" s="89"/>
       <c r="E1619" s="89"/>
@@ -34468,7 +34499,7 @@
         <v>3</v>
       </c>
       <c r="E1620" s="90" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="F1620" s="90"/>
       <c r="G1620" s="90"/>
@@ -34484,7 +34515,7 @@
         <v>4</v>
       </c>
       <c r="E1621" s="90" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F1621" s="90"/>
       <c r="G1621" s="90"/>
@@ -34500,7 +34531,7 @@
         <v>5</v>
       </c>
       <c r="E1622" s="92" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="F1622" s="92"/>
       <c r="G1622" s="92"/>
@@ -34511,7 +34542,7 @@
       <c r="L1622" s="92"/>
       <c r="M1622" s="92"/>
       <c r="N1622" s="91" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="O1622" s="91"/>
       <c r="P1622" s="91"/>
@@ -34526,7 +34557,7 @@
         <v>10</v>
       </c>
       <c r="E1623" s="90" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="F1623" s="90"/>
       <c r="G1623" s="90"/>
@@ -34539,10 +34570,10 @@
     </row>
     <row r="1625" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1625" s="2" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="C1625" s="89" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="D1625" s="89"/>
       <c r="E1625" s="89"/>
@@ -34568,11 +34599,11 @@
         <v>3</v>
       </c>
       <c r="E1626" s="96" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="F1626" s="96"/>
       <c r="G1626" s="91" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="H1626" s="91"/>
       <c r="I1626" s="91"/>
@@ -34594,7 +34625,7 @@
         <v>4</v>
       </c>
       <c r="E1627" s="99" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="F1627" s="99"/>
       <c r="G1627" s="90"/>
@@ -34618,16 +34649,16 @@
         <v>5</v>
       </c>
       <c r="E1628" s="90" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="F1628" s="90"/>
     </row>
     <row r="1630" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1630" s="2" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="C1630" s="89" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="D1630" s="89"/>
       <c r="E1630" s="89"/>
@@ -34653,11 +34684,11 @@
         <v>3</v>
       </c>
       <c r="E1631" s="96" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="F1631" s="96"/>
       <c r="G1631" s="90" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="H1631" s="90"/>
       <c r="I1631" s="90"/>
@@ -34678,7 +34709,7 @@
         <v>4</v>
       </c>
       <c r="E1632" s="90" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="F1632" s="90"/>
     </row>
@@ -34687,16 +34718,16 @@
         <v>5</v>
       </c>
       <c r="E1633" s="90" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="F1633" s="90"/>
     </row>
     <row r="1635" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1635" s="2" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="C1635" s="89" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="D1635" s="89"/>
       <c r="E1635" s="89"/>
@@ -34722,7 +34753,7 @@
         <v>3</v>
       </c>
       <c r="E1636" s="56" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="F1636" s="90" t="s">
         <v>755</v>
@@ -34748,7 +34779,7 @@
         <v>4</v>
       </c>
       <c r="E1637" s="55" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1638" spans="1:21" x14ac:dyDescent="0.25">
@@ -34756,7 +34787,7 @@
         <v>5</v>
       </c>
       <c r="E1638" s="55" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="1639" spans="1:21" x14ac:dyDescent="0.25">
@@ -34764,20 +34795,20 @@
         <v>10</v>
       </c>
       <c r="E1639" s="55" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="1641" spans="1:21" s="98" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1641" s="98" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="1643" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1643" s="2" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="C1643" s="89" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="D1643" s="89"/>
       <c r="E1643" s="89"/>
@@ -34803,7 +34834,7 @@
         <v>3</v>
       </c>
       <c r="E1644" s="90" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="F1644" s="90"/>
       <c r="G1644" s="90"/>
@@ -34818,7 +34849,7 @@
         <v>4</v>
       </c>
       <c r="E1645" s="92" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="F1645" s="92"/>
       <c r="G1645" s="92"/>
@@ -34828,7 +34859,7 @@
       <c r="K1645" s="92"/>
       <c r="L1645" s="92"/>
       <c r="M1645" s="91" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="N1645" s="91"/>
       <c r="O1645" s="91"/>
@@ -34844,7 +34875,7 @@
         <v>5</v>
       </c>
       <c r="E1646" s="90" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="F1646" s="90"/>
       <c r="G1646" s="90"/>
@@ -34856,10 +34887,10 @@
     </row>
     <row r="1648" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1648" s="2" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="C1648" s="89" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="D1648" s="89"/>
       <c r="E1648" s="89"/>
@@ -34885,12 +34916,12 @@
         <v>3</v>
       </c>
       <c r="E1649" s="92" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="F1649" s="92"/>
       <c r="G1649" s="92"/>
       <c r="H1649" s="91" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="I1649" s="91"/>
       <c r="J1649" s="91"/>
@@ -34911,7 +34942,7 @@
         <v>4</v>
       </c>
       <c r="E1650" s="90" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="F1650" s="90"/>
       <c r="G1650" s="90"/>
@@ -34921,17 +34952,17 @@
         <v>5</v>
       </c>
       <c r="E1651" s="90" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="F1651" s="90"/>
       <c r="G1651" s="90"/>
     </row>
     <row r="1653" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1653" s="2" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="C1653" s="89" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="D1653" s="89"/>
       <c r="E1653" s="89"/>
@@ -34957,7 +34988,7 @@
         <v>3</v>
       </c>
       <c r="E1654" s="90" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="F1654" s="90"/>
       <c r="G1654" s="90"/>
@@ -34975,7 +35006,7 @@
         <v>4</v>
       </c>
       <c r="E1655" s="92" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="F1655" s="92"/>
       <c r="G1655" s="92"/>
@@ -34988,7 +35019,7 @@
       <c r="N1655" s="92"/>
       <c r="O1655" s="92"/>
       <c r="P1655" s="91" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="Q1655" s="91"/>
       <c r="R1655" s="91"/>
@@ -35001,7 +35032,7 @@
         <v>5</v>
       </c>
       <c r="E1656" s="90" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="F1656" s="90"/>
       <c r="G1656" s="90"/>
@@ -35016,10 +35047,10 @@
     </row>
     <row r="1658" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1658" s="2" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="C1658" s="89" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="D1658" s="89"/>
       <c r="E1658" s="89"/>
@@ -35045,7 +35076,7 @@
         <v>3</v>
       </c>
       <c r="E1659" s="90" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="F1659" s="90"/>
       <c r="G1659" s="90"/>
@@ -35055,7 +35086,7 @@
         <v>4</v>
       </c>
       <c r="E1660" s="90" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="F1660" s="90"/>
       <c r="G1660" s="90"/>
@@ -35065,12 +35096,12 @@
         <v>5</v>
       </c>
       <c r="E1661" s="92" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="F1661" s="92"/>
       <c r="G1661" s="92"/>
       <c r="H1661" s="91" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="I1661" s="90"/>
       <c r="J1661" s="90"/>
@@ -35088,10 +35119,10 @@
     </row>
     <row r="1663" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1663" s="2" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="C1663" s="129" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="D1663" s="129"/>
       <c r="E1663" s="129"/>
@@ -35117,12 +35148,12 @@
         <v>3</v>
       </c>
       <c r="E1664" s="92" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="F1664" s="92"/>
       <c r="G1664" s="92"/>
       <c r="H1664" s="91" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="I1664" s="90"/>
       <c r="J1664" s="90"/>
@@ -35143,7 +35174,7 @@
         <v>4</v>
       </c>
       <c r="E1665" s="90" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="F1665" s="90"/>
       <c r="G1665" s="90"/>
@@ -35153,17 +35184,17 @@
         <v>5</v>
       </c>
       <c r="E1666" s="90" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="F1666" s="90"/>
       <c r="G1666" s="90"/>
     </row>
     <row r="1668" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1668" s="2" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="C1668" s="89" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="D1668" s="89"/>
       <c r="E1668" s="89"/>
@@ -35200,7 +35231,7 @@
         <v>2</v>
       </c>
       <c r="F1670" s="91" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="G1670" s="91"/>
       <c r="H1670" s="91"/>
@@ -35220,10 +35251,10 @@
     </row>
     <row r="1672" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1672" s="2" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="C1672" s="89" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D1672" s="89"/>
       <c r="E1672" s="89"/>
@@ -35252,7 +35283,7 @@
         <v>1</v>
       </c>
       <c r="F1673" s="91" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="G1673" s="91"/>
       <c r="H1673" s="91"/>
@@ -35280,10 +35311,10 @@
     </row>
     <row r="1676" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1676" s="2" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="C1676" s="89" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D1676" s="89"/>
       <c r="E1676" s="89"/>
@@ -35309,7 +35340,7 @@
         <v>3</v>
       </c>
       <c r="E1677" s="90" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="F1677" s="90"/>
       <c r="G1677" s="90"/>
@@ -35324,7 +35355,7 @@
         <v>4</v>
       </c>
       <c r="E1678" s="92" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="F1678" s="92"/>
       <c r="G1678" s="92"/>
@@ -35334,7 +35365,7 @@
       <c r="K1678" s="92"/>
       <c r="L1678" s="92"/>
       <c r="M1678" s="91" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="N1678" s="91"/>
       <c r="O1678" s="91"/>
@@ -35350,7 +35381,7 @@
         <v>5</v>
       </c>
       <c r="E1679" s="90" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="F1679" s="90"/>
       <c r="G1679" s="90"/>
@@ -35362,10 +35393,10 @@
     </row>
     <row r="1681" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1681" s="2" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="C1681" s="89" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="D1681" s="89"/>
       <c r="E1681" s="89"/>
@@ -35391,7 +35422,7 @@
         <v>3</v>
       </c>
       <c r="E1682" s="90" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="F1682" s="90"/>
       <c r="G1682" s="90"/>
@@ -35401,12 +35432,12 @@
         <v>4</v>
       </c>
       <c r="E1683" s="92" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="F1683" s="92"/>
       <c r="G1683" s="92"/>
       <c r="H1683" s="91" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="I1683" s="91"/>
       <c r="J1683" s="91"/>
@@ -35427,17 +35458,17 @@
         <v>5</v>
       </c>
       <c r="E1684" s="90" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="F1684" s="90"/>
       <c r="G1684" s="90"/>
     </row>
     <row r="1686" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1686" s="2" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="C1686" s="89" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="D1686" s="89"/>
       <c r="E1686" s="89"/>
@@ -35463,7 +35494,7 @@
         <v>3</v>
       </c>
       <c r="E1687" s="90" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="F1687" s="90"/>
       <c r="G1687" s="90"/>
@@ -35480,7 +35511,7 @@
         <v>4</v>
       </c>
       <c r="E1688" s="92" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="F1688" s="92"/>
       <c r="G1688" s="92"/>
@@ -35492,7 +35523,7 @@
       <c r="M1688" s="92"/>
       <c r="N1688" s="92"/>
       <c r="O1688" s="91" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="P1688" s="91"/>
       <c r="Q1688" s="91"/>
@@ -35506,7 +35537,7 @@
         <v>5</v>
       </c>
       <c r="E1689" s="90" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="F1689" s="90"/>
       <c r="G1689" s="90"/>
@@ -35523,7 +35554,7 @@
         <v>10</v>
       </c>
       <c r="E1690" s="97" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="F1690" s="97"/>
       <c r="G1690" s="97"/>
@@ -35537,10 +35568,10 @@
     </row>
     <row r="1692" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1692" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C1692" s="89" t="s">
         <v>1466</v>
-      </c>
-      <c r="C1692" s="89" t="s">
-        <v>1468</v>
       </c>
       <c r="D1692" s="89"/>
       <c r="E1692" s="89"/>
@@ -35566,7 +35597,7 @@
         <v>3</v>
       </c>
       <c r="E1693" s="90" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="F1693" s="90"/>
       <c r="G1693" s="90"/>
@@ -35583,7 +35614,7 @@
         <v>4</v>
       </c>
       <c r="E1694" s="90" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="F1694" s="90"/>
       <c r="G1694" s="90"/>
@@ -35600,7 +35631,7 @@
         <v>5</v>
       </c>
       <c r="E1695" s="90" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="F1695" s="90"/>
       <c r="G1695" s="90"/>
@@ -35617,7 +35648,7 @@
         <v>10</v>
       </c>
       <c r="E1696" s="92" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="F1696" s="92"/>
       <c r="G1696" s="92"/>
@@ -35629,7 +35660,7 @@
       <c r="M1696" s="92"/>
       <c r="N1696" s="92"/>
       <c r="O1696" s="91" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="P1696" s="91"/>
       <c r="Q1696" s="91"/>
@@ -35640,10 +35671,10 @@
     </row>
     <row r="1698" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1698" s="2" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="C1698" s="89" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="D1698" s="89"/>
       <c r="E1698" s="89"/>
@@ -35669,7 +35700,7 @@
         <v>3</v>
       </c>
       <c r="E1699" s="90" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="F1699" s="90"/>
       <c r="G1699" s="90"/>
@@ -35686,7 +35717,7 @@
         <v>4</v>
       </c>
       <c r="E1700" s="92" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="F1700" s="92"/>
       <c r="G1700" s="92"/>
@@ -35698,7 +35729,7 @@
       <c r="M1700" s="92"/>
       <c r="N1700" s="92"/>
       <c r="O1700" s="91" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="P1700" s="91"/>
       <c r="Q1700" s="91"/>
@@ -35712,7 +35743,7 @@
         <v>5</v>
       </c>
       <c r="E1701" s="90" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="F1701" s="90"/>
       <c r="G1701" s="90"/>
@@ -35726,10 +35757,10 @@
     </row>
     <row r="1703" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1703" s="2" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="C1703" s="89" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="D1703" s="89"/>
       <c r="E1703" s="89"/>
@@ -35755,7 +35786,7 @@
         <v>3</v>
       </c>
       <c r="E1704" s="92" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="F1704" s="92"/>
       <c r="G1704" s="92"/>
@@ -35766,22 +35797,22 @@
       <c r="L1704" s="92"/>
       <c r="M1704" s="92"/>
       <c r="N1704" s="92"/>
-      <c r="O1704" s="91" t="s">
-        <v>1479</v>
-      </c>
-      <c r="P1704" s="91"/>
-      <c r="Q1704" s="91"/>
-      <c r="R1704" s="91"/>
-      <c r="S1704" s="91"/>
-      <c r="T1704" s="91"/>
-      <c r="U1704" s="91"/>
+      <c r="O1704" s="88" t="s">
+        <v>1477</v>
+      </c>
+      <c r="P1704" s="88"/>
+      <c r="Q1704" s="88"/>
+      <c r="R1704" s="88"/>
+      <c r="S1704" s="88"/>
+      <c r="T1704" s="88"/>
+      <c r="U1704" s="88"/>
     </row>
     <row r="1705" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D1705" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1705" s="90" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="F1705" s="90"/>
       <c r="G1705" s="90"/>
@@ -35798,7 +35829,7 @@
         <v>5</v>
       </c>
       <c r="E1706" s="90" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="F1706" s="90"/>
       <c r="G1706" s="90"/>
@@ -35812,10 +35843,10 @@
     </row>
     <row r="1708" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1708" s="2" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="C1708" s="89" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="D1708" s="89"/>
       <c r="E1708" s="89"/>
@@ -35841,7 +35872,7 @@
         <v>3</v>
       </c>
       <c r="E1709" s="90" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="F1709" s="90"/>
       <c r="G1709" s="90"/>
@@ -35859,7 +35890,7 @@
         <v>4</v>
       </c>
       <c r="E1710" s="92" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="F1710" s="92"/>
       <c r="G1710" s="92"/>
@@ -35872,7 +35903,7 @@
       <c r="N1710" s="92"/>
       <c r="O1710" s="92"/>
       <c r="P1710" s="88" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="Q1710" s="91"/>
       <c r="R1710" s="91"/>
@@ -35886,7 +35917,7 @@
         <v>5</v>
       </c>
       <c r="E1711" s="94" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="F1711" s="94"/>
       <c r="G1711" s="94"/>
@@ -35907,10 +35938,10 @@
     </row>
     <row r="1713" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1713" s="2" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="C1713" s="89" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="D1713" s="89"/>
       <c r="E1713" s="89"/>
@@ -35936,7 +35967,7 @@
         <v>3</v>
       </c>
       <c r="E1714" s="90" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="F1714" s="90"/>
       <c r="G1714" s="90"/>
@@ -35956,7 +35987,7 @@
         <v>4</v>
       </c>
       <c r="E1715" s="92" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="F1715" s="92"/>
       <c r="G1715" s="92"/>
@@ -35971,7 +36002,7 @@
       <c r="P1715" s="92"/>
       <c r="Q1715" s="92"/>
       <c r="R1715" s="91" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="S1715" s="91"/>
       <c r="T1715" s="91"/>
@@ -35982,7 +36013,7 @@
         <v>5</v>
       </c>
       <c r="E1716" s="90" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="F1716" s="90"/>
       <c r="G1716" s="90"/>
@@ -36002,7 +36033,7 @@
         <v>10</v>
       </c>
       <c r="E1717" s="90" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="F1717" s="90"/>
       <c r="G1717" s="90"/>
@@ -36019,10 +36050,10 @@
     </row>
     <row r="1719" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1719" s="2" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C1719" s="89" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="D1719" s="89"/>
       <c r="E1719" s="89"/>
@@ -36048,7 +36079,7 @@
         <v>3</v>
       </c>
       <c r="E1720" s="92" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="F1720" s="92"/>
       <c r="G1720" s="92"/>
@@ -36061,7 +36092,7 @@
       <c r="N1720" s="92"/>
       <c r="O1720" s="92"/>
       <c r="P1720" s="91" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="Q1720" s="91"/>
       <c r="R1720" s="91"/>
@@ -36074,7 +36105,7 @@
         <v>4</v>
       </c>
       <c r="E1721" s="90" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="F1721" s="90"/>
       <c r="G1721" s="90"/>
@@ -36087,7 +36118,7 @@
       <c r="N1721" s="90"/>
       <c r="O1721" s="90"/>
       <c r="P1721" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="1722" spans="2:21" x14ac:dyDescent="0.25">
@@ -36095,7 +36126,7 @@
         <v>5</v>
       </c>
       <c r="E1722" s="90" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="F1722" s="90"/>
       <c r="G1722" s="90"/>
@@ -36110,10 +36141,10 @@
     </row>
     <row r="1724" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1724" s="2" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="C1724" s="89" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="D1724" s="89"/>
       <c r="E1724" s="89"/>
@@ -36139,7 +36170,7 @@
         <v>3</v>
       </c>
       <c r="E1725" s="90" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="F1725" s="90"/>
       <c r="G1725" s="90"/>
@@ -36156,7 +36187,7 @@
         <v>4</v>
       </c>
       <c r="E1726" s="92" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="F1726" s="92"/>
       <c r="G1726" s="92"/>
@@ -36168,7 +36199,7 @@
       <c r="M1726" s="92"/>
       <c r="N1726" s="92"/>
       <c r="O1726" s="91" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="P1726" s="91"/>
       <c r="Q1726" s="91"/>
@@ -36182,7 +36213,7 @@
         <v>5</v>
       </c>
       <c r="E1727" s="90" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="F1727" s="90"/>
       <c r="G1727" s="90"/>
@@ -36196,10 +36227,10 @@
     </row>
     <row r="1729" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1729" s="2" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="C1729" s="89" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="D1729" s="89"/>
       <c r="E1729" s="89"/>
@@ -36225,7 +36256,7 @@
         <v>3</v>
       </c>
       <c r="E1730" s="90" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="F1730" s="90"/>
       <c r="G1730" s="90"/>
@@ -36238,7 +36269,7 @@
         <v>4</v>
       </c>
       <c r="E1731" s="92" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="F1731" s="92"/>
       <c r="G1731" s="92"/>
@@ -36246,7 +36277,7 @@
       <c r="I1731" s="92"/>
       <c r="J1731" s="92"/>
       <c r="K1731" s="91" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="L1731" s="91"/>
       <c r="M1731" s="91"/>
@@ -36264,7 +36295,7 @@
         <v>5</v>
       </c>
       <c r="E1732" s="90" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="F1732" s="90"/>
       <c r="G1732" s="90"/>
@@ -36274,10 +36305,10 @@
     </row>
     <row r="1734" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1734" s="2" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="C1734" s="89" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="D1734" s="89"/>
       <c r="E1734" s="89"/>
@@ -36303,7 +36334,7 @@
         <v>3</v>
       </c>
       <c r="E1735" s="90" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="F1735" s="90"/>
       <c r="G1735" s="90"/>
@@ -36318,7 +36349,7 @@
         <v>4</v>
       </c>
       <c r="E1736" s="92" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="F1736" s="92"/>
       <c r="G1736" s="92"/>
@@ -36328,7 +36359,7 @@
       <c r="K1736" s="92"/>
       <c r="L1736" s="92"/>
       <c r="M1736" s="91" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="N1736" s="91"/>
       <c r="O1736" s="91"/>
@@ -36344,7 +36375,7 @@
         <v>5</v>
       </c>
       <c r="E1737" s="90" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="F1737" s="90"/>
       <c r="G1737" s="90"/>
@@ -36356,10 +36387,10 @@
     </row>
     <row r="1739" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1739" s="2" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="C1739" s="89" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="D1739" s="89"/>
       <c r="E1739" s="89"/>
@@ -36385,7 +36416,7 @@
         <v>3</v>
       </c>
       <c r="E1740" s="90" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="F1740" s="90"/>
       <c r="G1740" s="90"/>
@@ -36400,7 +36431,7 @@
         <v>4</v>
       </c>
       <c r="E1741" s="92" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="F1741" s="92"/>
       <c r="G1741" s="92"/>
@@ -36410,7 +36441,7 @@
       <c r="K1741" s="92"/>
       <c r="L1741" s="92"/>
       <c r="M1741" s="91" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="N1741" s="91"/>
       <c r="O1741" s="91"/>
@@ -36426,7 +36457,7 @@
         <v>5</v>
       </c>
       <c r="E1742" s="90" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="F1742" s="90"/>
       <c r="G1742" s="90"/>
@@ -36438,10 +36469,10 @@
     </row>
     <row r="1744" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1744" s="2" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="C1744" s="89" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="D1744" s="89"/>
       <c r="E1744" s="89"/>
@@ -36467,7 +36498,7 @@
         <v>3</v>
       </c>
       <c r="E1745" s="92" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="F1745" s="92"/>
       <c r="G1745" s="92"/>
@@ -36475,7 +36506,7 @@
       <c r="I1745" s="92"/>
       <c r="J1745" s="92"/>
       <c r="K1745" s="91" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="L1745" s="91"/>
       <c r="M1745" s="91"/>
@@ -36493,7 +36524,7 @@
         <v>4</v>
       </c>
       <c r="E1746" s="90" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="F1746" s="90"/>
       <c r="G1746" s="90"/>
@@ -36506,7 +36537,7 @@
         <v>5</v>
       </c>
       <c r="E1747" s="94" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="F1747" s="94"/>
       <c r="G1747" s="94"/>
@@ -36516,10 +36547,10 @@
     </row>
     <row r="1749" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1749" s="2" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="C1749" s="89" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="D1749" s="89"/>
       <c r="E1749" s="89"/>
@@ -36545,7 +36576,7 @@
         <v>3</v>
       </c>
       <c r="E1750" s="90" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="F1750" s="90"/>
       <c r="G1750" s="90"/>
@@ -36560,7 +36591,7 @@
         <v>4</v>
       </c>
       <c r="E1751" s="92" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="F1751" s="92"/>
       <c r="G1751" s="92"/>
@@ -36570,7 +36601,7 @@
       <c r="K1751" s="92"/>
       <c r="L1751" s="92"/>
       <c r="M1751" s="91" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="N1751" s="90"/>
       <c r="O1751" s="90"/>
@@ -36587,7 +36618,7 @@
         <v>5</v>
       </c>
       <c r="E1752" s="90" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="F1752" s="90"/>
       <c r="G1752" s="90"/>
@@ -36599,10 +36630,10 @@
     </row>
     <row r="1754" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1754" s="2" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="C1754" s="100" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="D1754" s="89"/>
       <c r="E1754" s="89"/>
@@ -36628,7 +36659,7 @@
         <v>3</v>
       </c>
       <c r="E1755" s="90" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="F1755" s="90"/>
       <c r="G1755" s="90"/>
@@ -36641,7 +36672,7 @@
         <v>4</v>
       </c>
       <c r="E1756" s="90" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="F1756" s="90"/>
       <c r="G1756" s="90"/>
@@ -36654,7 +36685,7 @@
         <v>5</v>
       </c>
       <c r="E1757" s="92" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="F1757" s="92"/>
       <c r="G1757" s="92"/>
@@ -36662,7 +36693,7 @@
       <c r="I1757" s="92"/>
       <c r="J1757" s="92"/>
       <c r="K1757" s="91" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="L1757" s="91"/>
       <c r="M1757" s="91"/>
@@ -36677,10 +36708,10 @@
     </row>
     <row r="1759" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1759" s="2" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C1759" s="89" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="D1759" s="89"/>
       <c r="E1759" s="89"/>
@@ -36706,7 +36737,7 @@
         <v>3</v>
       </c>
       <c r="E1760" s="90" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="F1760" s="90"/>
       <c r="G1760" s="90"/>
@@ -36724,7 +36755,7 @@
         <v>4</v>
       </c>
       <c r="E1761" s="92" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="F1761" s="92"/>
       <c r="G1761" s="92"/>
@@ -36737,7 +36768,7 @@
       <c r="N1761" s="92"/>
       <c r="O1761" s="92"/>
       <c r="P1761" s="91" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="Q1761" s="91"/>
       <c r="R1761" s="91"/>
@@ -36750,7 +36781,7 @@
         <v>5</v>
       </c>
       <c r="E1762" s="90" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="F1762" s="90"/>
       <c r="G1762" s="90"/>
@@ -36765,15 +36796,15 @@
     </row>
     <row r="1764" spans="1:21" s="98" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1764" s="98" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1766" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1766" s="2" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C1766" s="89" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="D1766" s="89"/>
       <c r="E1766" s="89"/>
@@ -36799,7 +36830,7 @@
         <v>3</v>
       </c>
       <c r="E1767" s="90" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="F1767" s="90"/>
       <c r="G1767" s="90"/>
@@ -36810,13 +36841,13 @@
         <v>4</v>
       </c>
       <c r="E1768" s="92" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="F1768" s="92"/>
       <c r="G1768" s="92"/>
       <c r="H1768" s="92"/>
       <c r="I1768" s="91" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="J1768" s="91"/>
       <c r="K1768" s="91"/>
@@ -36836,7 +36867,7 @@
         <v>5</v>
       </c>
       <c r="E1769" s="90" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="F1769" s="90"/>
       <c r="G1769" s="90"/>
@@ -36844,10 +36875,10 @@
     </row>
     <row r="1771" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1771" s="2" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="C1771" s="89" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D1771" s="89"/>
       <c r="E1771" s="89"/>
@@ -36873,7 +36904,7 @@
         <v>3</v>
       </c>
       <c r="E1772" s="90" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="F1772" s="90"/>
       <c r="G1772" s="90"/>
@@ -36891,7 +36922,7 @@
         <v>4</v>
       </c>
       <c r="E1773" s="95" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="F1773" s="95"/>
       <c r="G1773" s="95"/>
@@ -36924,7 +36955,7 @@
         <v>5</v>
       </c>
       <c r="E1775" s="92" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="F1775" s="92"/>
       <c r="G1775" s="92"/>
@@ -36937,7 +36968,7 @@
       <c r="N1775" s="92"/>
       <c r="O1775" s="92"/>
       <c r="P1775" s="91" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="Q1775" s="91"/>
       <c r="R1775" s="91"/>
@@ -36947,10 +36978,10 @@
     </row>
     <row r="1777" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1777" s="2" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="C1777" s="89" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="D1777" s="89"/>
       <c r="E1777" s="89"/>
@@ -36976,7 +37007,7 @@
         <v>3</v>
       </c>
       <c r="E1778" s="92" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="F1778" s="92"/>
       <c r="G1778" s="92"/>
@@ -36986,7 +37017,7 @@
       <c r="K1778" s="92"/>
       <c r="L1778" s="92"/>
       <c r="M1778" s="91" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="N1778" s="91"/>
       <c r="O1778" s="91"/>
@@ -37002,7 +37033,7 @@
         <v>4</v>
       </c>
       <c r="E1779" s="90" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="F1779" s="90"/>
       <c r="G1779" s="90"/>
@@ -37017,7 +37048,7 @@
         <v>5</v>
       </c>
       <c r="E1780" s="90" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="F1780" s="90"/>
       <c r="G1780" s="90"/>
@@ -37032,7 +37063,7 @@
         <v>10</v>
       </c>
       <c r="E1781" s="90" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="F1781" s="90"/>
       <c r="G1781" s="90"/>
@@ -37044,10 +37075,10 @@
     </row>
     <row r="1783" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1783" s="2" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="C1783" s="89" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="D1783" s="89"/>
       <c r="E1783" s="89"/>
@@ -37073,7 +37104,7 @@
         <v>3</v>
       </c>
       <c r="E1784" s="90" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="F1784" s="90"/>
       <c r="G1784" s="90"/>
@@ -37088,7 +37119,7 @@
         <v>4</v>
       </c>
       <c r="E1785" s="90" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="F1785" s="90"/>
       <c r="G1785" s="90"/>
@@ -37103,7 +37134,7 @@
         <v>5</v>
       </c>
       <c r="E1786" s="90" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="F1786" s="90"/>
       <c r="G1786" s="90"/>
@@ -37118,7 +37149,7 @@
         <v>10</v>
       </c>
       <c r="E1787" s="92" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="F1787" s="92"/>
       <c r="G1787" s="92"/>
@@ -37128,7 +37159,7 @@
       <c r="K1787" s="92"/>
       <c r="L1787" s="92"/>
       <c r="M1787" s="91" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="N1787" s="91"/>
       <c r="O1787" s="91"/>
@@ -37141,10 +37172,10 @@
     </row>
     <row r="1789" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1789" s="2" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="C1789" s="89" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="D1789" s="89"/>
       <c r="E1789" s="89"/>
@@ -37170,7 +37201,7 @@
         <v>3</v>
       </c>
       <c r="E1790" s="95" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="F1790" s="95"/>
       <c r="G1790" s="95"/>
@@ -37188,7 +37219,7 @@
         <v>4</v>
       </c>
       <c r="E1791" s="95" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="F1791" s="95"/>
       <c r="G1791" s="95"/>
@@ -37218,7 +37249,7 @@
         <v>5</v>
       </c>
       <c r="E1793" s="93" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="F1793" s="92"/>
       <c r="G1793" s="92"/>
@@ -37230,7 +37261,7 @@
       <c r="M1793" s="92"/>
       <c r="N1793" s="92"/>
       <c r="O1793" s="91" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="P1793" s="91"/>
       <c r="Q1793" s="91"/>
@@ -37264,7 +37295,7 @@
         <v>10</v>
       </c>
       <c r="E1795" s="90" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="F1795" s="90"/>
       <c r="G1795" s="90"/>
@@ -37278,10 +37309,10 @@
     </row>
     <row r="1797" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1797" s="2" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="C1797" s="89" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="D1797" s="89"/>
       <c r="E1797" s="89"/>
@@ -37307,7 +37338,7 @@
         <v>3</v>
       </c>
       <c r="E1798" s="96" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="F1798" s="96"/>
       <c r="G1798" s="96"/>
@@ -37319,7 +37350,7 @@
         <v>4</v>
       </c>
       <c r="E1799" s="90" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="F1799" s="90"/>
       <c r="G1799" s="90"/>
@@ -37331,7 +37362,7 @@
         <v>5</v>
       </c>
       <c r="E1800" s="96" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="F1800" s="96"/>
       <c r="G1800" s="96"/>
@@ -37355,7 +37386,7 @@
         <v>11</v>
       </c>
       <c r="E1802" s="90" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="F1802" s="90"/>
       <c r="G1802" s="90"/>
@@ -37374,7 +37405,7 @@
       <c r="H1803" s="92"/>
       <c r="I1803" s="92"/>
       <c r="J1803" s="91" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="K1803" s="91"/>
       <c r="L1803" s="91"/>
@@ -37390,10 +37421,10 @@
     </row>
     <row r="1805" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1805" s="2" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="C1805" s="89" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D1805" s="89"/>
       <c r="E1805" s="89"/>
@@ -37419,7 +37450,7 @@
         <v>3</v>
       </c>
       <c r="E1806" s="90" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="F1806" s="90"/>
       <c r="G1806" s="90"/>
@@ -37438,7 +37469,7 @@
         <v>4</v>
       </c>
       <c r="E1807" s="90" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="F1807" s="90"/>
       <c r="G1807" s="90"/>
@@ -37457,7 +37488,7 @@
         <v>5</v>
       </c>
       <c r="E1808" s="93" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="F1808" s="92"/>
       <c r="G1808" s="92"/>
@@ -37471,7 +37502,7 @@
       <c r="O1808" s="92"/>
       <c r="P1808" s="92"/>
       <c r="Q1808" s="91" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="R1808" s="91"/>
       <c r="S1808" s="91"/>
@@ -37480,10 +37511,10 @@
     </row>
     <row r="1810" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1810" s="2" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="C1810" s="89" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="D1810" s="89"/>
       <c r="E1810" s="89"/>
@@ -37509,7 +37540,7 @@
         <v>3</v>
       </c>
       <c r="E1811" s="90" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="F1811" s="90"/>
       <c r="G1811" s="90"/>
@@ -37520,7 +37551,7 @@
         <v>4</v>
       </c>
       <c r="E1812" s="90" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="F1812" s="90"/>
       <c r="G1812" s="90"/>
@@ -37531,13 +37562,13 @@
         <v>5</v>
       </c>
       <c r="E1813" s="92" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="F1813" s="92"/>
       <c r="G1813" s="92"/>
       <c r="H1813" s="92"/>
       <c r="I1813" s="91" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="J1813" s="91"/>
       <c r="K1813" s="91"/>
@@ -37554,10 +37585,10 @@
     </row>
     <row r="1815" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1815" s="2" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="C1815" s="89" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D1815" s="89"/>
       <c r="E1815" s="89"/>
@@ -37583,14 +37614,14 @@
         <v>3</v>
       </c>
       <c r="E1816" s="92" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="F1816" s="92"/>
       <c r="G1816" s="92"/>
       <c r="H1816" s="92"/>
       <c r="I1816" s="92"/>
       <c r="J1816" s="91" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="K1816" s="91"/>
       <c r="L1816" s="91"/>
@@ -37609,7 +37640,7 @@
         <v>4</v>
       </c>
       <c r="E1817" s="90" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="F1817" s="90"/>
       <c r="G1817" s="90"/>
@@ -37621,7 +37652,7 @@
         <v>5</v>
       </c>
       <c r="E1818" s="90" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="F1818" s="90"/>
       <c r="G1818" s="90"/>
@@ -37630,10 +37661,10 @@
     </row>
     <row r="1820" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1820" s="2" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="C1820" s="89" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D1820" s="89"/>
       <c r="E1820" s="89"/>
@@ -37659,7 +37690,7 @@
         <v>3</v>
       </c>
       <c r="E1821" s="92" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="F1821" s="92"/>
       <c r="G1821" s="92"/>
@@ -37685,7 +37716,7 @@
         <v>4</v>
       </c>
       <c r="E1822" s="90" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="F1822" s="90"/>
       <c r="G1822" s="90"/>
@@ -37704,7 +37735,7 @@
         <v>5</v>
       </c>
       <c r="E1823" s="90" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="F1823" s="90"/>
       <c r="G1823" s="90"/>
@@ -37720,10 +37751,10 @@
     </row>
     <row r="1825" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1825" s="2" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="C1825" s="89" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="D1825" s="89"/>
       <c r="E1825" s="89"/>
@@ -37749,12 +37780,12 @@
         <v>3</v>
       </c>
       <c r="E1826" s="92" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="F1826" s="92"/>
       <c r="G1826" s="92"/>
       <c r="H1826" s="91" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="I1826" s="91"/>
       <c r="J1826" s="91"/>
@@ -37775,7 +37806,7 @@
         <v>4</v>
       </c>
       <c r="E1827" s="90" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="F1827" s="90"/>
       <c r="G1827" s="90"/>
@@ -37785,17 +37816,17 @@
         <v>5</v>
       </c>
       <c r="E1828" s="90" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="F1828" s="90"/>
       <c r="G1828" s="90"/>
     </row>
     <row r="1830" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1830" s="2" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="C1830" s="89" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="D1830" s="89"/>
       <c r="E1830" s="89"/>
@@ -37821,7 +37852,7 @@
         <v>3</v>
       </c>
       <c r="E1831" s="90" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="F1831" s="90"/>
       <c r="G1831" s="90"/>
@@ -37831,7 +37862,7 @@
         <v>4</v>
       </c>
       <c r="E1832" s="90" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="F1832" s="90"/>
       <c r="G1832" s="90"/>
@@ -37841,12 +37872,12 @@
         <v>5</v>
       </c>
       <c r="E1833" s="92" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="F1833" s="92"/>
       <c r="G1833" s="92"/>
       <c r="H1833" s="91" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="I1833" s="91"/>
       <c r="J1833" s="91"/>
@@ -37864,10 +37895,10 @@
     </row>
     <row r="1835" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1835" s="2" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="C1835" s="100" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="D1835" s="89"/>
       <c r="E1835" s="89"/>
@@ -37893,7 +37924,7 @@
         <v>3</v>
       </c>
       <c r="E1836" s="90" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="F1836" s="90"/>
       <c r="G1836" s="90"/>
@@ -37903,12 +37934,12 @@
         <v>4</v>
       </c>
       <c r="E1837" s="92" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="F1837" s="92"/>
       <c r="G1837" s="92"/>
       <c r="H1837" s="91" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="I1837" s="91"/>
       <c r="J1837" s="91"/>
@@ -37929,17 +37960,17 @@
         <v>5</v>
       </c>
       <c r="E1838" s="90" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="F1838" s="90"/>
       <c r="G1838" s="90"/>
     </row>
     <row r="1840" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1840" s="2" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C1840" s="89" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D1840" s="89"/>
       <c r="E1840" s="89"/>
@@ -37965,13 +37996,13 @@
         <v>3</v>
       </c>
       <c r="E1841" s="92" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="F1841" s="92"/>
       <c r="G1841" s="92"/>
       <c r="H1841" s="92"/>
       <c r="I1841" s="91" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="J1841" s="91"/>
       <c r="K1841" s="91"/>
@@ -37991,7 +38022,7 @@
         <v>4</v>
       </c>
       <c r="E1842" s="90" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="F1842" s="90"/>
       <c r="G1842" s="90"/>
@@ -38002,7 +38033,7 @@
         <v>5</v>
       </c>
       <c r="E1843" s="90" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="F1843" s="90"/>
       <c r="G1843" s="90"/>
@@ -38013,7 +38044,7 @@
         <v>10</v>
       </c>
       <c r="E1844" s="90" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="F1844" s="90"/>
       <c r="G1844" s="90"/>
@@ -38021,10 +38052,10 @@
     </row>
     <row r="1846" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1846" s="2" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="C1846" s="89" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="D1846" s="89"/>
       <c r="E1846" s="89"/>
@@ -38050,7 +38081,7 @@
         <v>3</v>
       </c>
       <c r="E1847" s="92" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="F1847" s="92"/>
       <c r="G1847" s="92"/>
@@ -38061,7 +38092,7 @@
       <c r="L1847" s="92"/>
       <c r="M1847" s="92"/>
       <c r="N1847" s="91" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="O1847" s="91"/>
       <c r="P1847" s="91"/>
@@ -38076,7 +38107,7 @@
         <v>4</v>
       </c>
       <c r="E1848" s="90" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="F1848" s="90"/>
       <c r="G1848" s="90"/>
@@ -38092,7 +38123,7 @@
         <v>5</v>
       </c>
       <c r="E1849" s="90" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="F1849" s="90"/>
       <c r="G1849" s="90"/>
@@ -38105,10 +38136,10 @@
     </row>
     <row r="1851" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1851" s="2" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="C1851" s="89" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="D1851" s="89"/>
       <c r="E1851" s="89"/>
@@ -38134,7 +38165,7 @@
         <v>3</v>
       </c>
       <c r="E1852" s="95" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="F1852" s="95"/>
       <c r="G1852" s="95"/>
@@ -38160,7 +38191,7 @@
         <v>4</v>
       </c>
       <c r="E1854" s="95" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="F1854" s="90"/>
       <c r="G1854" s="90"/>
@@ -38186,7 +38217,7 @@
         <v>5</v>
       </c>
       <c r="E1856" s="93" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="F1856" s="92"/>
       <c r="G1856" s="92"/>
@@ -38196,7 +38227,7 @@
       <c r="K1856" s="92"/>
       <c r="L1856" s="92"/>
       <c r="M1856" s="91" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="N1856" s="91"/>
       <c r="O1856" s="91"/>
@@ -38229,10 +38260,10 @@
     </row>
     <row r="1859" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1859" s="2" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="C1859" s="89" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="D1859" s="89"/>
       <c r="E1859" s="89"/>
@@ -38258,7 +38289,7 @@
         <v>3</v>
       </c>
       <c r="E1860" s="90" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="F1860" s="90"/>
       <c r="G1860" s="90"/>
@@ -38274,7 +38305,7 @@
         <v>4</v>
       </c>
       <c r="E1861" s="95" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="F1861" s="90"/>
       <c r="G1861" s="90"/>
@@ -38290,7 +38321,7 @@
         <v>5</v>
       </c>
       <c r="E1862" s="93" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="F1862" s="92"/>
       <c r="G1862" s="92"/>
@@ -38301,7 +38332,7 @@
       <c r="L1862" s="92"/>
       <c r="M1862" s="92"/>
       <c r="N1862" s="91" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="O1862" s="91"/>
       <c r="P1862" s="91"/>
@@ -38325,10 +38356,10 @@
     </row>
     <row r="1865" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1865" s="2" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="C1865" s="89" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="D1865" s="89"/>
       <c r="E1865" s="89"/>
@@ -38354,7 +38385,7 @@
         <v>3</v>
       </c>
       <c r="E1866" s="92" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="F1866" s="92"/>
       <c r="G1866" s="92"/>
@@ -38380,7 +38411,7 @@
         <v>4</v>
       </c>
       <c r="E1867" s="90" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="F1867" s="90"/>
       <c r="G1867" s="90"/>
@@ -38395,7 +38426,7 @@
         <v>5</v>
       </c>
       <c r="E1868" s="90" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="F1868" s="90"/>
       <c r="G1868" s="90"/>
@@ -38407,15 +38438,15 @@
     </row>
     <row r="1870" spans="1:21" s="98" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1870" s="98" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1872" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1872" s="2" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="C1872" s="89" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="D1872" s="89"/>
       <c r="E1872" s="89"/>
@@ -38441,13 +38472,13 @@
         <v>3</v>
       </c>
       <c r="E1873" s="92" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="F1873" s="92"/>
       <c r="G1873" s="92"/>
       <c r="H1873" s="92"/>
       <c r="I1873" s="91" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="J1873" s="91"/>
       <c r="K1873" s="91"/>
@@ -38467,7 +38498,7 @@
         <v>4</v>
       </c>
       <c r="E1874" s="90" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="F1874" s="90"/>
       <c r="G1874" s="90"/>
@@ -38478,7 +38509,7 @@
         <v>5</v>
       </c>
       <c r="E1875" s="90" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="F1875" s="90"/>
       <c r="G1875" s="90"/>
@@ -38486,10 +38517,10 @@
     </row>
     <row r="1877" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1877" s="2" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="C1877" s="89" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="D1877" s="89"/>
       <c r="E1877" s="89"/>
@@ -38515,7 +38546,7 @@
         <v>3</v>
       </c>
       <c r="E1878" s="90" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="F1878" s="90"/>
       <c r="G1878" s="90"/>
@@ -38528,7 +38559,7 @@
         <v>4</v>
       </c>
       <c r="E1879" s="92" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="F1879" s="92"/>
       <c r="G1879" s="92"/>
@@ -38536,7 +38567,7 @@
       <c r="I1879" s="92"/>
       <c r="J1879" s="92"/>
       <c r="K1879" s="91" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="L1879" s="91"/>
       <c r="M1879" s="91"/>
@@ -38554,7 +38585,7 @@
         <v>5</v>
       </c>
       <c r="E1880" s="90" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="F1880" s="90"/>
       <c r="G1880" s="90"/>
@@ -38564,10 +38595,10 @@
     </row>
     <row r="1882" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1882" s="2" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="C1882" s="89" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="D1882" s="89"/>
       <c r="E1882" s="89"/>
@@ -38593,7 +38624,7 @@
         <v>3</v>
       </c>
       <c r="E1883" s="90" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="F1883" s="90"/>
     </row>
@@ -38602,11 +38633,11 @@
         <v>4</v>
       </c>
       <c r="E1884" s="92" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="F1884" s="92"/>
       <c r="G1884" s="91" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="H1884" s="91"/>
       <c r="I1884" s="91"/>
@@ -38628,16 +38659,16 @@
         <v>5</v>
       </c>
       <c r="E1885" s="90" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="F1885" s="90"/>
     </row>
     <row r="1887" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1887" s="2" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="C1887" s="89" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="D1887" s="89"/>
       <c r="E1887" s="89"/>
@@ -38663,7 +38694,7 @@
         <v>3</v>
       </c>
       <c r="E1888" s="90" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="F1888" s="90"/>
       <c r="G1888" s="90"/>
@@ -38678,7 +38709,7 @@
         <v>4</v>
       </c>
       <c r="E1889" s="90" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="F1889" s="90"/>
       <c r="G1889" s="90"/>
@@ -38693,7 +38724,7 @@
         <v>5</v>
       </c>
       <c r="E1890" s="92" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="F1890" s="92"/>
       <c r="G1890" s="92"/>
@@ -38703,7 +38734,7 @@
       <c r="K1890" s="92"/>
       <c r="L1890" s="92"/>
       <c r="M1890" s="91" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="N1890" s="91"/>
       <c r="O1890" s="91"/>
@@ -38716,10 +38747,10 @@
     </row>
     <row r="1892" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1892" s="2" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="C1892" s="89" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="D1892" s="89"/>
       <c r="E1892" s="89"/>
@@ -38745,14 +38776,14 @@
         <v>3</v>
       </c>
       <c r="E1893" s="92" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="F1893" s="92"/>
       <c r="G1893" s="92"/>
       <c r="H1893" s="92"/>
       <c r="I1893" s="92"/>
       <c r="J1893" s="91" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="K1893" s="91"/>
       <c r="L1893" s="91"/>
@@ -38771,7 +38802,7 @@
         <v>4</v>
       </c>
       <c r="E1894" s="90" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="F1894" s="90"/>
       <c r="G1894" s="90"/>
@@ -38783,7 +38814,7 @@
         <v>5</v>
       </c>
       <c r="E1895" s="90" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="F1895" s="90"/>
       <c r="G1895" s="90"/>
@@ -38792,10 +38823,10 @@
     </row>
     <row r="1897" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1897" s="2" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="C1897" s="89" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="D1897" s="89"/>
       <c r="E1897" s="89"/>
@@ -38821,7 +38852,7 @@
         <v>3</v>
       </c>
       <c r="E1898" s="90" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="F1898" s="90"/>
     </row>
@@ -38830,11 +38861,11 @@
         <v>4</v>
       </c>
       <c r="E1899" s="92" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="F1899" s="92"/>
       <c r="G1899" s="91" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="H1899" s="91"/>
       <c r="I1899" s="91"/>
@@ -38856,16 +38887,16 @@
         <v>5</v>
       </c>
       <c r="E1900" s="90" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="F1900" s="90"/>
     </row>
     <row r="1902" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1902" s="2" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="C1902" s="89" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="D1902" s="89"/>
       <c r="E1902" s="89"/>
@@ -38891,12 +38922,12 @@
         <v>3</v>
       </c>
       <c r="E1903" s="92" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="F1903" s="92"/>
       <c r="G1903" s="92"/>
       <c r="H1903" s="91" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="I1903" s="91"/>
       <c r="J1903" s="91"/>
@@ -38917,7 +38948,7 @@
         <v>4</v>
       </c>
       <c r="E1904" s="90" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="F1904" s="90"/>
       <c r="G1904" s="90"/>
@@ -38927,17 +38958,17 @@
         <v>5</v>
       </c>
       <c r="E1905" s="90" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="F1905" s="90"/>
       <c r="G1905" s="90"/>
     </row>
     <row r="1907" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1907" s="2" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="C1907" s="89" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="D1907" s="89"/>
       <c r="E1907" s="89"/>
@@ -38963,7 +38994,7 @@
         <v>3</v>
       </c>
       <c r="E1908" s="92" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="F1908" s="92"/>
       <c r="G1908" s="92"/>
@@ -38975,7 +39006,7 @@
       <c r="M1908" s="92"/>
       <c r="N1908" s="92"/>
       <c r="O1908" s="91" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="P1908" s="91"/>
       <c r="Q1908" s="91"/>
@@ -38989,7 +39020,7 @@
         <v>4</v>
       </c>
       <c r="E1909" s="90" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="F1909" s="90"/>
       <c r="G1909" s="90"/>
@@ -39006,7 +39037,7 @@
         <v>5</v>
       </c>
       <c r="E1910" s="90" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="F1910" s="90"/>
       <c r="G1910" s="90"/>
@@ -39023,7 +39054,7 @@
         <v>10</v>
       </c>
       <c r="E1911" s="90" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="F1911" s="90"/>
       <c r="G1911" s="90"/>
@@ -39037,10 +39068,10 @@
     </row>
     <row r="1913" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1913" s="2" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="C1913" s="89" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="D1913" s="89"/>
       <c r="E1913" s="89"/>
@@ -39066,7 +39097,7 @@
         <v>3</v>
       </c>
       <c r="E1914" s="90" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="F1914" s="90"/>
       <c r="G1914" s="90"/>
@@ -39077,13 +39108,13 @@
         <v>4</v>
       </c>
       <c r="E1915" s="92" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="F1915" s="92"/>
       <c r="G1915" s="92"/>
       <c r="H1915" s="92"/>
       <c r="I1915" s="91" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="J1915" s="91"/>
       <c r="K1915" s="91"/>
@@ -39103,7 +39134,7 @@
         <v>5</v>
       </c>
       <c r="E1916" s="90" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="F1916" s="90"/>
       <c r="G1916" s="90"/>
@@ -39111,10 +39142,10 @@
     </row>
     <row r="1918" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1918" s="2" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="C1918" s="89" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="D1918" s="89"/>
       <c r="E1918" s="89"/>
@@ -39140,12 +39171,12 @@
         <v>3</v>
       </c>
       <c r="E1919" s="92" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="F1919" s="92"/>
       <c r="G1919" s="92"/>
       <c r="H1919" s="91" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="I1919" s="91"/>
       <c r="J1919" s="91"/>
@@ -39166,17 +39197,17 @@
         <v>4</v>
       </c>
       <c r="E1920" s="90" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="F1920" s="90"/>
       <c r="G1920" s="90"/>
     </row>
     <row r="1922" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1922" s="2" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="C1922" s="89" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="D1922" s="89"/>
       <c r="E1922" s="89"/>
@@ -39202,7 +39233,7 @@
         <v>3</v>
       </c>
       <c r="E1923" s="90" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="F1923" s="90"/>
       <c r="G1923" s="90"/>
@@ -39216,7 +39247,7 @@
         <v>4</v>
       </c>
       <c r="E1924" s="90" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="F1924" s="90"/>
       <c r="G1924" s="90"/>
@@ -39230,7 +39261,7 @@
         <v>5</v>
       </c>
       <c r="E1925" s="92" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="F1925" s="92"/>
       <c r="G1925" s="92"/>
@@ -39239,7 +39270,7 @@
       <c r="J1925" s="92"/>
       <c r="K1925" s="92"/>
       <c r="L1925" s="91" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="M1925" s="91"/>
       <c r="N1925" s="91"/>
@@ -39253,10 +39284,10 @@
     </row>
     <row r="1927" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1927" s="2" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="C1927" s="89" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="D1927" s="89"/>
       <c r="E1927" s="89"/>
@@ -39282,7 +39313,7 @@
         <v>3</v>
       </c>
       <c r="E1928" s="90" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="F1928" s="90"/>
       <c r="G1928" s="90"/>
@@ -39295,7 +39326,7 @@
         <v>4</v>
       </c>
       <c r="E1929" s="92" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="F1929" s="92"/>
       <c r="G1929" s="92"/>
@@ -39303,7 +39334,7 @@
       <c r="I1929" s="92"/>
       <c r="J1929" s="92"/>
       <c r="K1929" s="91" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="L1929" s="91"/>
       <c r="M1929" s="91"/>
@@ -39321,7 +39352,7 @@
         <v>5</v>
       </c>
       <c r="E1930" s="90" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="F1930" s="90"/>
       <c r="G1930" s="90"/>
@@ -39331,10 +39362,10 @@
     </row>
     <row r="1932" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1932" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C1932" s="89" t="s">
         <v>1691</v>
-      </c>
-      <c r="C1932" s="89" t="s">
-        <v>1693</v>
       </c>
       <c r="D1932" s="89"/>
       <c r="E1932" s="89"/>
@@ -39360,7 +39391,7 @@
         <v>3</v>
       </c>
       <c r="E1933" s="92" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="F1933" s="92"/>
       <c r="G1933" s="92"/>
@@ -39371,7 +39402,7 @@
       <c r="L1933" s="92"/>
       <c r="M1933" s="92"/>
       <c r="N1933" s="91" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="O1933" s="91"/>
       <c r="P1933" s="91"/>
@@ -39386,7 +39417,7 @@
         <v>4</v>
       </c>
       <c r="E1934" s="90" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="F1934" s="90"/>
       <c r="G1934" s="90"/>
@@ -39402,7 +39433,7 @@
         <v>5</v>
       </c>
       <c r="E1935" s="90" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="F1935" s="90"/>
       <c r="G1935" s="90"/>
@@ -39415,10 +39446,10 @@
     </row>
     <row r="1937" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1937" s="2" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="C1937" s="89" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="D1937" s="89"/>
       <c r="E1937" s="89"/>
@@ -39447,7 +39478,7 @@
         <v>66</v>
       </c>
       <c r="F1938" s="91" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="G1938" s="91"/>
       <c r="H1938" s="91"/>
@@ -39475,10 +39506,10 @@
     </row>
     <row r="1941" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1941" s="2" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="C1941" s="89" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D1941" s="89"/>
       <c r="E1941" s="89"/>
@@ -39504,7 +39535,7 @@
         <v>3</v>
       </c>
       <c r="E1942" s="92" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="F1942" s="92"/>
       <c r="G1942" s="92"/>
@@ -39518,7 +39549,7 @@
       <c r="O1942" s="92"/>
       <c r="P1942" s="92"/>
       <c r="Q1942" s="91" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="R1942" s="91"/>
       <c r="S1942" s="91"/>
@@ -39530,7 +39561,7 @@
         <v>4</v>
       </c>
       <c r="E1943" s="90" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="F1943" s="90"/>
       <c r="G1943" s="90"/>
@@ -39549,7 +39580,7 @@
         <v>5</v>
       </c>
       <c r="E1944" s="90" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="F1944" s="90"/>
       <c r="G1944" s="90"/>
@@ -39565,10 +39596,10 @@
     </row>
     <row r="1946" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1946" s="2" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="C1946" s="89" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="D1946" s="89"/>
       <c r="E1946" s="89"/>
@@ -39594,7 +39625,7 @@
         <v>3</v>
       </c>
       <c r="E1947" s="90" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="F1947" s="90"/>
       <c r="G1947" s="90"/>
@@ -39608,7 +39639,7 @@
         <v>4</v>
       </c>
       <c r="E1948" s="92" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="F1948" s="92"/>
       <c r="G1948" s="92"/>
@@ -39617,7 +39648,7 @@
       <c r="J1948" s="92"/>
       <c r="K1948" s="92"/>
       <c r="L1948" s="91" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="M1948" s="91"/>
       <c r="N1948" s="91"/>
@@ -39634,7 +39665,7 @@
         <v>5</v>
       </c>
       <c r="E1949" s="90" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="F1949" s="90"/>
       <c r="G1949" s="90"/>
@@ -39645,10 +39676,10 @@
     </row>
     <row r="1951" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1951" s="2" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="C1951" s="89" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="D1951" s="89"/>
       <c r="E1951" s="89"/>
@@ -39674,7 +39705,7 @@
         <v>3</v>
       </c>
       <c r="E1952" s="90" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="F1952" s="90"/>
       <c r="G1952" s="90"/>
@@ -39690,7 +39721,7 @@
         <v>4</v>
       </c>
       <c r="E1953" s="92" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="F1953" s="92"/>
       <c r="G1953" s="92"/>
@@ -39701,7 +39732,7 @@
       <c r="L1953" s="92"/>
       <c r="M1953" s="92"/>
       <c r="N1953" s="91" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="O1953" s="91"/>
       <c r="P1953" s="91"/>
@@ -39716,7 +39747,7 @@
         <v>5</v>
       </c>
       <c r="E1954" s="90" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="F1954" s="90"/>
       <c r="G1954" s="90"/>
@@ -39729,10 +39760,10 @@
     </row>
     <row r="1956" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1956" s="2" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="C1956" s="89" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="D1956" s="89"/>
       <c r="E1956" s="89"/>
@@ -39758,7 +39789,7 @@
         <v>3</v>
       </c>
       <c r="E1957" s="90" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="F1957" s="90"/>
       <c r="G1957" s="90"/>
@@ -39772,7 +39803,7 @@
         <v>4</v>
       </c>
       <c r="E1958" s="92" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="F1958" s="92"/>
       <c r="G1958" s="92"/>
@@ -39781,7 +39812,7 @@
       <c r="J1958" s="92"/>
       <c r="K1958" s="92"/>
       <c r="L1958" s="91" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="M1958" s="91"/>
       <c r="N1958" s="91"/>
@@ -39798,7 +39829,7 @@
         <v>5</v>
       </c>
       <c r="E1959" s="90" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="F1959" s="90"/>
       <c r="G1959" s="90"/>
@@ -39809,10 +39840,10 @@
     </row>
     <row r="1961" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1961" s="2" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="C1961" s="89" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="D1961" s="89"/>
       <c r="E1961" s="89"/>
@@ -39838,7 +39869,7 @@
         <v>3</v>
       </c>
       <c r="E1962" s="92" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="F1962" s="92"/>
       <c r="G1962" s="92"/>
@@ -39847,7 +39878,7 @@
       <c r="J1962" s="92"/>
       <c r="K1962" s="92"/>
       <c r="L1962" s="91" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="M1962" s="91"/>
       <c r="N1962" s="91"/>
@@ -39864,7 +39895,7 @@
         <v>4</v>
       </c>
       <c r="E1963" s="90" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="F1963" s="90"/>
       <c r="G1963" s="90"/>
@@ -39878,7 +39909,7 @@
         <v>5</v>
       </c>
       <c r="E1964" s="90" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="F1964" s="90"/>
       <c r="G1964" s="90"/>
@@ -39889,10 +39920,10 @@
     </row>
     <row r="1966" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1966" s="2" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="C1966" s="89" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="D1966" s="89"/>
       <c r="E1966" s="89"/>
@@ -39918,7 +39949,7 @@
         <v>3</v>
       </c>
       <c r="E1967" s="90" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="F1967" s="90"/>
       <c r="G1967" s="90"/>
@@ -39932,7 +39963,7 @@
         <v>4</v>
       </c>
       <c r="E1968" s="90" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="F1968" s="90"/>
       <c r="G1968" s="90"/>
@@ -39946,7 +39977,7 @@
         <v>5</v>
       </c>
       <c r="E1969" s="92" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="F1969" s="92"/>
       <c r="G1969" s="92"/>
@@ -39955,7 +39986,7 @@
       <c r="J1969" s="92"/>
       <c r="K1969" s="92"/>
       <c r="L1969" s="91" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="M1969" s="91"/>
       <c r="N1969" s="91"/>
@@ -39969,10 +40000,10 @@
     </row>
     <row r="1971" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1971" s="2" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="C1971" s="89" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="D1971" s="89"/>
       <c r="E1971" s="89"/>
@@ -40015,7 +40046,7 @@
       <c r="G1973" s="92"/>
       <c r="H1973" s="92"/>
       <c r="I1973" s="91" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="J1973" s="91"/>
       <c r="K1973" s="91"/>
@@ -40035,7 +40066,7 @@
         <v>5</v>
       </c>
       <c r="E1974" s="90" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="F1974" s="90"/>
       <c r="G1974" s="90"/>
@@ -40043,10 +40074,10 @@
     </row>
     <row r="1976" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1976" s="2" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="C1976" s="89" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="D1976" s="89"/>
       <c r="E1976" s="89"/>
@@ -40085,7 +40116,7 @@
         <v>4</v>
       </c>
       <c r="E1978" s="90" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="F1978" s="90"/>
       <c r="G1978" s="90"/>
@@ -40098,7 +40129,7 @@
         <v>5</v>
       </c>
       <c r="E1979" s="92" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="F1979" s="92"/>
       <c r="G1979" s="92"/>
@@ -40106,7 +40137,7 @@
       <c r="I1979" s="92"/>
       <c r="J1979" s="92"/>
       <c r="K1979" s="91" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="L1979" s="91"/>
       <c r="M1979" s="91"/>
@@ -40124,7 +40155,7 @@
         <v>10</v>
       </c>
       <c r="E1980" s="90" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="F1980" s="90"/>
       <c r="G1980" s="90"/>
@@ -40134,10 +40165,10 @@
     </row>
     <row r="1982" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1982" s="2" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="C1982" s="89" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="D1982" s="89"/>
       <c r="E1982" s="89"/>
@@ -40163,7 +40194,7 @@
         <v>3</v>
       </c>
       <c r="E1983" s="92" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="F1983" s="92"/>
       <c r="G1983" s="92"/>
@@ -40171,7 +40202,7 @@
       <c r="I1983" s="92"/>
       <c r="J1983" s="92"/>
       <c r="K1983" s="91" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="L1983" s="91"/>
       <c r="M1983" s="91"/>
@@ -40189,7 +40220,7 @@
         <v>4</v>
       </c>
       <c r="E1984" s="90" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="F1984" s="90"/>
       <c r="G1984" s="90"/>
@@ -40202,7 +40233,7 @@
         <v>5</v>
       </c>
       <c r="E1985" s="90" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="F1985" s="90"/>
       <c r="G1985" s="90"/>
@@ -40212,10 +40243,10 @@
     </row>
     <row r="1987" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1987" s="2" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="C1987" s="100" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="D1987" s="89"/>
       <c r="E1987" s="89"/>
@@ -40260,7 +40291,7 @@
         <v>8087</v>
       </c>
       <c r="F1990" s="91" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="G1990" s="91"/>
       <c r="H1990" s="91"/>
@@ -40280,10 +40311,10 @@
     </row>
     <row r="1992" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1992" s="2" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="C1992" s="100" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="D1992" s="89"/>
       <c r="E1992" s="89"/>
@@ -40309,7 +40340,7 @@
         <v>3</v>
       </c>
       <c r="E1993" s="92" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="F1993" s="92"/>
       <c r="G1993" s="92"/>
@@ -40319,7 +40350,7 @@
       <c r="K1993" s="92"/>
       <c r="L1993" s="92"/>
       <c r="M1993" s="91" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="N1993" s="91"/>
       <c r="O1993" s="91"/>
@@ -40335,7 +40366,7 @@
         <v>4</v>
       </c>
       <c r="E1994" s="90" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="F1994" s="90"/>
       <c r="G1994" s="90"/>
@@ -40347,10 +40378,10 @@
     </row>
     <row r="1996" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1996" s="2" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="C1996" s="89" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="D1996" s="89"/>
       <c r="E1996" s="89"/>
@@ -40376,7 +40407,7 @@
         <v>3</v>
       </c>
       <c r="E1997" s="90" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="F1997" s="90"/>
       <c r="G1997" s="90"/>
@@ -40390,7 +40421,7 @@
         <v>4</v>
       </c>
       <c r="E1998" s="90" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="F1998" s="90"/>
       <c r="G1998" s="90"/>
@@ -40404,7 +40435,7 @@
         <v>5</v>
       </c>
       <c r="E1999" s="90" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="F1999" s="90"/>
       <c r="G1999" s="90"/>
@@ -40418,7 +40449,7 @@
         <v>10</v>
       </c>
       <c r="E2000" s="92" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="F2000" s="92"/>
       <c r="G2000" s="92"/>
@@ -40427,7 +40458,7 @@
       <c r="J2000" s="92"/>
       <c r="K2000" s="92"/>
       <c r="L2000" s="91" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="M2000" s="91"/>
       <c r="N2000" s="91"/>
@@ -40444,7 +40475,7 @@
         <v>11</v>
       </c>
       <c r="E2001" s="90" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="F2001" s="90"/>
       <c r="G2001" s="90"/>
@@ -40455,10 +40486,10 @@
     </row>
     <row r="2003" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2003" s="2" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="C2003" s="100" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="D2003" s="89"/>
       <c r="E2003" s="89"/>
@@ -40484,7 +40515,7 @@
         <v>3</v>
       </c>
       <c r="E2004" s="95" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="F2004" s="90"/>
       <c r="G2004" s="90"/>
@@ -40512,7 +40543,7 @@
         <v>4</v>
       </c>
       <c r="E2006" s="93" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F2006" s="92"/>
       <c r="G2006" s="92"/>
@@ -40522,7 +40553,7 @@
       <c r="K2006" s="92"/>
       <c r="L2006" s="92"/>
       <c r="M2006" s="91" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="N2006" s="91"/>
       <c r="O2006" s="91"/>
@@ -40558,7 +40589,7 @@
         <v>5</v>
       </c>
       <c r="E2008" s="95" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="F2008" s="95"/>
       <c r="G2008" s="95"/>
@@ -40581,10 +40612,10 @@
     </row>
     <row r="2011" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2011" s="2" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="C2011" s="89" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="D2011" s="89"/>
       <c r="E2011" s="89"/>
@@ -40610,7 +40641,7 @@
         <v>3</v>
       </c>
       <c r="E2012" s="90" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="F2012" s="90"/>
       <c r="G2012" s="90"/>
@@ -40624,7 +40655,7 @@
         <v>4</v>
       </c>
       <c r="E2013" s="92" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="F2013" s="92"/>
       <c r="G2013" s="92"/>
@@ -40633,7 +40664,7 @@
       <c r="J2013" s="92"/>
       <c r="K2013" s="92"/>
       <c r="L2013" s="91" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="M2013" s="91"/>
       <c r="N2013" s="91"/>
@@ -40650,7 +40681,7 @@
         <v>5</v>
       </c>
       <c r="E2014" s="90" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="F2014" s="90"/>
       <c r="G2014" s="90"/>
@@ -40661,10 +40692,10 @@
     </row>
     <row r="2016" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2016" s="2" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="C2016" s="89" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="D2016" s="89"/>
       <c r="E2016" s="89"/>
@@ -40690,7 +40721,7 @@
         <v>3</v>
       </c>
       <c r="E2017" s="90" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="F2017" s="90"/>
       <c r="G2017" s="90"/>
@@ -40706,7 +40737,7 @@
         <v>4</v>
       </c>
       <c r="E2018" s="92" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="F2018" s="92"/>
       <c r="G2018" s="92"/>
@@ -40717,7 +40748,7 @@
       <c r="L2018" s="92"/>
       <c r="M2018" s="92"/>
       <c r="N2018" s="91" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="O2018" s="91"/>
       <c r="P2018" s="91"/>
@@ -40732,7 +40763,7 @@
         <v>5</v>
       </c>
       <c r="E2019" s="90" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="F2019" s="90"/>
       <c r="G2019" s="90"/>
@@ -40748,7 +40779,7 @@
         <v>10</v>
       </c>
       <c r="E2020" s="90" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="F2020" s="90"/>
       <c r="G2020" s="90"/>
@@ -40761,10 +40792,10 @@
     </row>
     <row r="2022" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2022" s="2" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="C2022" s="89" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="D2022" s="89"/>
       <c r="E2022" s="89"/>
@@ -40790,7 +40821,7 @@
         <v>3</v>
       </c>
       <c r="E2023" s="92" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="F2023" s="92"/>
       <c r="G2023" s="91" t="s">
@@ -40816,7 +40847,7 @@
         <v>4</v>
       </c>
       <c r="E2024" s="90" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="F2024" s="90"/>
     </row>
@@ -40825,16 +40856,16 @@
         <v>5</v>
       </c>
       <c r="E2025" s="90" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="F2025" s="90"/>
     </row>
     <row r="2027" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2027" s="2" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="C2027" s="100" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="D2027" s="89"/>
       <c r="E2027" s="89"/>
@@ -40859,7 +40890,7 @@
         <v>3</v>
       </c>
       <c r="E2028" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="2029" spans="2:21" x14ac:dyDescent="0.25">
@@ -40867,7 +40898,7 @@
         <v>4</v>
       </c>
       <c r="E2029" s="90" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="F2029" s="90"/>
       <c r="G2029" s="90"/>
@@ -40879,14 +40910,14 @@
         <v>5</v>
       </c>
       <c r="E2030" s="92" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="F2030" s="92"/>
       <c r="G2030" s="92"/>
       <c r="H2030" s="92"/>
       <c r="I2030" s="92"/>
       <c r="J2030" s="91" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="K2030" s="91"/>
       <c r="L2030" s="91"/>
@@ -40902,10 +40933,10 @@
     </row>
     <row r="2032" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2032" s="2" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="C2032" s="89" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="D2032" s="89"/>
       <c r="E2032" s="89"/>
@@ -40931,7 +40962,7 @@
         <v>3</v>
       </c>
       <c r="E2033" s="90" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="F2033" s="90"/>
       <c r="G2033" s="90"/>
@@ -40945,7 +40976,7 @@
         <v>4</v>
       </c>
       <c r="E2034" s="90" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="F2034" s="90"/>
       <c r="G2034" s="90"/>
@@ -40959,7 +40990,7 @@
         <v>5</v>
       </c>
       <c r="E2035" s="92" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="F2035" s="92"/>
       <c r="G2035" s="92"/>
@@ -40968,7 +40999,7 @@
       <c r="J2035" s="92"/>
       <c r="K2035" s="92"/>
       <c r="L2035" s="91" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="M2035" s="91"/>
       <c r="N2035" s="91"/>
@@ -40982,10 +41013,10 @@
     </row>
     <row r="2037" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2037" s="2" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="C2037" s="89" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="D2037" s="89"/>
       <c r="E2037" s="89"/>
@@ -41011,7 +41042,7 @@
         <v>3</v>
       </c>
       <c r="E2038" s="93" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="F2038" s="93"/>
       <c r="G2038" s="93"/>
@@ -41023,7 +41054,7 @@
       <c r="M2038" s="93"/>
       <c r="N2038" s="93"/>
       <c r="O2038" s="91" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="P2038" s="91"/>
       <c r="Q2038" s="91"/>
@@ -41057,7 +41088,7 @@
         <v>4</v>
       </c>
       <c r="E2040" s="95" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="F2040" s="90"/>
       <c r="G2040" s="90"/>
@@ -41087,7 +41118,7 @@
         <v>5</v>
       </c>
       <c r="E2042" s="95" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="F2042" s="90"/>
       <c r="G2042" s="90"/>
@@ -41114,10 +41145,10 @@
     </row>
     <row r="2045" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2045" s="136" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="C2045" s="100" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="D2045" s="89"/>
       <c r="E2045" s="89"/>
@@ -41165,7 +41196,7 @@
         <v>3</v>
       </c>
       <c r="E2047" s="96" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="F2047" s="96"/>
       <c r="G2047" s="96"/>
@@ -41182,7 +41213,7 @@
         <v>4</v>
       </c>
       <c r="E2048" s="90" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="F2048" s="90"/>
       <c r="G2048" s="90"/>
@@ -41199,7 +41230,7 @@
         <v>5</v>
       </c>
       <c r="E2049" s="90" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="F2049" s="90"/>
       <c r="G2049" s="90"/>
@@ -41233,7 +41264,7 @@
         <v>11</v>
       </c>
       <c r="E2051" s="90" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="F2051" s="90"/>
       <c r="G2051" s="90"/>
@@ -41247,10 +41278,10 @@
     </row>
     <row r="2053" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2053" s="136" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="C2053" s="100" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="D2053" s="100"/>
       <c r="E2053" s="100"/>
@@ -41298,13 +41329,13 @@
         <v>3</v>
       </c>
       <c r="E2055" s="92" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="F2055" s="92"/>
       <c r="G2055" s="92"/>
       <c r="H2055" s="92"/>
       <c r="I2055" s="91" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="J2055" s="91"/>
       <c r="K2055" s="91"/>
@@ -41324,7 +41355,7 @@
         <v>4</v>
       </c>
       <c r="E2056" s="137" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="F2056" s="137"/>
       <c r="G2056" s="137"/>
@@ -41348,15 +41379,21 @@
         <v>5</v>
       </c>
       <c r="E2057" s="90" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="F2057" s="90"/>
       <c r="G2057" s="90"/>
       <c r="H2057" s="90"/>
     </row>
   </sheetData>
-  <mergeCells count="2075">
+  <mergeCells count="2080">
     <mergeCell ref="A1310:C1310"/>
+    <mergeCell ref="A1478:C1478"/>
+    <mergeCell ref="A1463:C1463"/>
+    <mergeCell ref="A1449:C1449"/>
+    <mergeCell ref="A1426:C1426"/>
+    <mergeCell ref="A1483:C1483"/>
+    <mergeCell ref="A1473:C1473"/>
     <mergeCell ref="Q1053:U1053"/>
     <mergeCell ref="A1043:C1043"/>
     <mergeCell ref="A1089:C1089"/>
@@ -43151,7 +43188,6 @@
     <mergeCell ref="E1463:L1463"/>
     <mergeCell ref="E1464:L1464"/>
     <mergeCell ref="E1465:L1465"/>
-    <mergeCell ref="M1464:U1464"/>
     <mergeCell ref="C1467:U1467"/>
     <mergeCell ref="E1468:M1468"/>
     <mergeCell ref="E1469:M1469"/>
